--- a/data_clean/NEL 15.12.2020.xlsx
+++ b/data_clean/NEL 15.12.2020.xlsx
@@ -1488,7 +1488,7 @@
         <v>1.159899272328615</v>
       </c>
       <c r="K2">
-        <v>52.01251344644945</v>
+        <v>0.02012513446449418</v>
       </c>
       <c r="L2">
         <v>0.003371823970460845</v>
@@ -1518,13 +1518,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.04627643645622725</v>
@@ -1589,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1630,7 +1630,7 @@
         <v>2.556390977443624</v>
       </c>
       <c r="K4">
-        <v>71.88160676532782</v>
+        <v>0.2188160676532782</v>
       </c>
       <c r="L4">
         <v>0.007818185065069516</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.001874609456363</v>
+        <v>0.001874609456363308</v>
       </c>
       <c r="V4">
-        <v>1.001874609456363</v>
+        <v>0.001874609456363308</v>
       </c>
       <c r="W4">
-        <v>1.00709219858156</v>
+        <v>0.007092198581560405</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1701,7 +1701,7 @@
         <v>1.565301671916671</v>
       </c>
       <c r="K5">
-        <v>61.01822990460035</v>
+        <v>0.1101822990460035</v>
       </c>
       <c r="L5">
         <v>0.01884031791427225</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000519750519751</v>
+        <v>0.0005197505197505059</v>
       </c>
       <c r="V5">
-        <v>1.000519750519751</v>
+        <v>0.0005197505197505059</v>
       </c>
       <c r="W5">
-        <v>0.9983429991714996</v>
+        <v>-0.001657000828500399</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1772,7 +1772,7 @@
         <v>1.565301671916671</v>
       </c>
       <c r="K6">
-        <v>61.01822990460035</v>
+        <v>0.1101822990460035</v>
       </c>
       <c r="L6">
         <v>0.02120898422844521</v>
@@ -1802,13 +1802,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000311688311688</v>
+        <v>0.0003116883116882629</v>
       </c>
       <c r="V6">
-        <v>1.000311688311688</v>
+        <v>0.0003116883116882629</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1843,7 +1843,7 @@
         <v>1.565301671916671</v>
       </c>
       <c r="K7">
-        <v>61.01822990460035</v>
+        <v>0.1101822990460035</v>
       </c>
       <c r="L7">
         <v>0.02102089221686442</v>
@@ -1873,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.00020772746157</v>
+        <v>0.0002077274615703839</v>
       </c>
       <c r="V7">
-        <v>1.00020772746157</v>
+        <v>0.0002077274615703839</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1914,7 +1914,7 @@
         <v>1.077895243042355</v>
       </c>
       <c r="K8">
-        <v>51.87437849196633</v>
+        <v>0.01874378491966333</v>
       </c>
       <c r="L8">
         <v>0.01812220313937098</v>
@@ -1944,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9999109924343569</v>
+        <v>-8.900756564311774E-05</v>
       </c>
       <c r="V8">
-        <v>0.9999109924343569</v>
+        <v>-8.900756564311774E-05</v>
       </c>
       <c r="W8">
-        <v>0.9983402489626555</v>
+        <v>-0.001659751037344503</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1985,7 +1985,7 @@
         <v>1.405665543183185</v>
       </c>
       <c r="K9">
-        <v>58.43146181173644</v>
+        <v>0.0843146181173644</v>
       </c>
       <c r="L9">
         <v>0.01637800023006566</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000140941190434</v>
+        <v>0.0001409411904338409</v>
       </c>
       <c r="V9">
-        <v>1.000140941190434</v>
+        <v>0.0001409411904338409</v>
       </c>
       <c r="W9">
-        <v>1.00166251039069</v>
+        <v>0.001662510390689986</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2056,7 +2056,7 @@
         <v>1.405665543183185</v>
       </c>
       <c r="K10">
-        <v>58.43146181173644</v>
+        <v>0.0843146181173644</v>
       </c>
       <c r="L10">
         <v>0.01512659602315094</v>
@@ -2086,13 +2086,13 @@
         <v>0.004861111111111427</v>
       </c>
       <c r="U10">
-        <v>1.000109605477966</v>
+        <v>0.0001096054779663458</v>
       </c>
       <c r="V10">
-        <v>1.000109605477966</v>
+        <v>0.0001096054779663458</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2127,7 +2127,7 @@
         <v>0.9667738952436793</v>
       </c>
       <c r="K11">
-        <v>49.1553145779321</v>
+        <v>-0.008446854220678979</v>
       </c>
       <c r="L11">
         <v>0.01269045269168619</v>
@@ -2157,13 +2157,13 @@
         <v>0.01774999999999949</v>
       </c>
       <c r="U11">
-        <v>0.9998800239952009</v>
+        <v>-0.0001199760047990717</v>
       </c>
       <c r="V11">
-        <v>0.9998800239952009</v>
+        <v>-0.0001199760047990717</v>
       </c>
       <c r="W11">
-        <v>0.9979253112033195</v>
+        <v>-0.002074688796680491</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2198,7 +2198,7 @@
         <v>1.295437573881755</v>
       </c>
       <c r="K12">
-        <v>56.43532146644589</v>
+        <v>0.06435321466445887</v>
       </c>
       <c r="L12">
         <v>0.01126573823427438</v>
@@ -2228,13 +2228,13 @@
         <v>0.01056818181818286</v>
       </c>
       <c r="U12">
-        <v>1.00009062212086</v>
+        <v>9.062212085964028E-05</v>
       </c>
       <c r="V12">
-        <v>1.00009062212086</v>
+        <v>9.062212085964028E-05</v>
       </c>
       <c r="W12">
-        <v>1.002079002079002</v>
+        <v>0.002079002079002024</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2269,7 +2269,7 @@
         <v>0.8727326111273142</v>
       </c>
       <c r="K13">
-        <v>46.60209396374863</v>
+        <v>-0.03397906036251369</v>
       </c>
       <c r="L13">
         <v>0.008733255740006244</v>
@@ -2299,13 +2299,13 @@
         <v>0.005833333333335133</v>
       </c>
       <c r="U13">
-        <v>0.9998332452364771</v>
+        <v>-0.0001667547635229027</v>
       </c>
       <c r="V13">
-        <v>0.9998332452364771</v>
+        <v>-0.0001667547635229027</v>
       </c>
       <c r="W13">
-        <v>0.9970954356846473</v>
+        <v>-0.002904564315352687</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2340,7 +2340,7 @@
         <v>1.118073094277055</v>
       </c>
       <c r="K14">
-        <v>52.78727619448269</v>
+        <v>0.02787276194482691</v>
       </c>
       <c r="L14">
         <v>0.006985987395126928</v>
@@ -2370,13 +2370,13 @@
         <v>0.002884615384612488</v>
       </c>
       <c r="U14">
-        <v>1.000018638981566</v>
+        <v>1.863898156617694E-05</v>
       </c>
       <c r="V14">
-        <v>1.000018638981566</v>
+        <v>1.863898156617694E-05</v>
       </c>
       <c r="W14">
-        <v>1.002080732417811</v>
+        <v>0.002080732417810927</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2411,7 +2411,7 @@
         <v>1.063160202138487</v>
       </c>
       <c r="K15">
-        <v>51.53066645219845</v>
+        <v>0.01530666452198448</v>
       </c>
       <c r="L15">
         <v>0.005542605837619298</v>
@@ -2441,13 +2441,13 @@
         <v>-0.0005357142857178587</v>
       </c>
       <c r="U15">
-        <v>0.999986306309596</v>
+        <v>-1.369369040404855E-05</v>
       </c>
       <c r="V15">
-        <v>0.999986306309596</v>
+        <v>-1.369369040404855E-05</v>
       </c>
       <c r="W15">
-        <v>0.9995847176079735</v>
+        <v>-0.0004152823920264836</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2482,7 +2482,7 @@
         <v>0.8114532237940771</v>
       </c>
       <c r="K16">
-        <v>44.79570397597646</v>
+        <v>-0.05204296024023541</v>
       </c>
       <c r="L16">
         <v>0.003180875280884013</v>
@@ -2512,13 +2512,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U16">
-        <v>0.9998219795869926</v>
+        <v>-0.000178020413007407</v>
       </c>
       <c r="V16">
-        <v>0.9998219795869926</v>
+        <v>-0.000178020413007407</v>
       </c>
       <c r="W16">
-        <v>0.9975072704611551</v>
+        <v>-0.00249272953884494</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2553,7 +2553,7 @@
         <v>0.8114532237940771</v>
       </c>
       <c r="K17">
-        <v>44.79570397597646</v>
+        <v>-0.05204296024023541</v>
       </c>
       <c r="L17">
         <v>0.0005257899705522719</v>
@@ -2583,13 +2583,13 @@
         <v>-0.01000000000000156</v>
       </c>
       <c r="U17">
-        <v>0.9998442044038222</v>
+        <v>-0.0001557955961778434</v>
       </c>
       <c r="V17">
-        <v>0.9999169090153718</v>
+        <v>-8.309098462822018E-05</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2624,7 +2624,7 @@
         <v>0.7173603548886645</v>
       </c>
       <c r="K18">
-        <v>41.77110254389042</v>
+        <v>-0.0822889745610958</v>
       </c>
       <c r="L18">
         <v>-0.002617526864513584</v>
@@ -2654,13 +2654,13 @@
         <v>-0.02124999999999844</v>
       </c>
       <c r="U18">
-        <v>0.9997891848787508</v>
+        <v>-0.0002108151212492082</v>
       </c>
       <c r="V18">
-        <v>1.000027699296438</v>
+        <v>2.769929643808844E-05</v>
       </c>
       <c r="W18">
-        <v>0.9987505206164098</v>
+        <v>-0.001249479383590213</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2695,7 +2695,7 @@
         <v>0.7987329855051984</v>
       </c>
       <c r="K19">
-        <v>44.40531151325185</v>
+        <v>-0.05594688486748156</v>
       </c>
       <c r="L19">
         <v>-0.005418618238699736</v>
@@ -2725,13 +2725,13 @@
         <v>-0.02937499999999815</v>
       </c>
       <c r="U19">
-        <v>0.9998587478540539</v>
+        <v>-0.0001412521459460692</v>
       </c>
       <c r="V19">
-        <v>0.9996122205910866</v>
+        <v>-0.0003877794089134357</v>
       </c>
       <c r="W19">
-        <v>1.000834028356964</v>
+        <v>0.0008340283569641116</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2766,7 +2766,7 @@
         <v>0.7077934838511751</v>
       </c>
       <c r="K20">
-        <v>41.44491067239928</v>
+        <v>-0.08555089327600718</v>
       </c>
       <c r="L20">
         <v>-0.008311715289843789</v>
@@ -2796,13 +2796,13 @@
         <v>-0.03500000000000014</v>
       </c>
       <c r="U20">
-        <v>0.9998079671745407</v>
+        <v>-0.0001920328254593207</v>
       </c>
       <c r="V20">
-        <v>0.9996397794341765</v>
+        <v>-0.0003602205658235214</v>
       </c>
       <c r="W20">
-        <v>0.9987499999999999</v>
+        <v>-0.001250000000000084</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2837,7 +2837,7 @@
         <v>0.5899532281586638</v>
       </c>
       <c r="K21">
-        <v>37.10506810580164</v>
+        <v>-0.1289493189419836</v>
       </c>
       <c r="L21">
         <v>-0.01185262265263015</v>
@@ -2867,13 +2867,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U21">
-        <v>0.9997232008052341</v>
+        <v>-0.0002767991947658643</v>
       </c>
       <c r="V21">
-        <v>0.9995010533318549</v>
+        <v>-0.0004989466681450949</v>
       </c>
       <c r="W21">
-        <v>0.9979140592407176</v>
+        <v>-0.002085940759282368</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2908,7 +2908,7 @@
         <v>0.6951045559766934</v>
       </c>
       <c r="K22">
-        <v>41.00658885765219</v>
+        <v>-0.08993411142347812</v>
       </c>
       <c r="L22">
         <v>-0.01496281176252364</v>
@@ -2938,13 +2938,13 @@
         <v>-0.04437499999999517</v>
       </c>
       <c r="U22">
-        <v>0.9998089019984097</v>
+        <v>-0.0001910980015903396</v>
       </c>
       <c r="V22">
-        <v>0.9995840035498365</v>
+        <v>-0.0004159964501635471</v>
       </c>
       <c r="W22">
-        <v>1.001254180602007</v>
+        <v>0.001254180602006549</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2979,7 +2979,7 @@
         <v>0.7688949614630344</v>
       </c>
       <c r="K23">
-        <v>43.46753075869974</v>
+        <v>-0.06532469241300254</v>
       </c>
       <c r="L23">
         <v>-0.01721959339621534</v>
@@ -3009,13 +3009,13 @@
         <v>-0.04875000000000185</v>
       </c>
       <c r="U23">
-        <v>0.9998640541046658</v>
+        <v>-0.0001359458953341663</v>
       </c>
       <c r="V23">
-        <v>0.9997502982548624</v>
+        <v>-0.0002497017451376093</v>
       </c>
       <c r="W23">
-        <v>1.000835073068894</v>
+        <v>0.0008350730688935215</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3050,7 +3050,7 @@
         <v>0.8465690725012881</v>
       </c>
       <c r="K24">
-        <v>45.84551345022582</v>
+        <v>-0.04154486549774183</v>
       </c>
       <c r="L24">
         <v>-0.01843398848460608</v>
@@ -3080,13 +3080,13 @@
         <v>-0.04687500000000355</v>
       </c>
       <c r="U24">
-        <v>0.9999120322603188</v>
+        <v>-8.796773968122729E-05</v>
       </c>
       <c r="V24">
-        <v>0.9996947327524004</v>
+        <v>-0.0003052672475996054</v>
       </c>
       <c r="W24">
-        <v>1.000834376303713</v>
+        <v>0.0008343763037128582</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3121,7 +3121,7 @@
         <v>0.7540855118022426</v>
       </c>
       <c r="K25">
-        <v>42.99023660639294</v>
+        <v>-0.0700976339360706</v>
       </c>
       <c r="L25">
         <v>-0.01936438332067737</v>
@@ -3151,13 +3151,13 @@
         <v>-0.04437499999999872</v>
       </c>
       <c r="U25">
-        <v>0.9998673516146925</v>
+        <v>-0.0001326483853074656</v>
       </c>
       <c r="V25">
-        <v>0.9996113594092664</v>
+        <v>-0.0003886405907336243</v>
       </c>
       <c r="W25">
-        <v>0.9987494789495625</v>
+        <v>-0.001250521050437547</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3192,7 +3192,7 @@
         <v>0.7003912367809016</v>
       </c>
       <c r="K26">
-        <v>41.19000507829295</v>
+        <v>-0.08809994921707054</v>
       </c>
       <c r="L26">
         <v>-0.02030748248059764</v>
@@ -3222,13 +3222,13 @@
         <v>-0.03937500000000327</v>
       </c>
       <c r="U26">
-        <v>0.999844660194175</v>
+        <v>-0.0001553398058250499</v>
       </c>
       <c r="V26">
-        <v>0.9996945208142408</v>
+        <v>-0.0003054791857591832</v>
       </c>
       <c r="W26">
-        <v>0.9991652754590985</v>
+        <v>-0.0008347245409014992</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3263,7 +3263,7 @@
         <v>0.7753433325466278</v>
       </c>
       <c r="K27">
-        <v>43.67286700733218</v>
+        <v>-0.06327132992667822</v>
       </c>
       <c r="L27">
         <v>-0.02080222241910345</v>
@@ -3293,13 +3293,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U27">
-        <v>0.9998885989331108</v>
+        <v>-0.0001114010668892274</v>
       </c>
       <c r="V27">
-        <v>0.9996110895049723</v>
+        <v>-0.0003889104950276501</v>
       </c>
       <c r="W27">
-        <v>1.000835421888054</v>
+        <v>0.0008354218880535225</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3334,7 +3334,7 @@
         <v>0.6932950433614671</v>
       </c>
       <c r="K28">
-        <v>40.94354649412799</v>
+        <v>-0.09056453505872009</v>
       </c>
       <c r="L28">
         <v>-0.02138909874799465</v>
@@ -3364,13 +3364,13 @@
         <v>-0.03312499999999829</v>
       </c>
       <c r="U28">
-        <v>0.9998505949522436</v>
+        <v>-0.0001494050477564013</v>
       </c>
       <c r="V28">
-        <v>0.9997220987105381</v>
+        <v>-0.0002779012894619237</v>
       </c>
       <c r="W28">
-        <v>0.9987479131886478</v>
+        <v>-0.001252086811352249</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3405,7 +3405,7 @@
         <v>0.6932950433614672</v>
       </c>
       <c r="K29">
-        <v>40.943546494128</v>
+        <v>-0.09056453505871997</v>
       </c>
       <c r="L29">
         <v>-0.02191147543389783</v>
@@ -3435,13 +3435,13 @@
         <v>-0.02562500000000156</v>
       </c>
       <c r="U29">
-        <v>0.9998612460108229</v>
+        <v>-0.0001387539891770651</v>
       </c>
       <c r="V29">
-        <v>0.9995830321899148</v>
+        <v>-0.0004169678100851559</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3476,7 +3476,7 @@
         <v>0.8496339244186344</v>
       </c>
       <c r="K30">
-        <v>45.93524768344017</v>
+        <v>-0.04064752316559828</v>
       </c>
       <c r="L30">
         <v>-0.02165821261876374</v>
@@ -3506,13 +3506,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U30">
-        <v>0.9999282207355937</v>
+        <v>-7.177926440626869E-05</v>
       </c>
       <c r="V30">
-        <v>0.9997219055034902</v>
+        <v>-0.0002780944965098398</v>
       </c>
       <c r="W30">
-        <v>1.001671541997493</v>
+        <v>0.001671541997492643</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3547,7 +3547,7 @@
         <v>0.9319175460276696</v>
       </c>
       <c r="K31">
-        <v>48.23795652893368</v>
+        <v>-0.01762043471066321</v>
       </c>
       <c r="L31">
         <v>-0.02056727921124991</v>
@@ -3577,13 +3577,13 @@
         <v>-0.008749999999995595</v>
       </c>
       <c r="U31">
-        <v>0.9999607578520189</v>
+        <v>-3.924214798112224E-05</v>
       </c>
       <c r="V31">
-        <v>0.9999443656290856</v>
+        <v>-5.563437091438139E-05</v>
       </c>
       <c r="W31">
-        <v>1.000834376303713</v>
+        <v>0.0008343763037128582</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3618,7 +3618,7 @@
         <v>1.061839053831417</v>
       </c>
       <c r="K32">
-        <v>51.49960914059962</v>
+        <v>0.01499609140599623</v>
       </c>
       <c r="L32">
         <v>-0.01850590457792017</v>
@@ -3648,13 +3648,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U32">
-        <v>0.999972242269472</v>
+        <v>-2.775773052798858E-05</v>
       </c>
       <c r="V32">
-        <v>1.000027818733135</v>
+        <v>2.78187331348434E-05</v>
       </c>
       <c r="W32">
-        <v>1.001250521050438</v>
+        <v>0.001250521050437658</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3689,7 +3689,7 @@
         <v>1.061839053831417</v>
       </c>
       <c r="K33">
-        <v>51.49960914059962</v>
+        <v>0.01499609140599623</v>
       </c>
       <c r="L33">
         <v>-0.01592666245593702</v>
@@ -3719,13 +3719,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U33">
-        <v>1.000069396252602</v>
+        <v>6.93962526023828E-05</v>
       </c>
       <c r="V33">
-        <v>1.000111271837098</v>
+        <v>0.0001112718370979149</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3760,7 +3760,7 @@
         <v>1.157810620076101</v>
       </c>
       <c r="K34">
-        <v>53.65673008112582</v>
+        <v>0.03656730081125825</v>
       </c>
       <c r="L34">
         <v>-0.01283669560558908</v>
@@ -3790,13 +3790,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U34">
-        <v>0.9998612171258067</v>
+        <v>-0.0001387828741933328</v>
       </c>
       <c r="V34">
-        <v>1.000111259457054</v>
+        <v>0.0001112594570538139</v>
       </c>
       <c r="W34">
-        <v>1.000832639467111</v>
+        <v>0.0008326394671107629</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3831,7 +3831,7 @@
         <v>1.157810620076101</v>
       </c>
       <c r="K35">
-        <v>53.65673008112582</v>
+        <v>0.03656730081125825</v>
       </c>
       <c r="L35">
         <v>-0.009591149125734536</v>
@@ -3861,13 +3861,13 @@
         <v>0.01750000000000185</v>
       </c>
       <c r="U35">
-        <v>0.9999167187174681</v>
+        <v>-8.328128253187739E-05</v>
       </c>
       <c r="V35">
-        <v>1.000194682389587</v>
+        <v>0.0001946823895873084</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3902,7 +3902,7 @@
         <v>1.370489991255454</v>
       </c>
       <c r="K36">
-        <v>57.81462888732207</v>
+        <v>0.07814628887322073</v>
       </c>
       <c r="L36">
         <v>-0.00581336560094306</v>
@@ -3932,13 +3932,13 @@
         <v>0.0293749999999946</v>
       </c>
       <c r="U36">
-        <v>0.999972237260373</v>
+        <v>-2.776273962701303E-05</v>
       </c>
       <c r="V36">
-        <v>1.00044490170453</v>
+        <v>0.0004449017045298209</v>
       </c>
       <c r="W36">
-        <v>1.001663893510815</v>
+        <v>0.001663893510815306</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3973,7 +3973,7 @@
         <v>1.426458246828978</v>
       </c>
       <c r="K37">
-        <v>58.78766917556269</v>
+        <v>0.08787669175562696</v>
       </c>
       <c r="L37">
         <v>-0.0017833603279318</v>
@@ -4003,13 +4003,13 @@
         <v>0.03875000000000028</v>
       </c>
       <c r="U37">
-        <v>0.9999861182447907</v>
+        <v>-1.388175520933288E-05</v>
       </c>
       <c r="V37">
-        <v>1.000389115873148</v>
+        <v>0.0003891158731481603</v>
       </c>
       <c r="W37">
-        <v>1.000415282392027</v>
+        <v>0.0004152823920267057</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4044,7 +4044,7 @@
         <v>1.347095524117645</v>
       </c>
       <c r="K38">
-        <v>57.39414993022344</v>
+        <v>0.07394149930223437</v>
       </c>
       <c r="L38">
         <v>0.001993724284942375</v>
@@ -4074,13 +4074,13 @@
         <v>0.04437500000000227</v>
       </c>
       <c r="U38">
-        <v>1.00002776389583</v>
+        <v>2.776389583014627E-05</v>
       </c>
       <c r="V38">
-        <v>1.00030561498069</v>
+        <v>0.0003056149806903719</v>
       </c>
       <c r="W38">
-        <v>0.9995848899958488</v>
+        <v>-0.0004151100041511757</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4115,7 +4115,7 @@
         <v>1.145788234141767</v>
       </c>
       <c r="K39">
-        <v>53.39707879421933</v>
+        <v>0.03397078794219333</v>
       </c>
       <c r="L39">
         <v>0.004910635598751164</v>
@@ -4145,13 +4145,13 @@
         <v>0.046875</v>
       </c>
       <c r="U39">
-        <v>0.9999305921874567</v>
+        <v>-6.940781254327621E-05</v>
       </c>
       <c r="V39">
-        <v>1.000166648150206</v>
+        <v>0.0001666481502056172</v>
       </c>
       <c r="W39">
-        <v>0.9987541528239203</v>
+        <v>-0.001245847176079673</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4186,7 +4186,7 @@
         <v>1.088702764928645</v>
       </c>
       <c r="K40">
-        <v>52.1233936780774</v>
+        <v>0.02123393678077401</v>
       </c>
       <c r="L40">
         <v>0.006950401652877104</v>
@@ -4216,13 +4216,13 @@
         <v>0.04624999999999702</v>
       </c>
       <c r="U40">
-        <v>0.9999167048436133</v>
+        <v>-8.329515638672014E-05</v>
       </c>
       <c r="V40">
-        <v>1.000222160510969</v>
+        <v>0.0002221605109693492</v>
       </c>
       <c r="W40">
-        <v>0.9995841995841995</v>
+        <v>-0.0004158004158004713</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4257,7 +4257,7 @@
         <v>1.19359120033444</v>
       </c>
       <c r="K41">
-        <v>54.41265447055323</v>
+        <v>0.04412654470553223</v>
       </c>
       <c r="L41">
         <v>0.008608463199720745</v>
@@ -4287,13 +4287,13 @@
         <v>0.04499999999999815</v>
       </c>
       <c r="U41">
-        <v>1.000013883682508</v>
+        <v>1.388368250787586E-05</v>
       </c>
       <c r="V41">
-        <v>1.000333166749958</v>
+        <v>0.0003331667499584245</v>
       </c>
       <c r="W41">
-        <v>1.000831946755408</v>
+        <v>0.0008319467554076532</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4328,7 +4328,7 @@
         <v>1.131146871110783</v>
       </c>
       <c r="K42">
-        <v>53.07690832782509</v>
+        <v>0.0307690832782509</v>
       </c>
       <c r="L42">
         <v>0.009745855393824172</v>
@@ -4358,13 +4358,13 @@
         <v>0.03937500000000327</v>
       </c>
       <c r="U42">
-        <v>0.9999305825512301</v>
+        <v>-6.941744876987066E-05</v>
       </c>
       <c r="V42">
-        <v>1.000249791840133</v>
+        <v>0.0002497918401331845</v>
       </c>
       <c r="W42">
-        <v>0.9995843724023276</v>
+        <v>-0.0004156275976724411</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4399,7 +4399,7 @@
         <v>1.072106159635039</v>
       </c>
       <c r="K43">
-        <v>51.73992435908156</v>
+        <v>0.01739924359081568</v>
       </c>
       <c r="L43">
         <v>0.01030786194464233</v>
@@ -4429,13 +4429,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U43">
-        <v>1.000013884453577</v>
+        <v>1.388445357730639E-05</v>
       </c>
       <c r="V43">
-        <v>1.000305224895252</v>
+        <v>0.0003052248952524206</v>
       </c>
       <c r="W43">
-        <v>0.9995841995841995</v>
+        <v>-0.0004158004158004713</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4470,7 +4470,7 @@
         <v>1.072106159635039</v>
       </c>
       <c r="K44">
-        <v>51.73992435908156</v>
+        <v>0.01739924359081568</v>
       </c>
       <c r="L44">
         <v>0.01044824872115692</v>
@@ -4500,13 +4500,13 @@
         <v>0.0224999999999973</v>
       </c>
       <c r="U44">
-        <v>0.9999444629567921</v>
+        <v>-5.553704320793162E-05</v>
       </c>
       <c r="V44">
-        <v>1.000305131761442</v>
+        <v>0.0003051317614424232</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4541,7 +4541,7 @@
         <v>1.07210615963504</v>
       </c>
       <c r="K45">
-        <v>51.73992435908158</v>
+        <v>0.01739924359081579</v>
       </c>
       <c r="L45">
         <v>0.01028644251950393</v>
@@ -4571,13 +4571,13 @@
         <v>0.009375000000002132</v>
       </c>
       <c r="U45">
-        <v>0.9999583449041936</v>
+        <v>-4.165509580644766E-05</v>
       </c>
       <c r="V45">
-        <v>1.000194115526469</v>
+        <v>0.0001941155264688632</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4612,7 +4612,7 @@
         <v>1.193862549790955</v>
       </c>
       <c r="K46">
-        <v>54.41829297394741</v>
+        <v>0.04418292973947413</v>
       </c>
       <c r="L46">
         <v>0.01021833018904887</v>
@@ -4642,13 +4642,13 @@
         <v>0.001250000000002416</v>
       </c>
       <c r="U46">
-        <v>1.00006942805171</v>
+        <v>6.942805170995214E-05</v>
       </c>
       <c r="V46">
-        <v>1.000194077852945</v>
+        <v>0.0001940778529447851</v>
       </c>
       <c r="W46">
-        <v>1.000831946755408</v>
+        <v>0.0008319467554076532</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4683,7 +4683,7 @@
         <v>0.862309744474635</v>
       </c>
       <c r="K47">
-        <v>46.303239674982</v>
+        <v>-0.03696760325018006</v>
       </c>
       <c r="L47">
         <v>0.009262981630673977</v>
@@ -4713,13 +4713,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U47">
-        <v>0.9999861153536418</v>
+        <v>-1.388464635820874E-05</v>
       </c>
       <c r="V47">
-        <v>0.9999445599445599</v>
+        <v>-5.544005544011466E-05</v>
       </c>
       <c r="W47">
-        <v>0.9975062344139651</v>
+        <v>-0.002493765586034868</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4754,7 +4754,7 @@
         <v>0.959753388782951</v>
       </c>
       <c r="K48">
-        <v>48.97317153659719</v>
+        <v>-0.01026828463402807</v>
       </c>
       <c r="L48">
         <v>0.008101518831077141</v>
@@ -4784,13 +4784,13 @@
         <v>-0.008124999999999716</v>
       </c>
       <c r="U48">
-        <v>1.000055539356577</v>
+        <v>5.553935657665043E-05</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W48">
-        <v>1.000833333333333</v>
+        <v>0.0008333333333332416</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4825,7 +4825,7 @@
         <v>0.8704675657714187</v>
       </c>
       <c r="K49">
-        <v>46.53743169357872</v>
+        <v>-0.03462568306421276</v>
       </c>
       <c r="L49">
         <v>0.006556441060284618</v>
@@ -4855,13 +4855,13 @@
         <v>-0.01437500000000114</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0.9998891137415794</v>
+        <v>-0.000110886258420595</v>
       </c>
       <c r="W49">
-        <v>0.9991673605328892</v>
+        <v>-0.0008326394671107629</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4896,7 +4896,7 @@
         <v>0.9683938434513817</v>
       </c>
       <c r="K50">
-        <v>49.19715872273812</v>
+        <v>-0.008028412772618787</v>
       </c>
       <c r="L50">
         <v>0.005157273096175694</v>
@@ -4926,13 +4926,13 @@
         <v>-0.01687499999999886</v>
       </c>
       <c r="U50">
-        <v>1.00006942034016</v>
+        <v>6.942034015966492E-05</v>
       </c>
       <c r="V50">
-        <v>0.9999445507222269</v>
+        <v>-5.544927777312303E-05</v>
       </c>
       <c r="W50">
-        <v>1.000833333333333</v>
+        <v>0.0008333333333332416</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4967,7 +4967,7 @@
         <v>0.8778996870997189</v>
       </c>
       <c r="K51">
-        <v>46.74901929695573</v>
+        <v>-0.03250980703044271</v>
       </c>
       <c r="L51">
         <v>0.003613550751864461</v>
@@ -4997,13 +4997,13 @@
         <v>-0.01937500000000014</v>
       </c>
       <c r="U51">
-        <v>1.000111064834097</v>
+        <v>0.0001110648340969522</v>
       </c>
       <c r="V51">
-        <v>0.9997781905897356</v>
+        <v>-0.0002218094102643953</v>
       </c>
       <c r="W51">
-        <v>0.9991673605328892</v>
+        <v>-0.0008326394671107629</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5038,7 +5038,7 @@
         <v>0.9270826756792824</v>
       </c>
       <c r="K52">
-        <v>48.10809039900131</v>
+        <v>-0.01891909600998692</v>
       </c>
       <c r="L52">
         <v>0.002219250870133132</v>
@@ -5068,13 +5068,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U52">
-        <v>1.000083289375052</v>
+        <v>8.328937505219791E-05</v>
       </c>
       <c r="V52">
-        <v>0.999778141379406</v>
+        <v>-0.0002218586205939843</v>
       </c>
       <c r="W52">
-        <v>1.000416666666667</v>
+        <v>0.0004166666666667318</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5109,7 +5109,7 @@
         <v>0.7680334873191317</v>
       </c>
       <c r="K53">
-        <v>43.43998531858695</v>
+        <v>-0.06560014681413051</v>
       </c>
       <c r="L53">
         <v>0.0003897008306668162</v>
@@ -5139,13 +5139,13 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="U53">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V53">
-        <v>0.9996948767024494</v>
+        <v>-0.0003051232975506135</v>
       </c>
       <c r="W53">
-        <v>0.9983340274885463</v>
+        <v>-0.001665972511453728</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5180,7 +5180,7 @@
         <v>0.8583275908904003</v>
       </c>
       <c r="K54">
-        <v>46.18817452304739</v>
+        <v>-0.03811825476952607</v>
       </c>
       <c r="L54">
         <v>-0.001284997980594644</v>
@@ -5210,13 +5210,13 @@
         <v>-0.02312500000000028</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>0.9998335183129855</v>
+        <v>-0.0001664816870144969</v>
       </c>
       <c r="W54">
-        <v>1.000834376303713</v>
+        <v>0.0008343763037128582</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5251,7 +5251,7 @@
         <v>0.9533740157022789</v>
       </c>
       <c r="K55">
-        <v>48.80652696506362</v>
+        <v>-0.01193473034936382</v>
       </c>
       <c r="L55">
         <v>-0.002451292839285103</v>
@@ -5281,13 +5281,13 @@
         <v>-0.01937500000000369</v>
       </c>
       <c r="U55">
-        <v>1.000069402032091</v>
+        <v>6.940203209149232E-05</v>
       </c>
       <c r="V55">
-        <v>0.9999167452961093</v>
+        <v>-8.325470389070055E-05</v>
       </c>
       <c r="W55">
-        <v>1.000833680700292</v>
+        <v>0.0008336807002919944</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5322,7 +5322,7 @@
         <v>0.9079541244285256</v>
       </c>
       <c r="K56">
-        <v>47.58783834493284</v>
+        <v>-0.02412161655067158</v>
       </c>
       <c r="L56">
         <v>-0.003378020645422926</v>
@@ -5352,13 +5352,13 @@
         <v>-0.01937500000000014</v>
       </c>
       <c r="U56">
-        <v>1.00008327665894</v>
+        <v>8.327665894047875E-05</v>
       </c>
       <c r="V56">
-        <v>0.9998334767283727</v>
+        <v>-0.0001665232716272502</v>
       </c>
       <c r="W56">
-        <v>0.9995835068721366</v>
+        <v>-0.0004164931278634043</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5393,7 +5393,7 @@
         <v>0.9079541244285257</v>
       </c>
       <c r="K57">
-        <v>47.58783834493285</v>
+        <v>-0.02412161655067152</v>
       </c>
       <c r="L57">
         <v>-0.004088297168159624</v>
@@ -5423,13 +5423,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U57">
-        <v>1.000055513149677</v>
+        <v>5.551314967733312E-05</v>
       </c>
       <c r="V57">
-        <v>0.9998612074947955</v>
+        <v>-0.0001387925052045436</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5464,7 +5464,7 @@
         <v>0.9607421682653682</v>
       </c>
       <c r="K58">
-        <v>48.99890377301972</v>
+        <v>-0.0100109622698028</v>
       </c>
       <c r="L58">
         <v>-0.004455715843404754</v>
@@ -5494,13 +5494,13 @@
         <v>-0.01437500000000114</v>
       </c>
       <c r="U58">
-        <v>1.000111020136277</v>
+        <v>0.0001110201362772845</v>
       </c>
       <c r="V58">
-        <v>0.9999167129372569</v>
+        <v>-8.328706274307596E-05</v>
       </c>
       <c r="W58">
-        <v>1.000416666666667</v>
+        <v>0.0004166666666667318</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5535,7 +5535,7 @@
         <v>1.016308530198867</v>
       </c>
       <c r="K59">
-        <v>50.40441554342029</v>
+        <v>0.00404415543420289</v>
       </c>
       <c r="L59">
         <v>-0.004424186594558803</v>
@@ -5565,13 +5565,13 @@
         <v>-0.01062500000000099</v>
       </c>
       <c r="U59">
-        <v>1.000124883788697</v>
+        <v>0.0001248837886966836</v>
       </c>
       <c r="V59">
-        <v>0.9999444706666296</v>
+        <v>-5.552933337038546E-05</v>
       </c>
       <c r="W59">
-        <v>1.000416493127863</v>
+        <v>0.0004164931278634043</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5606,7 +5606,7 @@
         <v>0.9601485692425884</v>
       </c>
       <c r="K60">
-        <v>48.98345892289148</v>
+        <v>-0.01016541077108518</v>
       </c>
       <c r="L60">
         <v>-0.004288467754608886</v>
@@ -5636,13 +5636,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U60">
-        <v>1.000055496975415</v>
+        <v>5.549697541495924E-05</v>
       </c>
       <c r="V60">
-        <v>0.9999167013744273</v>
+        <v>-8.329862557265866E-05</v>
       </c>
       <c r="W60">
-        <v>0.9995836802664447</v>
+        <v>-0.0004163197335552704</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5677,7 +5677,7 @@
         <v>1.13464995327644</v>
       </c>
       <c r="K61">
-        <v>53.15391179405709</v>
+        <v>0.03153911794057085</v>
       </c>
       <c r="L61">
         <v>-0.003627809278013015</v>
@@ -5707,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>1.000069367369589</v>
+        <v>6.936736958929046E-05</v>
       </c>
       <c r="V61">
-        <v>0.9999444629567923</v>
+        <v>-5.553704320770958E-05</v>
       </c>
       <c r="W61">
-        <v>1.00124947938359</v>
+        <v>0.001249479383589991</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5748,7 +5748,7 @@
         <v>0.8687028489636085</v>
       </c>
       <c r="K62">
-        <v>46.48694410913942</v>
+        <v>-0.03513055890860584</v>
       </c>
       <c r="L62">
         <v>-0.003436076860332952</v>
@@ -5778,13 +5778,13 @@
         <v>0.004374999999996021</v>
       </c>
       <c r="U62">
-        <v>0.9999583824651455</v>
+        <v>-4.161753485454334E-05</v>
       </c>
       <c r="V62">
-        <v>0.999972229936129</v>
+        <v>-2.777006387100212E-05</v>
       </c>
       <c r="W62">
-        <v>0.9979201331114809</v>
+        <v>-0.002079866888519133</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5819,7 +5819,7 @@
         <v>0.7255039911268245</v>
       </c>
       <c r="K63">
-        <v>42.04591788008793</v>
+        <v>-0.07954082119912065</v>
       </c>
       <c r="L63">
         <v>-0.004134650757293103</v>
@@ -5849,13 +5849,13 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0.9999028883771258</v>
+        <v>-9.711162287417974E-05</v>
       </c>
       <c r="V63">
-        <v>0.9998056041545167</v>
+        <v>-0.0001943958454833083</v>
       </c>
       <c r="W63">
-        <v>0.9983326385994165</v>
+        <v>-0.001667361400583545</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5890,7 +5890,7 @@
         <v>0.5756702158314344</v>
       </c>
       <c r="K64">
-        <v>36.53494303867833</v>
+        <v>-0.1346505696132167</v>
       </c>
       <c r="L64">
         <v>-0.006222864943057276</v>
@@ -5920,13 +5920,13 @@
         <v>-0.005624999999998437</v>
       </c>
       <c r="U64">
-        <v>0.9997918834547348</v>
+        <v>-0.0002081165452652023</v>
       </c>
       <c r="V64">
-        <v>0.99969446141881</v>
+        <v>-0.0003055385811899791</v>
       </c>
       <c r="W64">
-        <v>0.9974947807933194</v>
+        <v>-0.002505219206680565</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5961,7 +5961,7 @@
         <v>0.6843669048902201</v>
       </c>
       <c r="K65">
-        <v>40.63051244377331</v>
+        <v>-0.09369487556226697</v>
       </c>
       <c r="L65">
         <v>-0.008542630726231841</v>
@@ -5991,13 +5991,13 @@
         <v>-0.01062499999999744</v>
       </c>
       <c r="U65">
-        <v>0.9998334721065779</v>
+        <v>-0.000166527893422086</v>
       </c>
       <c r="V65">
-        <v>0.9997221527604124</v>
+        <v>-0.0002778472395875697</v>
       </c>
       <c r="W65">
-        <v>1.001255755546254</v>
+        <v>0.001255755546253789</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6032,7 +6032,7 @@
         <v>0.6843669048902201</v>
       </c>
       <c r="K66">
-        <v>40.63051244377331</v>
+        <v>-0.09369487556226697</v>
       </c>
       <c r="L66">
         <v>-0.01082408053557077</v>
@@ -6062,13 +6062,13 @@
         <v>-0.01562500000000355</v>
       </c>
       <c r="U66">
-        <v>0.9997779258272261</v>
+        <v>-0.0002220741727738673</v>
       </c>
       <c r="V66">
-        <v>0.9997776604318948</v>
+        <v>-0.0002223395681052454</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6103,7 +6103,7 @@
         <v>0.7245134197780355</v>
       </c>
       <c r="K67">
-        <v>42.01262869101294</v>
+        <v>-0.07987371308987057</v>
       </c>
       <c r="L67">
         <v>-0.01274623659864532</v>
@@ -6133,13 +6133,13 @@
         <v>-0.0224999999999973</v>
       </c>
       <c r="U67">
-        <v>0.9997778764993338</v>
+        <v>-0.0002221235006661937</v>
       </c>
       <c r="V67">
-        <v>0.9997776109860171</v>
+        <v>-0.0002223890139828599</v>
       </c>
       <c r="W67">
-        <v>1.000418060200669</v>
+        <v>0.0004180602006689238</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6174,7 +6174,7 @@
         <v>0.6951372735651324</v>
       </c>
       <c r="K68">
-        <v>41.00772748056873</v>
+        <v>-0.08992272519431266</v>
       </c>
       <c r="L68">
         <v>-0.01443380471902161</v>
@@ -6204,13 +6204,13 @@
         <v>-0.02812499999999929</v>
       </c>
       <c r="U68">
-        <v>0.9997778271495222</v>
+        <v>-0.0002221728504777642</v>
       </c>
       <c r="V68">
-        <v>0.9998609759488392</v>
+        <v>-0.0001390240511608409</v>
       </c>
       <c r="W68">
-        <v>0.999582114500627</v>
+        <v>-0.0004178854993730496</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6245,7 +6245,7 @@
         <v>0.6951372735651322</v>
       </c>
       <c r="K69">
-        <v>41.00772748056873</v>
+        <v>-0.08992272519431277</v>
       </c>
       <c r="L69">
         <v>-0.01581949289125518</v>
@@ -6275,13 +6275,13 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="U69">
-        <v>0.9998194444444443</v>
+        <v>-0.0001805555555557392</v>
       </c>
       <c r="V69">
-        <v>0.999805339265851</v>
+        <v>-0.000194660734148977</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6316,7 +6316,7 @@
         <v>0.7400636277329593</v>
       </c>
       <c r="K70">
-        <v>42.53083714514226</v>
+        <v>-0.07469162854857742</v>
       </c>
       <c r="L70">
         <v>-0.0167249592037043</v>
@@ -6346,13 +6346,13 @@
         <v>-0.04374999999999929</v>
       </c>
       <c r="U70">
-        <v>0.9998471946323645</v>
+        <v>-0.0001528053676355112</v>
       </c>
       <c r="V70">
-        <v>0.9997774872750534</v>
+        <v>-0.0002225127249465553</v>
       </c>
       <c r="W70">
-        <v>1.000418060200669</v>
+        <v>0.0004180602006689238</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6387,7 +6387,7 @@
         <v>0.881936325105078</v>
       </c>
       <c r="K71">
-        <v>46.86323938488381</v>
+        <v>-0.03136760615116185</v>
       </c>
       <c r="L71">
         <v>-0.0167658050735245</v>
@@ -6417,13 +6417,13 @@
         <v>-0.03937499999999972</v>
       </c>
       <c r="U71">
-        <v>0.9998610647993776</v>
+        <v>-0.0001389352006223588</v>
       </c>
       <c r="V71">
-        <v>0.9998887188760607</v>
+        <v>-0.0001112811239393219</v>
       </c>
       <c r="W71">
-        <v>1.00125365649812</v>
+        <v>0.001253656498119593</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6458,7 +6458,7 @@
         <v>0.802081282916294</v>
       </c>
       <c r="K72">
-        <v>44.50860738192076</v>
+        <v>-0.05491392618079238</v>
       </c>
       <c r="L72">
         <v>-0.01652256706824293</v>
@@ -6488,13 +6488,13 @@
         <v>-0.0293749999999946</v>
       </c>
       <c r="U72">
-        <v>0.9998471500430757</v>
+        <v>-0.000152849956924328</v>
       </c>
       <c r="V72">
-        <v>0.9998330597367908</v>
+        <v>-0.000166940263209181</v>
       </c>
       <c r="W72">
-        <v>0.9991652754590985</v>
+        <v>-0.0008347245409014992</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6529,7 +6529,7 @@
         <v>0.8973919496314602</v>
       </c>
       <c r="K73">
-        <v>47.29607658585065</v>
+        <v>-0.02703923414149351</v>
       </c>
       <c r="L73">
         <v>-0.01575897757778066</v>
@@ -6559,13 +6559,13 @@
         <v>-0.02187500000000142</v>
       </c>
       <c r="U73">
-        <v>0.9998888194010145</v>
+        <v>-0.0001111805989855164</v>
       </c>
       <c r="V73">
-        <v>0.9998608598859052</v>
+        <v>-0.0001391401140947712</v>
       </c>
       <c r="W73">
-        <v>1.000835421888054</v>
+        <v>0.0008354218880535225</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6600,7 +6600,7 @@
         <v>1.198373002416196</v>
       </c>
       <c r="K74">
-        <v>54.51181401423159</v>
+        <v>0.04511814014231585</v>
       </c>
       <c r="L74">
         <v>-0.01376033456873822</v>
@@ -6630,13 +6630,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U74">
-        <v>0.9999722017596288</v>
+        <v>-2.779824037124623E-05</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>1.002504173622704</v>
+        <v>0.002504173622704498</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6671,7 +6671,7 @@
         <v>1.13826823542504</v>
       </c>
       <c r="K75">
-        <v>53.23318265534527</v>
+        <v>0.03233182655345279</v>
       </c>
       <c r="L75">
         <v>-0.01124198881559536</v>
@@ -6701,13 +6701,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U75">
-        <v>0.9999583014802973</v>
+        <v>-4.169851970270422E-05</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0.9995836802664447</v>
+        <v>-0.0004163197335552704</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6742,7 +6742,7 @@
         <v>0.9826336283373863</v>
       </c>
       <c r="K76">
-        <v>49.56203780127606</v>
+        <v>-0.004379621987239457</v>
       </c>
       <c r="L76">
         <v>-0.008983619812578706</v>
@@ -6772,13 +6772,13 @@
         <v>0.01000000000000156</v>
       </c>
       <c r="U76">
-        <v>0.9998887993105559</v>
+        <v>-0.0001112006894441464</v>
       </c>
       <c r="V76">
-        <v>0.9998330086278876</v>
+        <v>-0.0001669913721124017</v>
       </c>
       <c r="W76">
-        <v>0.9987505206164098</v>
+        <v>-0.001249479383590213</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6813,7 +6813,7 @@
         <v>0.8244257102865212</v>
       </c>
       <c r="K77">
-        <v>45.1882313233268</v>
+        <v>-0.04811768676673195</v>
       </c>
       <c r="L77">
         <v>-0.007601429691907171</v>
@@ -6843,13 +6843,13 @@
         <v>0.01875000000000071</v>
       </c>
       <c r="U77">
-        <v>0.9999165902076903</v>
+        <v>-8.340979230969658E-05</v>
       </c>
       <c r="V77">
-        <v>0.9998608172809264</v>
+        <v>-0.0001391827190736494</v>
       </c>
       <c r="W77">
-        <v>0.9983319432860718</v>
+        <v>-0.001668056713928223</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6884,7 +6884,7 @@
         <v>0.9091646433828953</v>
       </c>
       <c r="K78">
-        <v>47.62107063599944</v>
+        <v>-0.02378929364000565</v>
       </c>
       <c r="L78">
         <v>-0.006506846164752447</v>
@@ -6914,13 +6914,13 @@
         <v>0.0243750000000027</v>
       </c>
       <c r="U78">
-        <v>0.9999165832499166</v>
+        <v>-8.341675008338711E-05</v>
       </c>
       <c r="V78">
-        <v>1.00002784041872</v>
+        <v>2.784041871972676E-05</v>
       </c>
       <c r="W78">
-        <v>1.000835421888054</v>
+        <v>0.0008354218880535225</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6955,7 +6955,7 @@
         <v>0.9091646433828954</v>
       </c>
       <c r="K79">
-        <v>47.62107063599944</v>
+        <v>-0.02378929364000565</v>
       </c>
       <c r="L79">
         <v>-0.005632586743572629</v>
@@ -6985,13 +6985,13 @@
         <v>0.02374999999999616</v>
       </c>
       <c r="U79">
-        <v>0.999944384193988</v>
+        <v>-5.561580601198823E-05</v>
       </c>
       <c r="V79">
-        <v>1.000194877505568</v>
+        <v>0.0001948775055680141</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7026,7 +7026,7 @@
         <v>1.050004975399021</v>
       </c>
       <c r="K80">
-        <v>51.21963058624499</v>
+        <v>0.01219630586244991</v>
       </c>
       <c r="L80">
         <v>-0.004471324126373999</v>
@@ -7056,13 +7056,13 @@
         <v>0.02374999999999972</v>
       </c>
       <c r="U80">
-        <v>0.9999582858255236</v>
+        <v>-4.17141744764038E-05</v>
       </c>
       <c r="V80">
-        <v>1.000194839535725</v>
+        <v>0.0001948395357254107</v>
       </c>
       <c r="W80">
-        <v>1.001252086811352</v>
+        <v>0.001252086811352138</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7097,7 +7097,7 @@
         <v>1.000559658051011</v>
       </c>
       <c r="K81">
-        <v>50.01398753715638</v>
+        <v>0.0001398753715637913</v>
       </c>
       <c r="L81">
         <v>-0.003345752597310174</v>
@@ -7127,13 +7127,13 @@
         <v>0.02250000000000085</v>
       </c>
       <c r="U81">
-        <v>0.9999721893902523</v>
+        <v>-2.781060974765825E-05</v>
       </c>
       <c r="V81">
-        <v>1.000166972783436</v>
+        <v>0.0001669727834361368</v>
       </c>
       <c r="W81">
-        <v>0.9995831596498542</v>
+        <v>-0.0004168403501457751</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7168,7 +7168,7 @@
         <v>0.8349993152288154</v>
       </c>
       <c r="K82">
-        <v>45.50406685708736</v>
+        <v>-0.04495933142912639</v>
       </c>
       <c r="L82">
         <v>-0.002908984115383642</v>
@@ -7198,13 +7198,13 @@
         <v>0.01125000000000043</v>
       </c>
       <c r="U82">
-        <v>0.9999026601588027</v>
+        <v>-9.73398411973081E-05</v>
       </c>
       <c r="V82">
-        <v>1.000027824151364</v>
+        <v>2.782415136359795E-05</v>
       </c>
       <c r="W82">
-        <v>0.9983319432860718</v>
+        <v>-0.001668056713928223</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7239,7 +7239,7 @@
         <v>0.8785434566684754</v>
       </c>
       <c r="K83">
-        <v>46.76726820185137</v>
+        <v>-0.03232731798148625</v>
       </c>
       <c r="L83">
         <v>-0.002754889499191176</v>
@@ -7269,13 +7269,13 @@
         <v>0.002500000000004832</v>
       </c>
       <c r="U83">
-        <v>0.999972185909382</v>
+        <v>-2.781409061802798E-05</v>
       </c>
       <c r="V83">
-        <v>1.000083470131605</v>
+        <v>8.347013160459049E-05</v>
       </c>
       <c r="W83">
-        <v>1.000417710944027</v>
+        <v>0.0004177109440266502</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7310,7 +7310,7 @@
         <v>0.8400394597724472</v>
       </c>
       <c r="K84">
-        <v>45.65333940590234</v>
+        <v>-0.04346660594097657</v>
       </c>
       <c r="L84">
         <v>-0.002923774970819479</v>
@@ -7340,13 +7340,13 @@
         <v>-0.003750000000000142</v>
       </c>
       <c r="U84">
-        <v>0.9999304628393413</v>
+        <v>-6.953716065871696E-05</v>
       </c>
       <c r="V84">
-        <v>1.000055642109949</v>
+        <v>5.564210994890573E-05</v>
       </c>
       <c r="W84">
-        <v>0.9995824634655534</v>
+        <v>-0.0004175365344466497</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7381,7 +7381,7 @@
         <v>0.8400394597724473</v>
       </c>
       <c r="K85">
-        <v>45.65333940590234</v>
+        <v>-0.04346660594097657</v>
       </c>
       <c r="L85">
         <v>-0.003266953794464809</v>
@@ -7411,13 +7411,13 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="U85">
-        <v>0.9999026412050237</v>
+        <v>-9.735879497629885E-05</v>
       </c>
       <c r="V85">
-        <v>1.000027819507038</v>
+        <v>2.781950703845126E-05</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7452,7 +7452,7 @@
         <v>0.8400394597724474</v>
       </c>
       <c r="K86">
-        <v>45.65333940590235</v>
+        <v>-0.04346660594097651</v>
       </c>
       <c r="L86">
         <v>-0.003681990771965287</v>
@@ -7482,13 +7482,13 @@
         <v>-0.008125000000003268</v>
       </c>
       <c r="U86">
-        <v>0.9999165414788849</v>
+        <v>-8.345852111513175E-05</v>
       </c>
       <c r="V86">
-        <v>0.9999443625337301</v>
+        <v>-5.563746626990884E-05</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7523,7 +7523,7 @@
         <v>0.8400394597724475</v>
       </c>
       <c r="K87">
-        <v>45.65333940590236</v>
+        <v>-0.0434666059409764</v>
       </c>
       <c r="L87">
         <v>-0.004100737701679014</v>
@@ -7553,13 +7553,13 @@
         <v>-0.009375000000002132</v>
       </c>
       <c r="U87">
-        <v>0.9999165345129789</v>
+        <v>-8.346548702109491E-05</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7594,7 +7594,7 @@
         <v>0.8400394597724475</v>
       </c>
       <c r="K88">
-        <v>45.65333940590236</v>
+        <v>-0.0434666059409764</v>
       </c>
       <c r="L88">
         <v>-0.004480146134108901</v>
@@ -7624,13 +7624,13 @@
         <v>-0.01562500000000355</v>
       </c>
       <c r="U88">
-        <v>0.9999026154702282</v>
+        <v>-9.738452977181566E-05</v>
       </c>
       <c r="V88">
-        <v>0.9999443594380303</v>
+        <v>-5.564056196971645E-05</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7665,7 +7665,7 @@
         <v>0.8966796285384254</v>
       </c>
       <c r="K89">
-        <v>47.27628298667412</v>
+        <v>-0.02723717013325883</v>
       </c>
       <c r="L89">
         <v>-0.004643310976259746</v>
@@ -7695,13 +7695,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U89">
-        <v>0.9999026059855577</v>
+        <v>-9.739401444230911E-05</v>
       </c>
       <c r="V89">
-        <v>0.9998052471969507</v>
+        <v>-0.0001947528030492585</v>
       </c>
       <c r="W89">
-        <v>1.000417710944027</v>
+        <v>0.0004177109440266502</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7736,7 +7736,7 @@
         <v>0.8966796285384253</v>
       </c>
       <c r="K90">
-        <v>47.27628298667411</v>
+        <v>-0.02723717013325888</v>
       </c>
       <c r="L90">
         <v>-0.004648162510610784</v>
@@ -7766,13 +7766,13 @@
         <v>-0.01312499999999872</v>
       </c>
       <c r="U90">
-        <v>0.9999165112848913</v>
+        <v>-8.348871510865941E-05</v>
       </c>
       <c r="V90">
-        <v>0.9998330365093498</v>
+        <v>-0.0001669634906501516</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7807,7 +7807,7 @@
         <v>1.147716387612056</v>
       </c>
       <c r="K91">
-        <v>53.43891745819137</v>
+        <v>0.03438917458191371</v>
       </c>
       <c r="L91">
         <v>-0.003932017719542892</v>
@@ -7837,13 +7837,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U91">
-        <v>0.9999304202616197</v>
+        <v>-6.957973838028764E-05</v>
       </c>
       <c r="V91">
-        <v>1.000027831895352</v>
+        <v>2.783189535215946E-05</v>
       </c>
       <c r="W91">
-        <v>1.001670146137787</v>
+        <v>0.001670146137787043</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7878,7 +7878,7 @@
         <v>1.213778692631444</v>
       </c>
       <c r="K92">
-        <v>54.82836638872273</v>
+        <v>0.04828366388722727</v>
       </c>
       <c r="L92">
         <v>-0.002658332190712314</v>
@@ -7908,13 +7908,13 @@
         <v>-0.0006249999999994316</v>
       </c>
       <c r="U92">
-        <v>1.000013916916011</v>
+        <v>1.391691601138056E-05</v>
       </c>
       <c r="V92">
-        <v>1.000166986724556</v>
+        <v>0.0001669867245555068</v>
       </c>
       <c r="W92">
-        <v>1.000416840350146</v>
+        <v>0.0004168403501458862</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7949,7 +7949,7 @@
         <v>1.422396497955804</v>
       </c>
       <c r="K93">
-        <v>58.71856647564206</v>
+        <v>0.08718566475642053</v>
       </c>
       <c r="L93">
         <v>-0.0006623817850752369</v>
@@ -7979,13 +7979,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U93">
-        <v>1.000111333778669</v>
+        <v>0.0001113337786686763</v>
       </c>
       <c r="V93">
-        <v>1.000194785318752</v>
+        <v>0.0001947853187522774</v>
       </c>
       <c r="W93">
-        <v>1.00125</v>
+        <v>0.001249999999999973</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8020,7 +8020,7 @@
         <v>1.325379722866064</v>
       </c>
       <c r="K94">
-        <v>56.99627075239627</v>
+        <v>0.06996270752396272</v>
       </c>
       <c r="L94">
         <v>0.001494391798004331</v>
@@ -8050,13 +8050,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U94">
-        <v>1.000180897250362</v>
+        <v>0.0001808972503616335</v>
       </c>
       <c r="V94">
-        <v>1.000166926329846</v>
+        <v>0.0001669263298462731</v>
       </c>
       <c r="W94">
-        <v>0.9995838535164377</v>
+        <v>-0.0004161464835622519</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8091,7 +8091,7 @@
         <v>1.756158009907022</v>
       </c>
       <c r="K95">
-        <v>63.71760993362878</v>
+        <v>0.1371760993362878</v>
       </c>
       <c r="L95">
         <v>0.004517442491162351</v>
@@ -8121,13 +8121,13 @@
         <v>0.02125000000000199</v>
       </c>
       <c r="U95">
-        <v>1.000222602501496</v>
+        <v>0.00022260250149575</v>
       </c>
       <c r="V95">
-        <v>1.000250347705146</v>
+        <v>0.0002503477051460923</v>
       </c>
       <c r="W95">
-        <v>1.002497918401332</v>
+        <v>0.002497918401332067</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8162,7 +8162,7 @@
         <v>1.632761810621855</v>
       </c>
       <c r="K96">
-        <v>62.01707287132817</v>
+        <v>0.1201707287132817</v>
       </c>
       <c r="L96">
         <v>0.007703950995451252</v>
@@ -8192,13 +8192,13 @@
         <v>0.03249999999999531</v>
       </c>
       <c r="U96">
-        <v>1.000208643400609</v>
+        <v>0.0002086434006092208</v>
       </c>
       <c r="V96">
-        <v>1.000250285046859</v>
+        <v>0.0002502850468588669</v>
       </c>
       <c r="W96">
-        <v>0.9995847176079735</v>
+        <v>-0.0004152823920264836</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8233,7 +8233,7 @@
         <v>1.780687834768793</v>
       </c>
       <c r="K97">
-        <v>64.03767486963716</v>
+        <v>0.1403767486963716</v>
       </c>
       <c r="L97">
         <v>0.01106183781931</v>
@@ -8263,13 +8263,13 @@
         <v>0.04312499999999631</v>
       </c>
       <c r="U97">
-        <v>1.000222506536129</v>
+        <v>0.0002225065361294298</v>
       </c>
       <c r="V97">
-        <v>1.000417037366548</v>
+        <v>0.0004170373665481897</v>
       </c>
       <c r="W97">
-        <v>1.000830909846282</v>
+        <v>0.0008309098462817577</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8304,7 +8304,7 @@
         <v>1.652064989735152</v>
       </c>
       <c r="K98">
-        <v>62.29353338358934</v>
+        <v>0.1229353338358934</v>
       </c>
       <c r="L98">
         <v>0.01411672160217657</v>
@@ -8334,13 +8334,13 @@
         <v>0.05062500000000014</v>
       </c>
       <c r="U98">
-        <v>1.000222457037985</v>
+        <v>0.0002224570379845137</v>
       </c>
       <c r="V98">
-        <v>1.000361281716366</v>
+        <v>0.0003612817163660687</v>
       </c>
       <c r="W98">
-        <v>0.9995848899958488</v>
+        <v>-0.0004151100041511757</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8375,7 +8375,7 @@
         <v>2.03223400592328</v>
       </c>
       <c r="K99">
-        <v>67.02101493332762</v>
+        <v>0.1702101493332762</v>
       </c>
       <c r="L99">
         <v>0.01750092414753002</v>
@@ -8405,13 +8405,13 @@
         <v>0.05687499999999801</v>
       </c>
       <c r="U99">
-        <v>1.000291909924937</v>
+        <v>0.0002919099249374391</v>
       </c>
       <c r="V99">
-        <v>1.000527836426269</v>
+        <v>0.0005278364262693014</v>
       </c>
       <c r="W99">
-        <v>1.002076411960133</v>
+        <v>0.002076411960132862</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8446,7 +8446,7 @@
         <v>2.192305170634066</v>
       </c>
       <c r="K100">
-        <v>68.67467405062102</v>
+        <v>0.1867467405062102</v>
       </c>
       <c r="L100">
         <v>0.0211079832745229</v>
@@ -8476,13 +8476,13 @@
         <v>0.0625</v>
       </c>
       <c r="U100">
-        <v>1.000305721154514</v>
+        <v>0.0003057211545141048</v>
       </c>
       <c r="V100">
-        <v>1.000583090379009</v>
+        <v>0.0005830903790087216</v>
       </c>
       <c r="W100">
-        <v>1.000828843762951</v>
+        <v>0.0008288437629506706</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8517,7 +8517,7 @@
         <v>1.542529983594063</v>
       </c>
       <c r="K101">
-        <v>60.6690970626658</v>
+        <v>0.106690970626658</v>
       </c>
       <c r="L101">
         <v>0.02378275927792598</v>
@@ -8547,13 +8547,13 @@
         <v>0.06125000000000114</v>
       </c>
       <c r="U101">
-        <v>1.000194490365781</v>
+        <v>0.0001944903657806751</v>
       </c>
       <c r="V101">
-        <v>1.000444000444001</v>
+        <v>0.000444000444000503</v>
       </c>
       <c r="W101">
-        <v>0.9979296066252589</v>
+        <v>-0.002070393374741131</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8588,7 +8588,7 @@
         <v>1.604927672588868</v>
       </c>
       <c r="K102">
-        <v>61.61121821067051</v>
+        <v>0.116112182106705</v>
       </c>
       <c r="L102">
         <v>0.02578688527783255</v>
@@ -8618,13 +8618,13 @@
         <v>0.06187499999999702</v>
       </c>
       <c r="U102">
-        <v>1.000236120949484</v>
+        <v>0.0002361209494841088</v>
       </c>
       <c r="V102">
-        <v>1.00047154110729</v>
+        <v>0.0004715411072895304</v>
       </c>
       <c r="W102">
-        <v>1.000414937759336</v>
+        <v>0.0004149377593360981</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8659,7 +8659,7 @@
         <v>1.736291228367429</v>
       </c>
       <c r="K103">
-        <v>63.4541824483852</v>
+        <v>0.134541824483852</v>
       </c>
       <c r="L103">
         <v>0.02746606859111276</v>
@@ -8689,13 +8689,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U103">
-        <v>1.000236065209543</v>
+        <v>0.0002360652095425575</v>
       </c>
       <c r="V103">
-        <v>1.000526768138845</v>
+        <v>0.0005267681388450018</v>
       </c>
       <c r="W103">
-        <v>1.000829531314807</v>
+        <v>0.0008295313148070083</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8730,7 +8730,7 @@
         <v>1.943707369070433</v>
       </c>
       <c r="K104">
-        <v>66.02923203213025</v>
+        <v>0.1602923203213025</v>
       </c>
       <c r="L104">
         <v>0.02919583693138825</v>
@@ -8760,13 +8760,13 @@
         <v>0.05375000000000085</v>
       </c>
       <c r="U104">
-        <v>1.000194360761339</v>
+        <v>0.0001943607613390519</v>
       </c>
       <c r="V104">
-        <v>1.000581910884504</v>
+        <v>0.000581910884504433</v>
       </c>
       <c r="W104">
-        <v>1.001243265644426</v>
+        <v>0.001243265644426117</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8801,7 +8801,7 @@
         <v>2.089262555528673</v>
       </c>
       <c r="K105">
-        <v>67.62981514114563</v>
+        <v>0.1762981514114563</v>
       </c>
       <c r="L105">
         <v>0.03104200898614718</v>
@@ -8831,13 +8831,13 @@
         <v>0.05062500000000014</v>
       </c>
       <c r="U105">
-        <v>1.00023596363384</v>
+        <v>0.0002359636338400417</v>
       </c>
       <c r="V105">
-        <v>1.000636960314603</v>
+        <v>0.00063696031460303</v>
       </c>
       <c r="W105">
-        <v>1.000827814569536</v>
+        <v>0.0008278145695364003</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8872,7 +8872,7 @@
         <v>2.472302519892476</v>
       </c>
       <c r="K106">
-        <v>71.20066600559429</v>
+        <v>0.2120066600559428</v>
       </c>
       <c r="L106">
         <v>0.03348497638258889</v>
@@ -8902,13 +8902,13 @@
         <v>0.05187499999999901</v>
       </c>
       <c r="U106">
-        <v>1.000346923482557</v>
+        <v>0.0003469234825566048</v>
       </c>
       <c r="V106">
-        <v>1.000664231152441</v>
+        <v>0.0006642311524409639</v>
       </c>
       <c r="W106">
-        <v>1.00206782464847</v>
+        <v>0.002067824648469774</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8943,7 +8943,7 @@
         <v>2.875502482380689</v>
       </c>
       <c r="K107">
-        <v>74.19689434992418</v>
+        <v>0.2419689434992418</v>
       </c>
       <c r="L107">
         <v>0.03676785698433177</v>
@@ -8973,13 +8973,13 @@
         <v>0.05250000000000199</v>
       </c>
       <c r="U107">
-        <v>1.000471652309016</v>
+        <v>0.00047165230901558</v>
       </c>
       <c r="V107">
-        <v>1.000774421949331</v>
+        <v>0.0007744219493306392</v>
       </c>
       <c r="W107">
-        <v>1.002063557573256</v>
+        <v>0.00206355757325638</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9014,7 +9014,7 @@
         <v>2.875502482380689</v>
       </c>
       <c r="K108">
-        <v>74.19689434992418</v>
+        <v>0.2419689434992418</v>
       </c>
       <c r="L108">
         <v>0.04021365983508936</v>
@@ -9044,13 +9044,13 @@
         <v>0.05124999999999957</v>
       </c>
       <c r="U108">
-        <v>1.000443698783988</v>
+        <v>0.000443698783987978</v>
       </c>
       <c r="V108">
-        <v>1.000690913110768</v>
+        <v>0.0006909131107675215</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9085,7 +9085,7 @@
         <v>3.054206066862994</v>
       </c>
       <c r="K109">
-        <v>75.33425821214446</v>
+        <v>0.2533425821214447</v>
       </c>
       <c r="L109">
         <v>0.0436924488062865</v>
@@ -9115,13 +9115,13 @@
         <v>0.05937499999999574</v>
       </c>
       <c r="U109">
-        <v>1.000471220877857</v>
+        <v>0.0004712208778570037</v>
       </c>
       <c r="V109">
-        <v>1.000773288408959</v>
+        <v>0.0007732884089590719</v>
       </c>
       <c r="W109">
-        <v>1.000823723228995</v>
+        <v>0.0008237232289949326</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9156,7 +9156,7 @@
         <v>3.242315103160156</v>
       </c>
       <c r="K110">
-        <v>76.42796502185595</v>
+        <v>0.2642796502185596</v>
       </c>
       <c r="L110">
         <v>0.04711040134304864</v>
@@ -9186,13 +9186,13 @@
         <v>0.06687499999999957</v>
       </c>
       <c r="U110">
-        <v>1.000457146023522</v>
+        <v>0.0004571460235220925</v>
       </c>
       <c r="V110">
-        <v>1.000662306482325</v>
+        <v>0.0006623064823245706</v>
       </c>
       <c r="W110">
-        <v>1.00082304526749</v>
+        <v>0.0008230452674897748</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9227,7 +9227,7 @@
         <v>3.242315103160157</v>
       </c>
       <c r="K111">
-        <v>76.42796502185595</v>
+        <v>0.2642796502185596</v>
       </c>
       <c r="L111">
         <v>0.05009910607634196</v>
@@ -9257,13 +9257,13 @@
         <v>0.07562500000000227</v>
       </c>
       <c r="U111">
-        <v>1.000470783716422</v>
+        <v>0.000470783716422174</v>
       </c>
       <c r="V111">
-        <v>1.000689445961226</v>
+        <v>0.0006894459612256654</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9298,7 +9298,7 @@
         <v>3.346530635734744</v>
       </c>
       <c r="K112">
-        <v>76.99314502056976</v>
+        <v>0.2699314502056975</v>
       </c>
       <c r="L112">
         <v>0.05260350110315551</v>
@@ -9328,13 +9328,13 @@
         <v>0.08062500000000128</v>
       </c>
       <c r="U112">
-        <v>1.000539762504498</v>
+        <v>0.0005397625044980536</v>
       </c>
       <c r="V112">
-        <v>1.000661412114865</v>
+        <v>0.0006614121148649232</v>
       </c>
       <c r="W112">
-        <v>1.000411184210526</v>
+        <v>0.0004111842105263275</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9369,7 +9369,7 @@
         <v>2.161139540205536</v>
       </c>
       <c r="K113">
-        <v>68.36583810106085</v>
+        <v>0.1836583810106085</v>
       </c>
       <c r="L113">
         <v>0.05370493347768386</v>
@@ -9399,13 +9399,13 @@
         <v>0.08125000000000071</v>
       </c>
       <c r="U113">
-        <v>1.000456475730707</v>
+        <v>0.0004564757307070622</v>
       </c>
       <c r="V113">
-        <v>1.000550812448362</v>
+        <v>0.0005508124483615262</v>
       </c>
       <c r="W113">
-        <v>0.9979449239621867</v>
+        <v>-0.002055076037813297</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9440,7 +9440,7 @@
         <v>1.880653063429675</v>
       </c>
       <c r="K114">
-        <v>65.28564953915657</v>
+        <v>0.1528564953915656</v>
       </c>
       <c r="L114">
         <v>0.05338788248975248</v>
@@ -9470,13 +9470,13 @@
         <v>0.07375000000000043</v>
       </c>
       <c r="U114">
-        <v>1.000442441169151</v>
+        <v>0.0004424411691508201</v>
       </c>
       <c r="V114">
-        <v>1.000357830993669</v>
+        <v>0.0003578309936689283</v>
       </c>
       <c r="W114">
-        <v>0.999176276771005</v>
+        <v>-0.0008237232289950436</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9511,7 +9511,7 @@
         <v>1.560803964684165</v>
       </c>
       <c r="K115">
-        <v>60.94976367613776</v>
+        <v>0.1094976367613776</v>
       </c>
       <c r="L115">
         <v>0.05158448790516737</v>
@@ -9541,13 +9541,13 @@
         <v>0.06125000000000114</v>
       </c>
       <c r="U115">
-        <v>1.000400784985765</v>
+        <v>0.0004007849857652346</v>
       </c>
       <c r="V115">
-        <v>1.000220124920893</v>
+        <v>0.0002201249208926281</v>
       </c>
       <c r="W115">
-        <v>0.9987633965375102</v>
+        <v>-0.001236603462489771</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9582,7 +9582,7 @@
         <v>1.560803964684165</v>
       </c>
       <c r="K116">
-        <v>60.94976367613776</v>
+        <v>0.1094976367613776</v>
       </c>
       <c r="L116">
         <v>0.0488089052321691</v>
@@ -9612,13 +9612,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U116">
-        <v>1.000400624421512</v>
+        <v>0.0004006244215122301</v>
       </c>
       <c r="V116">
-        <v>1.000357624274435</v>
+        <v>0.0003576242744354197</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9653,7 +9653,7 @@
         <v>1.560803964684165</v>
       </c>
       <c r="K117">
-        <v>60.94976367613776</v>
+        <v>0.1094976367613776</v>
       </c>
       <c r="L117">
         <v>0.04544450527922096</v>
@@ -9683,13 +9683,13 @@
         <v>0.03312500000000185</v>
       </c>
       <c r="U117">
-        <v>1.000400463985859</v>
+        <v>0.0004004639858592451</v>
       </c>
       <c r="V117">
-        <v>1.000329996700033</v>
+        <v>0.0003299967000331971</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9724,7 +9724,7 @@
         <v>1.626925720127772</v>
       </c>
       <c r="K118">
-        <v>61.93268837645851</v>
+        <v>0.1193268837645851</v>
       </c>
       <c r="L118">
         <v>0.04192391240210933</v>
@@ -9754,13 +9754,13 @@
         <v>0.01499999999999702</v>
       </c>
       <c r="U118">
-        <v>1.000414107253779</v>
+        <v>0.0004141072537788837</v>
       </c>
       <c r="V118">
-        <v>1.000302397184957</v>
+        <v>0.0003023971849569485</v>
       </c>
       <c r="W118">
-        <v>1.000412711514651</v>
+        <v>0.0004127115146512761</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9795,7 +9795,7 @@
         <v>1.696527567963172</v>
       </c>
       <c r="K119">
-        <v>62.915268811609</v>
+        <v>0.1291526881160899</v>
       </c>
       <c r="L119">
         <v>0.03853151755188076</v>
@@ -9825,13 +9825,13 @@
         <v>-0.001250000000002416</v>
       </c>
       <c r="U119">
-        <v>1.000413935839945</v>
+        <v>0.0004139358399446458</v>
       </c>
       <c r="V119">
-        <v>1.000247341083354</v>
+        <v>0.0002473410833541134</v>
       </c>
       <c r="W119">
-        <v>1.000412541254125</v>
+        <v>0.0004125412541253759</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9866,7 +9866,7 @@
         <v>1.479705950292853</v>
       </c>
       <c r="K120">
-        <v>59.67263780280481</v>
+        <v>0.09672637802804807</v>
       </c>
       <c r="L120">
         <v>0.03499138980527642</v>
@@ -9896,13 +9896,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U120">
-        <v>1.00038618026343</v>
+        <v>0.0003861802634299583</v>
       </c>
       <c r="V120">
-        <v>1.000137377733817</v>
+        <v>0.0001373777338167237</v>
       </c>
       <c r="W120">
-        <v>0.9991752577319588</v>
+        <v>-0.0008247422680411898</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9937,7 +9937,7 @@
         <v>1.107295668018512</v>
       </c>
       <c r="K121">
-        <v>52.54581427862475</v>
+        <v>0.02545814278624758</v>
       </c>
       <c r="L121">
         <v>0.03070722851365418</v>
@@ -9967,13 +9967,13 @@
         <v>-0.03062499999999702</v>
       </c>
       <c r="U121">
-        <v>1.000261949733225</v>
+        <v>0.0002619497332252418</v>
       </c>
       <c r="V121">
-        <v>0.9998626411362325</v>
+        <v>-0.0001373588637675338</v>
       </c>
       <c r="W121">
-        <v>0.9979364424267437</v>
+        <v>-0.002063557573256269</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10008,7 +10008,7 @@
         <v>1.213265593561915</v>
       </c>
       <c r="K122">
-        <v>54.81789429570213</v>
+        <v>0.0481789429570213</v>
       </c>
       <c r="L122">
         <v>0.02643577819284577</v>
@@ -10038,13 +10038,13 @@
         <v>-0.03624999999999901</v>
       </c>
       <c r="U122">
-        <v>1.000275664351086</v>
+        <v>0.0002756643510859469</v>
       </c>
       <c r="V122">
-        <v>0.9997801956258929</v>
+        <v>-0.0002198043741070688</v>
       </c>
       <c r="W122">
-        <v>1.000827129859388</v>
+        <v>0.0008271298593878207</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10079,7 +10079,7 @@
         <v>1.213265593561915</v>
       </c>
       <c r="K123">
-        <v>54.81789429570213</v>
+        <v>0.0481789429570213</v>
       </c>
       <c r="L123">
         <v>0.02234837686110724</v>
@@ -10109,13 +10109,13 @@
         <v>-0.03500000000000369</v>
       </c>
       <c r="U123">
-        <v>1.000234250124015</v>
+        <v>0.0002342501240146788</v>
       </c>
       <c r="V123">
-        <v>0.9997801473013082</v>
+        <v>-0.000219852698691847</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10150,7 +10150,7 @@
         <v>1.145985798681026</v>
       </c>
       <c r="K124">
-        <v>53.4013691696085</v>
+        <v>0.03401369169608504</v>
       </c>
       <c r="L124">
         <v>0.01840128589739997</v>
@@ -10180,13 +10180,13 @@
         <v>-0.03437500000000071</v>
       </c>
       <c r="U124">
-        <v>1.000234195263745</v>
+        <v>0.0002341952637452405</v>
       </c>
       <c r="V124">
-        <v>0.9996976360637713</v>
+        <v>-0.0003023639362287334</v>
       </c>
       <c r="W124">
-        <v>0.9995867768595043</v>
+        <v>-0.0004132231404957443</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10221,7 +10221,7 @@
         <v>1.262729959386715</v>
       </c>
       <c r="K125">
-        <v>55.80559686976357</v>
+        <v>0.05805596869763574</v>
       </c>
       <c r="L125">
         <v>0.01502488746092765</v>
@@ -10251,13 +10251,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U125">
-        <v>1.00017904856348</v>
+        <v>0.0001790485634798333</v>
       </c>
       <c r="V125">
-        <v>0.9996975446121698</v>
+        <v>-0.0003024553878302472</v>
       </c>
       <c r="W125">
-        <v>1.000826787928896</v>
+        <v>0.0008267879288961222</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10292,7 +10292,7 @@
         <v>1.324174254494962</v>
       </c>
       <c r="K126">
-        <v>56.97396621333377</v>
+        <v>0.06973966213333771</v>
       </c>
       <c r="L126">
         <v>0.01230506469962628</v>
@@ -10322,13 +10322,13 @@
         <v>-0.02749999999999986</v>
       </c>
       <c r="U126">
-        <v>1.000206557512497</v>
+        <v>0.0002065575124967634</v>
       </c>
       <c r="V126">
-        <v>0.9997249573683922</v>
+        <v>-0.0002750426316078247</v>
       </c>
       <c r="W126">
-        <v>1.000413052457662</v>
+        <v>0.0004130524576619887</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10363,7 +10363,7 @@
         <v>1.388852459872086</v>
       </c>
       <c r="K127">
-        <v>58.13889652885695</v>
+        <v>0.08138896528856943</v>
       </c>
       <c r="L127">
         <v>0.01026184253449338</v>
@@ -10393,13 +10393,13 @@
         <v>-0.02437499999999559</v>
       </c>
       <c r="U127">
-        <v>1.000192747198282</v>
+        <v>0.000192747198281662</v>
       </c>
       <c r="V127">
-        <v>0.9997248816991304</v>
+        <v>-0.0002751183008695701</v>
       </c>
       <c r="W127">
-        <v>1.000412881915772</v>
+        <v>0.0004128819157720454</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10434,7 +10434,7 @@
         <v>1.153295379592777</v>
       </c>
       <c r="K128">
-        <v>53.55955297739429</v>
+        <v>0.03559552977394287</v>
       </c>
       <c r="L128">
         <v>0.008269946228737739</v>
@@ -10464,13 +10464,13 @@
         <v>-0.01999999999999957</v>
       </c>
       <c r="U128">
-        <v>1.000165180046251</v>
+        <v>0.0001651800462505459</v>
       </c>
       <c r="V128">
-        <v>0.9997798447905772</v>
+        <v>-0.0002201552094227566</v>
       </c>
       <c r="W128">
-        <v>0.9987618654560462</v>
+        <v>-0.001238134543953828</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10505,7 +10505,7 @@
         <v>1.272316815639561</v>
       </c>
       <c r="K129">
-        <v>55.99205211538504</v>
+        <v>0.05992052115385038</v>
       </c>
       <c r="L129">
         <v>0.006706839462278327</v>
@@ -10535,13 +10535,13 @@
         <v>-0.01125000000000043</v>
       </c>
       <c r="U129">
-        <v>1.000123864574732</v>
+        <v>0.0001238645747316802</v>
       </c>
       <c r="V129">
-        <v>0.9998898981557943</v>
+        <v>-0.0001101018442056789</v>
       </c>
       <c r="W129">
-        <v>1.000826446280992</v>
+        <v>0.0008264462809917106</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10576,7 +10576,7 @@
         <v>1.272316815639561</v>
       </c>
       <c r="K130">
-        <v>55.99205211538505</v>
+        <v>0.05992052115385049</v>
       </c>
       <c r="L130">
         <v>0.005478638555405303</v>
@@ -10606,13 +10606,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U130">
-        <v>1.000096327182155</v>
+        <v>9.632718215457636E-05</v>
       </c>
       <c r="V130">
-        <v>0.9999724715080106</v>
+        <v>-2.752849198939256E-05</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10647,7 +10647,7 @@
         <v>1.124074234367916</v>
       </c>
       <c r="K131">
-        <v>52.92066615093701</v>
+        <v>0.02920666150937012</v>
       </c>
       <c r="L131">
         <v>0.004210824520060327</v>
@@ -10677,13 +10677,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U131">
-        <v>1.000137597005889</v>
+        <v>0.0001375970058892229</v>
       </c>
       <c r="V131">
-        <v>0.9999174122505166</v>
+        <v>-8.258774948344261E-05</v>
       </c>
       <c r="W131">
-        <v>0.9991742361684558</v>
+        <v>-0.0008257638315442017</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10718,7 +10718,7 @@
         <v>1.001272025469127</v>
       </c>
       <c r="K132">
-        <v>50.03178042397381</v>
+        <v>0.0003178042397381509</v>
       </c>
       <c r="L132">
         <v>0.002683712711409708</v>
@@ -10748,13 +10748,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U132">
-        <v>1.000096304652891</v>
+        <v>9.630465289056644E-05</v>
       </c>
       <c r="V132">
-        <v>0.9998623423820272</v>
+        <v>-0.0001376576179727973</v>
       </c>
       <c r="W132">
-        <v>0.9991735537190083</v>
+        <v>-0.0008264462809917106</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10789,7 +10789,7 @@
         <v>0.8980040046450651</v>
       </c>
       <c r="K133">
-        <v>47.31307217726317</v>
+        <v>-0.02686927822736829</v>
       </c>
       <c r="L133">
         <v>0.0007863106682392588</v>
@@ -10819,13 +10819,13 @@
         <v>-0.004374999999999574</v>
       </c>
       <c r="U133">
-        <v>1.000041269448227</v>
+        <v>4.126944822746559E-05</v>
       </c>
       <c r="V133">
-        <v>0.999779717487678</v>
+        <v>-0.0002202825123219787</v>
       </c>
       <c r="W133">
-        <v>0.9991728701406121</v>
+        <v>-0.0008271298593879317</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10860,7 +10860,7 @@
         <v>0.7378044114054813</v>
       </c>
       <c r="K134">
-        <v>42.45612489893315</v>
+        <v>-0.07543875101066844</v>
       </c>
       <c r="L134">
         <v>-0.00181892673972377</v>
@@ -10890,13 +10890,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U134">
-        <v>0.9999449763398259</v>
+        <v>-5.502366017406946E-05</v>
       </c>
       <c r="V134">
-        <v>0.9996419620479771</v>
+        <v>-0.0003580379520229382</v>
       </c>
       <c r="W134">
-        <v>0.9983443708609272</v>
+        <v>-0.001655629139072801</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10931,7 +10931,7 @@
         <v>0.8316966156196264</v>
       </c>
       <c r="K135">
-        <v>45.4058062087034</v>
+        <v>-0.04594193791296597</v>
       </c>
       <c r="L135">
         <v>-0.004379705730909574</v>
@@ -10961,13 +10961,13 @@
         <v>-0.01374999999999815</v>
       </c>
       <c r="U135">
-        <v>0.9999449733120565</v>
+        <v>-5.502668794354904E-05</v>
       </c>
       <c r="V135">
-        <v>0.9997520387921534</v>
+        <v>-0.0002479612078466475</v>
       </c>
       <c r="W135">
-        <v>1.000829187396352</v>
+        <v>0.0008291873963515162</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11002,7 +11002,7 @@
         <v>0.9799474643788119</v>
       </c>
       <c r="K136">
-        <v>49.49360940171513</v>
+        <v>-0.005063905982848727</v>
       </c>
       <c r="L136">
         <v>-0.006283459258342379</v>
@@ -11032,13 +11032,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U136">
-        <v>0.9999174554259299</v>
+        <v>-8.254457407008697E-05</v>
       </c>
       <c r="V136">
-        <v>0.9999724419213494</v>
+        <v>-2.755807865062465E-05</v>
       </c>
       <c r="W136">
-        <v>1.001242750621375</v>
+        <v>0.001242750621375466</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11073,7 +11073,7 @@
         <v>0.8476661704488256</v>
       </c>
       <c r="K137">
-        <v>45.87766902951494</v>
+        <v>-0.04122330970485061</v>
       </c>
       <c r="L137">
         <v>-0.008096322313910739</v>
@@ -11103,13 +11103,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U137">
-        <v>0.9998073800941087</v>
+        <v>-0.0001926199058912559</v>
       </c>
       <c r="V137">
-        <v>0.9998346469712837</v>
+        <v>-0.0001653530287163418</v>
       </c>
       <c r="W137">
-        <v>0.9987587918907737</v>
+        <v>-0.001241208109226344</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11144,7 +11144,7 @@
         <v>0.8476661704488255</v>
       </c>
       <c r="K138">
-        <v>45.87766902951494</v>
+        <v>-0.04122330970485061</v>
       </c>
       <c r="L138">
         <v>-0.009709339587699274</v>
@@ -11174,13 +11174,13 @@
         <v>-0.02750000000000341</v>
       </c>
       <c r="U138">
-        <v>0.9998073429845324</v>
+        <v>-0.0001926570154675566</v>
       </c>
       <c r="V138">
-        <v>0.9998346196251378</v>
+        <v>-0.0001653803748622451</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11215,7 +11215,7 @@
         <v>1.047094644817028</v>
       </c>
       <c r="K139">
-        <v>51.15028010395771</v>
+        <v>0.01150280103957702</v>
       </c>
       <c r="L139">
         <v>-0.01046163707244718</v>
@@ -11245,13 +11245,13 @@
         <v>-0.02874999999999517</v>
       </c>
       <c r="U139">
-        <v>0.9998348335948466</v>
+        <v>-0.0001651664051534052</v>
       </c>
       <c r="V139">
-        <v>0.9999724320449909</v>
+        <v>-2.756795500913345E-05</v>
       </c>
       <c r="W139">
-        <v>1.0016570008285</v>
+        <v>0.001657000828500399</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11286,7 +11286,7 @@
         <v>0.9476292474079465</v>
       </c>
       <c r="K140">
-        <v>48.65552561757448</v>
+        <v>-0.01344474382425515</v>
       </c>
       <c r="L140">
         <v>-0.01090730435232797</v>
@@ -11316,13 +11316,13 @@
         <v>-0.02937499999999815</v>
       </c>
       <c r="U140">
-        <v>0.9997797417471986</v>
+        <v>-0.0002202582528013641</v>
       </c>
       <c r="V140">
-        <v>0.9998621564248892</v>
+        <v>-0.0001378435751108187</v>
       </c>
       <c r="W140">
-        <v>0.9991728701406121</v>
+        <v>-0.0008271298593879317</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11357,7 +11357,7 @@
         <v>0.9476292474079466</v>
       </c>
       <c r="K141">
-        <v>48.65552561757448</v>
+        <v>-0.01344474382425515</v>
       </c>
       <c r="L141">
         <v>-0.01109913680944534</v>
@@ -11387,13 +11387,13 @@
         <v>-0.02625000000000099</v>
       </c>
       <c r="U141">
-        <v>0.9997796932228128</v>
+        <v>-0.0002203067771872069</v>
       </c>
       <c r="V141">
-        <v>0.999834564905702</v>
+        <v>-0.0001654350942980054</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11428,7 +11428,7 @@
         <v>0.9476292474079465</v>
       </c>
       <c r="K142">
-        <v>48.65552561757448</v>
+        <v>-0.01344474382425515</v>
       </c>
       <c r="L142">
         <v>-0.01108457890442004</v>
@@ -11458,13 +11458,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U142">
-        <v>0.9997658724693569</v>
+        <v>-0.0002341275306431134</v>
       </c>
       <c r="V142">
-        <v>0.9998069604544703</v>
+        <v>-0.0001930395455297385</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11499,7 +11499,7 @@
         <v>0.9476292474079464</v>
       </c>
       <c r="K143">
-        <v>48.65552561757448</v>
+        <v>-0.01344474382425515</v>
       </c>
       <c r="L143">
         <v>-0.01090556630421663</v>
@@ -11529,13 +11529,13 @@
         <v>-0.01062500000000099</v>
       </c>
       <c r="U143">
-        <v>0.9998346948052842</v>
+        <v>-0.0001653051947158035</v>
       </c>
       <c r="V143">
-        <v>0.999889670390291</v>
+        <v>-0.0001103296097090256</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11570,7 +11570,7 @@
         <v>0.8486548716789178</v>
       </c>
       <c r="K144">
-        <v>45.90661484088609</v>
+        <v>-0.04093385159113916</v>
       </c>
       <c r="L144">
         <v>-0.01089965146436976</v>
@@ -11600,13 +11600,13 @@
         <v>-0.01062500000000099</v>
       </c>
       <c r="U144">
-        <v>0.999834667474959</v>
+        <v>-0.0001653325250410287</v>
       </c>
       <c r="V144">
-        <v>0.9997793164326501</v>
+        <v>-0.0002206835673499441</v>
       </c>
       <c r="W144">
-        <v>0.9991721854304636</v>
+        <v>-0.0008278145695364003</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11641,7 +11641,7 @@
         <v>0.8044345952173836</v>
       </c>
       <c r="K145">
-        <v>44.58097829367275</v>
+        <v>-0.05419021706327248</v>
       </c>
       <c r="L145">
         <v>-0.01110993645030727</v>
@@ -11671,13 +11671,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U145">
-        <v>0.9998622001129959</v>
+        <v>-0.0001377998870041308</v>
       </c>
       <c r="V145">
-        <v>0.9997516761857463</v>
+        <v>-0.0002483238142536592</v>
       </c>
       <c r="W145">
-        <v>0.9995857497928748</v>
+        <v>-0.0004142502071251553</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11712,7 +11712,7 @@
         <v>0.8592833458539141</v>
       </c>
       <c r="K146">
-        <v>46.2158362129184</v>
+        <v>-0.03784163787081601</v>
       </c>
       <c r="L146">
         <v>-0.01124695596559503</v>
@@ -11742,13 +11742,13 @@
         <v>-0.001250000000002416</v>
       </c>
       <c r="U146">
-        <v>0.9998759630094132</v>
+        <v>-0.0001240369905868288</v>
       </c>
       <c r="V146">
-        <v>0.999834409670475</v>
+        <v>-0.0001655903295250116</v>
       </c>
       <c r="W146">
-        <v>1.000414421881475</v>
+        <v>0.0004144218814754463</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11783,7 +11783,7 @@
         <v>0.6382018314733556</v>
       </c>
       <c r="K147">
-        <v>38.95746050408048</v>
+        <v>-0.1104253949591952</v>
       </c>
       <c r="L147">
         <v>-0.01219334798415503</v>
@@ -11813,13 +11813,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U147">
-        <v>0.9997932460372158</v>
+        <v>-0.0002067539627842452</v>
       </c>
       <c r="V147">
-        <v>0.999723970409628</v>
+        <v>-0.0002760295903719845</v>
       </c>
       <c r="W147">
-        <v>0.9975144987572493</v>
+        <v>-0.002485501242750709</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11854,7 +11854,7 @@
         <v>0.8187533609786213</v>
       </c>
       <c r="K148">
-        <v>45.01728373648599</v>
+        <v>-0.04982716263514009</v>
       </c>
       <c r="L148">
         <v>-0.01292348738594245</v>
@@ -11884,13 +11884,13 @@
         <v>-0.007499999999996732</v>
       </c>
       <c r="U148">
-        <v>0.9998345626249396</v>
+        <v>-0.0001654373750603622</v>
       </c>
       <c r="V148">
-        <v>0.9998895576785024</v>
+        <v>-0.0001104423214975947</v>
       </c>
       <c r="W148">
-        <v>1.001661129568106</v>
+        <v>0.001661129568106379</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11925,7 +11925,7 @@
         <v>0.8187533609786214</v>
       </c>
       <c r="K149">
-        <v>45.01728373648599</v>
+        <v>-0.04982716263514009</v>
       </c>
       <c r="L149">
         <v>-0.0134291688380745</v>
@@ -11955,13 +11955,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U149">
-        <v>0.9998207465217932</v>
+        <v>-0.0001792534782067978</v>
       </c>
       <c r="V149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11996,7 +11996,7 @@
         <v>0.7797545054132485</v>
       </c>
       <c r="K150">
-        <v>43.81247543082883</v>
+        <v>-0.06187524569171177</v>
       </c>
       <c r="L150">
         <v>-0.01386847422681558</v>
@@ -12026,13 +12026,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U150">
-        <v>0.9998345055854364</v>
+        <v>-0.0001654944145635939</v>
       </c>
       <c r="V150">
-        <v>0.9999171591097367</v>
+        <v>-8.284089026333596E-05</v>
       </c>
       <c r="W150">
-        <v>0.9995854063018241</v>
+        <v>-0.0004145936981758691</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12067,7 +12067,7 @@
         <v>0.9301713300666962</v>
       </c>
       <c r="K151">
-        <v>48.19112767748729</v>
+        <v>-0.01808872322512706</v>
       </c>
       <c r="L151">
         <v>-0.01373730814470854</v>
@@ -12097,13 +12097,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U151">
-        <v>0.9999448260641672</v>
+        <v>-5.517393583276409E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999171522465549</v>
+        <v>-8.284775344513662E-05</v>
       </c>
       <c r="W151">
-        <v>1.001244296972211</v>
+        <v>0.001244296972210845</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12138,7 +12138,7 @@
         <v>0.9829491632784196</v>
       </c>
       <c r="K152">
-        <v>49.57006369509266</v>
+        <v>-0.004299363049073357</v>
       </c>
       <c r="L152">
         <v>-0.01306811562084727</v>
@@ -12168,13 +12168,13 @@
         <v>-0.01562500000000355</v>
       </c>
       <c r="U152">
-        <v>0.9999310287747952</v>
+        <v>-6.89712252047725E-05</v>
       </c>
       <c r="V152">
-        <v>1.000027618205922</v>
+        <v>2.761820592156461E-05</v>
       </c>
       <c r="W152">
-        <v>1.000414250207125</v>
+        <v>0.0004142502071249332</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12209,7 +12209,7 @@
         <v>1.260727232813866</v>
       </c>
       <c r="K153">
-        <v>55.76644605836295</v>
+        <v>0.05766446058362951</v>
       </c>
       <c r="L153">
         <v>-0.01131446676160574</v>
@@ -12239,13 +12239,13 @@
         <v>-0.01062500000000099</v>
       </c>
       <c r="U153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V153">
-        <v>1.000165704659063</v>
+        <v>0.0001657046590626265</v>
       </c>
       <c r="W153">
-        <v>1.002070393374741</v>
+        <v>0.002070393374741242</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12280,7 +12280,7 @@
         <v>1.260727232813866</v>
       </c>
       <c r="K154">
-        <v>55.76644605836295</v>
+        <v>0.05766446058362951</v>
       </c>
       <c r="L154">
         <v>-0.008973952489334627</v>
@@ -12310,13 +12310,13 @@
         <v>-0.0068749999999973</v>
       </c>
       <c r="U154">
-        <v>1.000013795196513</v>
+        <v>1.379519651267813E-05</v>
       </c>
       <c r="V154">
-        <v>1.000055225735193</v>
+        <v>5.522573519267659E-05</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12351,7 +12351,7 @@
         <v>1.260727232813866</v>
       </c>
       <c r="K155">
-        <v>55.76644605836295</v>
+        <v>0.05766446058362951</v>
       </c>
       <c r="L155">
         <v>-0.00639412240092093</v>
@@ -12381,13 +12381,13 @@
         <v>0.006875000000000853</v>
       </c>
       <c r="U155">
-        <v>0.9999862049937921</v>
+        <v>-1.379500620790619E-05</v>
       </c>
       <c r="V155">
-        <v>1.000110445370958</v>
+        <v>0.0001104453709581676</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12422,7 +12422,7 @@
         <v>0.9077921629904405</v>
       </c>
       <c r="K156">
-        <v>47.58338883033714</v>
+        <v>-0.02416611169662863</v>
       </c>
       <c r="L156">
         <v>-0.004714654450986826</v>
@@ -12452,13 +12452,13 @@
         <v>0.01062499999999744</v>
       </c>
       <c r="U156">
-        <v>0.9998896384278992</v>
+        <v>-0.0001103615721007589</v>
       </c>
       <c r="V156">
-        <v>0.9999447834129371</v>
+        <v>-5.521658706286736E-05</v>
       </c>
       <c r="W156">
-        <v>0.9975206611570249</v>
+        <v>-0.002479338842975132</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12493,7 +12493,7 @@
         <v>1.349811566725716</v>
       </c>
       <c r="K157">
-        <v>57.4433961360815</v>
+        <v>0.07443396136081504</v>
       </c>
       <c r="L157">
         <v>-0.002314075618538434</v>
@@ -12523,13 +12523,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V157">
-        <v>1.000193268726359</v>
+        <v>0.0001932687263592747</v>
       </c>
       <c r="W157">
-        <v>1.003728251864126</v>
+        <v>0.003728251864125953</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12564,7 +12564,7 @@
         <v>1.349811566725716</v>
       </c>
       <c r="K158">
-        <v>57.4433961360815</v>
+        <v>0.07443396136081504</v>
       </c>
       <c r="L158">
         <v>0.0003788805021985115</v>
@@ -12594,13 +12594,13 @@
         <v>0.03062500000000057</v>
       </c>
       <c r="U158">
-        <v>1.000041390157421</v>
+        <v>4.139015742077312E-05</v>
       </c>
       <c r="V158">
-        <v>1.000193231380776</v>
+        <v>0.0001932313807762043</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12635,7 +12635,7 @@
         <v>1.280147073512127</v>
       </c>
       <c r="K159">
-        <v>56.14317990200112</v>
+        <v>0.06143179902001128</v>
       </c>
       <c r="L159">
         <v>0.002925153893725226</v>
@@ -12665,13 +12665,13 @@
         <v>0.03687500000000199</v>
       </c>
       <c r="U159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V159">
-        <v>1.000220793199569</v>
+        <v>0.000220793199569469</v>
       </c>
       <c r="W159">
-        <v>0.9995872884853487</v>
+        <v>-0.0004127115146512761</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12706,7 +12706,7 @@
         <v>1.497454577153879</v>
       </c>
       <c r="K160">
-        <v>59.95923172546311</v>
+        <v>0.09959231725463114</v>
       </c>
       <c r="L160">
         <v>0.005812386938633061</v>
@@ -12736,13 +12736,13 @@
         <v>0.04312499999999986</v>
       </c>
       <c r="U160">
-        <v>1.000055184592462</v>
+        <v>5.518459246167673E-05</v>
       </c>
       <c r="V160">
-        <v>1.000358709748627</v>
+        <v>0.0003587097486272839</v>
       </c>
       <c r="W160">
-        <v>1.001651527663088</v>
+        <v>0.001651527663088403</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12777,7 +12777,7 @@
         <v>1.416453031794639</v>
       </c>
       <c r="K161">
-        <v>58.61703137439733</v>
+        <v>0.08617031374397333</v>
       </c>
       <c r="L161">
         <v>0.008549985627099391</v>
@@ -12807,13 +12807,13 @@
         <v>0.04187499999999744</v>
       </c>
       <c r="U161">
-        <v>1.000068976934113</v>
+        <v>6.89769341133406E-05</v>
       </c>
       <c r="V161">
-        <v>1.000303414795609</v>
+        <v>0.0003034147956089139</v>
       </c>
       <c r="W161">
-        <v>0.9995877988458367</v>
+        <v>-0.0004122011541632942</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12848,7 +12848,7 @@
         <v>1.416453031794639</v>
       </c>
       <c r="K162">
-        <v>58.61703137439734</v>
+        <v>0.08617031374397333</v>
       </c>
       <c r="L162">
         <v>0.01099098094444168</v>
@@ -12878,13 +12878,13 @@
         <v>0.04124999999999801</v>
       </c>
       <c r="U162">
-        <v>1.000096561047273</v>
+        <v>9.656104727340242E-05</v>
       </c>
       <c r="V162">
-        <v>1.00046877154281</v>
+        <v>0.0004687715428097761</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12919,7 +12919,7 @@
         <v>1.416453031794639</v>
       </c>
       <c r="K163">
-        <v>58.61703137439734</v>
+        <v>0.08617031374397333</v>
       </c>
       <c r="L163">
         <v>0.0130563455782336</v>
@@ -12949,13 +12949,13 @@
         <v>0.03687499999999488</v>
       </c>
       <c r="U163">
-        <v>1.000124137931034</v>
+        <v>0.0001241379310343849</v>
       </c>
       <c r="V163">
-        <v>1.000358304393363</v>
+        <v>0.0003583043933630403</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12990,7 +12990,7 @@
         <v>1.416453031794639</v>
       </c>
       <c r="K164">
-        <v>58.61703137439734</v>
+        <v>0.08617031374397333</v>
       </c>
       <c r="L164">
         <v>0.01471465033204995</v>
@@ -13020,13 +13020,13 @@
         <v>0.04249999999999687</v>
       </c>
       <c r="U164">
-        <v>1.000179288088375</v>
+        <v>0.0001792880883750847</v>
       </c>
       <c r="V164">
-        <v>1.000358176057308</v>
+        <v>0.0003581760573081461</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13061,7 +13061,7 @@
         <v>1.250373881341418</v>
       </c>
       <c r="K165">
-        <v>55.56293963899396</v>
+        <v>0.05562939638993958</v>
       </c>
       <c r="L165">
         <v>0.01566551056672099</v>
@@ -13091,13 +13091,13 @@
         <v>0.03562499999999957</v>
       </c>
       <c r="U165">
-        <v>1.000124100273021</v>
+        <v>0.0001241002730207885</v>
       </c>
       <c r="V165">
-        <v>1.000330505673681</v>
+        <v>0.0003305056736806478</v>
       </c>
       <c r="W165">
-        <v>0.9991752577319588</v>
+        <v>-0.0008247422680411898</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13132,7 +13132,7 @@
         <v>1.37379495810689</v>
       </c>
       <c r="K166">
-        <v>57.87336237340804</v>
+        <v>0.07873362373408044</v>
       </c>
       <c r="L166">
         <v>0.01637133062965714</v>
@@ -13162,13 +13162,13 @@
         <v>0.02937499999999815</v>
       </c>
       <c r="U166">
-        <v>1.000110297665826</v>
+        <v>0.0001102976658255983</v>
       </c>
       <c r="V166">
-        <v>1.000302863436124</v>
+        <v>0.0003028634361235127</v>
       </c>
       <c r="W166">
-        <v>1.000825423029303</v>
+        <v>0.0008254230293025522</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13203,7 +13203,7 @@
         <v>1.37379495810689</v>
       </c>
       <c r="K167">
-        <v>57.87336237340804</v>
+        <v>0.07873362373408044</v>
       </c>
       <c r="L167">
         <v>0.01682391683888017</v>
@@ -13233,13 +13233,13 @@
         <v>0.02625000000000099</v>
       </c>
       <c r="U167">
-        <v>1.000151642564689</v>
+        <v>0.0001516425646892472</v>
       </c>
       <c r="V167">
-        <v>1.000275247034213</v>
+        <v>0.0002752470342131108</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13274,7 +13274,7 @@
         <v>1.208523713734853</v>
       </c>
       <c r="K168">
-        <v>54.72088464429972</v>
+        <v>0.04720884644299717</v>
       </c>
       <c r="L168">
         <v>0.01673168924350878</v>
@@ -13304,13 +13304,13 @@
         <v>0.01750000000000185</v>
       </c>
       <c r="U168">
-        <v>1.00012405237767</v>
+        <v>0.0001240523776704361</v>
       </c>
       <c r="V168">
-        <v>1.000082551388239</v>
+        <v>8.255138823920483E-05</v>
       </c>
       <c r="W168">
-        <v>0.9991752577319588</v>
+        <v>-0.0008247422680411898</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13345,7 +13345,7 @@
         <v>1.3984753472279</v>
       </c>
       <c r="K169">
-        <v>58.30684684102441</v>
+        <v>0.08306846841024407</v>
       </c>
       <c r="L169">
         <v>0.01670606304236289</v>
@@ -13375,13 +13375,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U169">
-        <v>1.000110255102744</v>
+        <v>0.0001102551027443166</v>
       </c>
       <c r="V169">
-        <v>1.00016508914814</v>
+        <v>0.0001650891481399519</v>
       </c>
       <c r="W169">
-        <v>1.001238134543954</v>
+        <v>0.001238134543953828</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13416,7 +13416,7 @@
         <v>1.165445568769922</v>
       </c>
       <c r="K170">
-        <v>53.82012762537141</v>
+        <v>0.03820127625371417</v>
       </c>
       <c r="L170">
         <v>0.01620982625930745</v>
@@ -13446,13 +13446,13 @@
         <v>0.01062500000000099</v>
       </c>
       <c r="U170">
-        <v>1.000096462579409</v>
+        <v>9.646257940909564E-05</v>
       </c>
       <c r="V170">
-        <v>1.000082530949106</v>
+        <v>8.253094910593006E-05</v>
       </c>
       <c r="W170">
-        <v>0.9987633965375102</v>
+        <v>-0.001236603462489771</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13487,7 +13487,7 @@
         <v>1.282379821073662</v>
       </c>
       <c r="K171">
-        <v>56.18608301883835</v>
+        <v>0.06186083018838351</v>
       </c>
       <c r="L171">
         <v>0.01570218401811596</v>
@@ -13517,13 +13517,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U171">
-        <v>1.000124011353928</v>
+        <v>0.000124011353928255</v>
       </c>
       <c r="V171">
-        <v>1.000302588507138</v>
+        <v>0.0003025885071381573</v>
       </c>
       <c r="W171">
-        <v>1.000825423029303</v>
+        <v>0.0008254230293025522</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13558,7 +13558,7 @@
         <v>1.405468507709179</v>
       </c>
       <c r="K172">
-        <v>58.42805687145167</v>
+        <v>0.08428056871451661</v>
       </c>
       <c r="L172">
         <v>0.01546368565832552</v>
@@ -13588,13 +13588,13 @@
         <v>0.001875000000001847</v>
       </c>
       <c r="U172">
-        <v>1.000151550638579</v>
+        <v>0.0001515506385794119</v>
       </c>
       <c r="V172">
-        <v>1.000109998900011</v>
+        <v>0.0001099989000110657</v>
       </c>
       <c r="W172">
-        <v>1.000824742268041</v>
+        <v>0.0008247422680411898</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13629,7 +13629,7 @@
         <v>1.176763805632109</v>
       </c>
       <c r="K173">
-        <v>54.06024312731483</v>
+        <v>0.04060243127314833</v>
       </c>
       <c r="L173">
         <v>0.01489556428675414</v>
@@ -13659,13 +13659,13 @@
         <v>0.002500000000001279</v>
       </c>
       <c r="U173">
-        <v>1.000110201945064</v>
+        <v>0.000110201945064281</v>
       </c>
       <c r="V173">
-        <v>1.000027496700396</v>
+        <v>2.749670039592367E-05</v>
       </c>
       <c r="W173">
-        <v>0.9987639060568603</v>
+        <v>-0.001236093943139727</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13700,7 +13700,7 @@
         <v>1.462246061002907</v>
       </c>
       <c r="K174">
-        <v>59.38667479915934</v>
+        <v>0.09386674799159345</v>
       </c>
       <c r="L174">
         <v>0.01486192868820654</v>
@@ -13730,13 +13730,13 @@
         <v>0.003750000000000142</v>
       </c>
       <c r="U174">
-        <v>1.000206605878626</v>
+        <v>0.0002066058786260871</v>
       </c>
       <c r="V174">
-        <v>1.000192471610438</v>
+        <v>0.0001924716104377833</v>
       </c>
       <c r="W174">
-        <v>1.002062706270627</v>
+        <v>0.002062706270627102</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13771,7 +13771,7 @@
         <v>1.305340183296167</v>
       </c>
       <c r="K175">
-        <v>56.62245393344926</v>
+        <v>0.06622453933449268</v>
       </c>
       <c r="L175">
         <v>0.01479898790931794</v>
@@ -13801,13 +13801,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U175">
-        <v>1.000192792321357</v>
+        <v>0.0001927923213571603</v>
       </c>
       <c r="V175">
-        <v>1.000027490653178</v>
+        <v>2.749065317764199E-05</v>
       </c>
       <c r="W175">
-        <v>0.9991766158913133</v>
+        <v>-0.0008233841086866533</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13842,7 +13842,7 @@
         <v>1.305340183296167</v>
       </c>
       <c r="K176">
-        <v>56.62245393344926</v>
+        <v>0.06622453933449268</v>
       </c>
       <c r="L176">
         <v>0.01466830415368874</v>
@@ -13872,13 +13872,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U176">
-        <v>1.000178986933954</v>
+        <v>0.0001789869339536843</v>
       </c>
       <c r="V176">
-        <v>1.000054979794925</v>
+        <v>5.497979492519178E-05</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13913,7 +13913,7 @@
         <v>1.23209393800392</v>
       </c>
       <c r="K177">
-        <v>55.1990181517959</v>
+        <v>0.05199018151795909</v>
       </c>
       <c r="L177">
         <v>0.01430104628956213</v>
@@ -13943,13 +13943,13 @@
         <v>0.006875000000004405</v>
       </c>
       <c r="U177">
-        <v>1.000247783712351</v>
+        <v>0.0002477837123506799</v>
       </c>
       <c r="V177">
-        <v>1.000027488386157</v>
+        <v>2.748838615684868E-05</v>
       </c>
       <c r="W177">
-        <v>0.9995879686856202</v>
+        <v>-0.0004120313143798349</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13984,7 +13984,7 @@
         <v>1.409292139255786</v>
       </c>
       <c r="K178">
-        <v>58.49403301050517</v>
+        <v>0.08494033010505175</v>
       </c>
       <c r="L178">
         <v>0.0142128290381857</v>
@@ -14014,13 +14014,13 @@
         <v>0.01187499999999986</v>
       </c>
       <c r="U178">
-        <v>1.000233959979081</v>
+        <v>0.0002339599790812663</v>
       </c>
       <c r="V178">
-        <v>1.000109950522265</v>
+        <v>0.0001099505222650343</v>
       </c>
       <c r="W178">
-        <v>1.00123660346249</v>
+        <v>0.001236603462489549</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14055,7 +14055,7 @@
         <v>1.25342875611167</v>
       </c>
       <c r="K179">
-        <v>55.62318101746792</v>
+        <v>0.05623181017467926</v>
       </c>
       <c r="L179">
         <v>0.01394668344760993</v>
@@ -14085,13 +14085,13 @@
         <v>0.01312500000000227</v>
       </c>
       <c r="U179">
-        <v>1.000206386989364</v>
+        <v>0.00020638698936426</v>
       </c>
       <c r="V179">
-        <v>1.000054969217238</v>
+        <v>5.496921723846526E-05</v>
       </c>
       <c r="W179">
-        <v>0.9991766158913133</v>
+        <v>-0.0008233841086866533</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14126,7 +14126,7 @@
         <v>1.25342875611167</v>
       </c>
       <c r="K180">
-        <v>55.62318101746792</v>
+        <v>0.05623181017467926</v>
       </c>
       <c r="L180">
         <v>0.01353889959121458</v>
@@ -14156,13 +14156,13 @@
         <v>0.01187499999999986</v>
       </c>
       <c r="U180">
-        <v>1.000220100696068</v>
+        <v>0.0002201006960684815</v>
       </c>
       <c r="V180">
-        <v>1.000109932391579</v>
+        <v>0.0001099323915794148</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14197,7 +14197,7 @@
         <v>1.181062085728844</v>
       </c>
       <c r="K181">
-        <v>54.15077789196309</v>
+        <v>0.04150777891963087</v>
       </c>
       <c r="L181">
         <v>0.01287170480603479</v>
@@ -14227,13 +14227,13 @@
         <v>0.01249999999999929</v>
       </c>
       <c r="U181">
-        <v>1.000165039196809</v>
+        <v>0.0001650391968091025</v>
       </c>
       <c r="V181">
-        <v>1.000027480076944</v>
+        <v>2.748007694419741E-05</v>
       </c>
       <c r="W181">
-        <v>0.9995879686856202</v>
+        <v>-0.0004120313143798349</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14268,7 +14268,7 @@
         <v>1.302609388895176</v>
       </c>
       <c r="K182">
-        <v>56.57101005395388</v>
+        <v>0.06571010053953874</v>
       </c>
       <c r="L182">
         <v>0.01234358109662877</v>
@@ -14298,13 +14298,13 @@
         <v>0.009375000000002132</v>
       </c>
       <c r="U182">
-        <v>1.000178762960315</v>
+        <v>0.0001787629603147156</v>
       </c>
       <c r="V182">
-        <v>1.000082437965431</v>
+        <v>8.243796543094817E-05</v>
       </c>
       <c r="W182">
-        <v>1.000824402308326</v>
+        <v>0.0008244023083263663</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14339,7 +14339,7 @@
         <v>1.224288857858682</v>
       </c>
       <c r="K183">
-        <v>55.04181048846787</v>
+        <v>0.05041810488467868</v>
       </c>
       <c r="L183">
         <v>0.01173810121051571</v>
@@ -14369,13 +14369,13 @@
         <v>0.008124999999996163</v>
       </c>
       <c r="U183">
-        <v>1.000096239774524</v>
+        <v>9.623977452388743E-05</v>
       </c>
       <c r="V183">
-        <v>1.000109908226631</v>
+        <v>0.0001099082266307061</v>
       </c>
       <c r="W183">
-        <v>0.9995881383855024</v>
+        <v>-0.0004118616144975773</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14410,7 +14410,7 @@
         <v>1.224288857858682</v>
       </c>
       <c r="K184">
-        <v>55.04181048846787</v>
+        <v>0.05041810488467868</v>
       </c>
       <c r="L184">
         <v>0.01108160337046417</v>
@@ -14440,13 +14440,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U184">
-        <v>1.000096230513321</v>
+        <v>9.623051332097177E-05</v>
       </c>
       <c r="V184">
-        <v>1.000027474037035</v>
+        <v>2.747403703495799E-05</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14481,7 +14481,7 @@
         <v>1.224288857858682</v>
       </c>
       <c r="K185">
-        <v>55.04181048846786</v>
+        <v>0.05041810488467857</v>
       </c>
       <c r="L185">
         <v>0.01039568654522565</v>
@@ -14511,13 +14511,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U185">
-        <v>1.000096221253901</v>
+        <v>9.622125390063019E-05</v>
       </c>
       <c r="V185">
-        <v>1.000109893128932</v>
+        <v>0.0001098931289320593</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14552,7 +14552,7 @@
         <v>1.364544583393814</v>
       </c>
       <c r="K186">
-        <v>57.7085580444118</v>
+        <v>0.07708558044411795</v>
       </c>
       <c r="L186">
         <v>0.00999819017982142</v>
@@ -14582,13 +14582,13 @@
         <v>0.002500000000001279</v>
       </c>
       <c r="U186">
-        <v>1.000206168563417</v>
+        <v>0.0002061685634173749</v>
       </c>
       <c r="V186">
-        <v>1.000109881053759</v>
+        <v>0.0001098810537594197</v>
       </c>
       <c r="W186">
-        <v>1.00082406262876</v>
+        <v>0.0008240626287596697</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14623,7 +14623,7 @@
         <v>1.364544583393814</v>
       </c>
       <c r="K187">
-        <v>57.7085580444118</v>
+        <v>0.07708558044411795</v>
       </c>
       <c r="L187">
         <v>0.009764252660161342</v>
@@ -14653,13 +14653,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U187">
-        <v>1.000082450426681</v>
+        <v>8.245042668098002E-05</v>
       </c>
       <c r="V187">
-        <v>1.00005493449062</v>
+        <v>5.493449061999556E-05</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14694,7 +14694,7 @@
         <v>1.364544583393814</v>
       </c>
       <c r="K188">
-        <v>57.7085580444118</v>
+        <v>0.07708558044411795</v>
       </c>
       <c r="L188">
         <v>0.009608680281949255</v>
@@ -14724,13 +14724,13 @@
         <v>0.003750000000000142</v>
       </c>
       <c r="U188">
-        <v>1.000082443629169</v>
+        <v>8.244362916864922E-05</v>
       </c>
       <c r="V188">
-        <v>1.000137328682468</v>
+        <v>0.0001373286824684072</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14765,7 +14765,7 @@
         <v>1.261372292368302</v>
       </c>
       <c r="K189">
-        <v>55.77906374041955</v>
+        <v>0.05779063740419543</v>
       </c>
       <c r="L189">
         <v>0.009325302314230019</v>
@@ -14795,13 +14795,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U189">
-        <v>1.000082436832777</v>
+        <v>8.243683277675551E-05</v>
       </c>
       <c r="V189">
-        <v>0.9999725380348218</v>
+        <v>-2.746196517822153E-05</v>
       </c>
       <c r="W189">
-        <v>0.9995883079456568</v>
+        <v>-0.0004116920543432157</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14836,7 +14836,7 @@
         <v>1.579727333097605</v>
       </c>
       <c r="K190">
-        <v>61.23621333269936</v>
+        <v>0.1123621333269935</v>
       </c>
       <c r="L190">
         <v>0.009549131338685683</v>
@@ -14866,13 +14866,13 @@
         <v>0.0068749999999973</v>
       </c>
       <c r="U190">
-        <v>1.000082430037506</v>
+        <v>8.243003750552091E-05</v>
       </c>
       <c r="V190">
-        <v>1.000137313596792</v>
+        <v>0.0001373135967923655</v>
       </c>
       <c r="W190">
-        <v>1.00164744645799</v>
+        <v>0.001647446457990087</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14907,7 +14907,7 @@
         <v>0.9957665287170331</v>
       </c>
       <c r="K191">
-        <v>49.89393871422204</v>
+        <v>-0.001060612857779641</v>
       </c>
       <c r="L191">
         <v>0.00898018372286224</v>
@@ -14937,13 +14937,13 @@
         <v>0.005624999999998437</v>
       </c>
       <c r="U191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V191">
-        <v>0.9999450821022572</v>
+        <v>-5.491789774281219E-05</v>
       </c>
       <c r="W191">
-        <v>0.9971217105263158</v>
+        <v>-0.002878289473684181</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14978,7 +14978,7 @@
         <v>1.106942239808743</v>
       </c>
       <c r="K192">
-        <v>52.53785409462509</v>
+        <v>0.02537854094625092</v>
       </c>
       <c r="L192">
         <v>0.008234896315163588</v>
@@ -15008,13 +15008,13 @@
         <v>0.005624999999998437</v>
       </c>
       <c r="U192">
-        <v>1.000027474414452</v>
+        <v>2.74744144517225E-05</v>
       </c>
       <c r="V192">
-        <v>1.000027460456942</v>
+        <v>2.746045694212995E-05</v>
       </c>
       <c r="W192">
-        <v>1.000824742268041</v>
+        <v>0.0008247422680411898</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15049,7 +15049,7 @@
         <v>0.9909717277042198</v>
       </c>
       <c r="K193">
-        <v>49.77326970116771</v>
+        <v>-0.002267302988322895</v>
       </c>
       <c r="L193">
         <v>0.007100149453019293</v>
@@ -15079,13 +15079,13 @@
         <v>0.003750000000000142</v>
       </c>
       <c r="U193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V193">
-        <v>0.9998901611884559</v>
+        <v>-0.0001098388115441384</v>
       </c>
       <c r="W193">
-        <v>0.9991759373712402</v>
+        <v>-0.0008240626287597808</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15120,7 +15120,7 @@
         <v>0.9909717277042196</v>
       </c>
       <c r="K194">
-        <v>49.77326970116771</v>
+        <v>-0.00226730298832295</v>
       </c>
       <c r="L194">
         <v>0.005776023572200218</v>
@@ -15150,13 +15150,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V194">
-        <v>0.9999450745612831</v>
+        <v>-5.49254387168796E-05</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15191,7 +15191,7 @@
         <v>0.7350034979157668</v>
       </c>
       <c r="K195">
-        <v>42.36322859283657</v>
+        <v>-0.07636771407163429</v>
       </c>
       <c r="L195">
         <v>0.003500136128249541</v>
@@ -15221,13 +15221,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U195">
-        <v>0.9999450526807423</v>
+        <v>-5.494731925770324E-05</v>
       </c>
       <c r="V195">
-        <v>0.999780286177254</v>
+        <v>-0.0002197138227459927</v>
       </c>
       <c r="W195">
-        <v>0.9975257731958763</v>
+        <v>-0.00247422680412368</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15262,7 +15262,7 @@
         <v>0.7350034979157668</v>
       </c>
       <c r="K196">
-        <v>42.36322859283657</v>
+        <v>-0.07636771407163429</v>
       </c>
       <c r="L196">
         <v>0.0007800639283957632</v>
@@ -15292,13 +15292,13 @@
         <v>-0.01374999999999815</v>
       </c>
       <c r="U196">
-        <v>0.9999175744920529</v>
+        <v>-8.242550794712589E-05</v>
       </c>
       <c r="V196">
-        <v>0.9998077081559212</v>
+        <v>-0.0001922918440787624</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15333,7 +15333,7 @@
         <v>0.8304052466289172</v>
       </c>
       <c r="K197">
-        <v>45.36728946544958</v>
+        <v>-0.04632710534550422</v>
       </c>
       <c r="L197">
         <v>-0.001738527452313292</v>
@@ -15363,13 +15363,13 @@
         <v>-0.01937500000000014</v>
       </c>
       <c r="U197">
-        <v>0.9999450451316856</v>
+        <v>-5.495486831441632E-05</v>
       </c>
       <c r="V197">
-        <v>0.9998076711726566</v>
+        <v>-0.0001923288273434354</v>
       </c>
       <c r="W197">
-        <v>1.000826787928896</v>
+        <v>0.0008267879288961222</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15404,7 +15404,7 @@
         <v>0.8304052466289172</v>
       </c>
       <c r="K198">
-        <v>45.36728946544958</v>
+        <v>-0.04632710534550422</v>
       </c>
       <c r="L198">
         <v>-0.00396837976595994</v>
@@ -15434,13 +15434,13 @@
         <v>-0.02874999999999872</v>
       </c>
       <c r="U198">
-        <v>0.9999725210557412</v>
+        <v>-2.747894425880748E-05</v>
       </c>
       <c r="V198">
-        <v>0.9998351150072822</v>
+        <v>-0.0001648849927178286</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15475,7 +15475,7 @@
         <v>0.8304052466289171</v>
       </c>
       <c r="K199">
-        <v>45.36728946544958</v>
+        <v>-0.04632710534550422</v>
       </c>
       <c r="L199">
         <v>-0.005866926146321146</v>
@@ -15505,13 +15505,13 @@
         <v>-0.02999999999999758</v>
       </c>
       <c r="U199">
-        <v>0.9999313007515697</v>
+        <v>-6.869924843033726E-05</v>
       </c>
       <c r="V199">
-        <v>0.999835087815738</v>
+        <v>-0.0001649121842619561</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15546,7 +15546,7 @@
         <v>0.7866397928622334</v>
       </c>
       <c r="K200">
-        <v>44.02900886932672</v>
+        <v>-0.05970991130673275</v>
       </c>
       <c r="L200">
         <v>-0.007572655298130783</v>
@@ -15576,13 +15576,13 @@
         <v>-0.03437500000000071</v>
       </c>
       <c r="U200">
-        <v>0.9999587776189953</v>
+        <v>-4.122238100467968E-05</v>
       </c>
       <c r="V200">
-        <v>0.9998075707177614</v>
+        <v>-0.0001924292822386153</v>
       </c>
       <c r="W200">
-        <v>0.9995869475423378</v>
+        <v>-0.0004130524576622108</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15617,7 +15617,7 @@
         <v>0.7866397928622334</v>
       </c>
       <c r="K201">
-        <v>44.02900886932672</v>
+        <v>-0.05970991130673275</v>
       </c>
       <c r="L201">
         <v>-0.009025482148198627</v>
@@ -15647,13 +15647,13 @@
         <v>-0.03625000000000256</v>
       </c>
       <c r="U201">
-        <v>0.999931293199401</v>
+        <v>-6.870680059900547E-05</v>
       </c>
       <c r="V201">
-        <v>0.9997525433049215</v>
+        <v>-0.0002474566950785295</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15688,7 +15688,7 @@
         <v>0.7432366424966534</v>
       </c>
       <c r="K202">
-        <v>42.63544170527498</v>
+        <v>-0.07364558294725021</v>
       </c>
       <c r="L202">
         <v>-0.01034992618817573</v>
@@ -15718,13 +15718,13 @@
         <v>-0.03749999999999787</v>
       </c>
       <c r="U202">
-        <v>0.9998900615655231</v>
+        <v>-0.0001099384344769305</v>
       </c>
       <c r="V202">
-        <v>0.9997249800610545</v>
+        <v>-0.0002750199389455199</v>
       </c>
       <c r="W202">
-        <v>0.9995867768595043</v>
+        <v>-0.0004132231404957443</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15759,7 +15759,7 @@
         <v>0.8013159910309731</v>
       </c>
       <c r="K203">
-        <v>44.485031777925</v>
+        <v>-0.05514968222075001</v>
       </c>
       <c r="L203">
         <v>-0.01132458186863752</v>
@@ -15789,13 +15789,13 @@
         <v>-0.03062499999999702</v>
       </c>
       <c r="U203">
-        <v>0.9999450247388677</v>
+        <v>-5.497526113229512E-05</v>
       </c>
       <c r="V203">
-        <v>0.9997524139638524</v>
+        <v>-0.0002475860361476068</v>
       </c>
       <c r="W203">
-        <v>1.000413393964448</v>
+        <v>0.0004133939644479501</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15830,7 +15830,7 @@
         <v>0.8624521473829102</v>
       </c>
       <c r="K204">
-        <v>46.30734532400282</v>
+        <v>-0.03692654675997181</v>
       </c>
       <c r="L204">
         <v>-0.01183395579049375</v>
@@ -15860,13 +15860,13 @@
         <v>-0.02312499999999673</v>
       </c>
       <c r="U204">
-        <v>0.9998900434328439</v>
+        <v>-0.0001099565671560665</v>
       </c>
       <c r="V204">
-        <v>0.9998073853943096</v>
+        <v>-0.0001926146056904221</v>
       </c>
       <c r="W204">
-        <v>1.000413223140496</v>
+        <v>0.0004132231404958553</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15901,7 +15901,7 @@
         <v>0.9268059961744002</v>
       </c>
       <c r="K205">
-        <v>48.10063898568606</v>
+        <v>-0.01899361014313938</v>
       </c>
       <c r="L205">
         <v>-0.01183576286073678</v>
@@ -15931,13 +15931,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U205">
-        <v>0.9999312695881672</v>
+        <v>-6.873041183275141E-05</v>
       </c>
       <c r="V205">
-        <v>0.9997247832668226</v>
+        <v>-0.0002752167331774302</v>
       </c>
       <c r="W205">
-        <v>1.000413052457662</v>
+        <v>0.0004130524576619887</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15972,7 +15972,7 @@
         <v>0.8680064628479248</v>
       </c>
       <c r="K206">
-        <v>46.46699463365773</v>
+        <v>-0.03533005366342273</v>
       </c>
       <c r="L206">
         <v>-0.01163697712787293</v>
@@ -16002,13 +16002,13 @@
         <v>-0.01125000000000043</v>
       </c>
       <c r="U206">
-        <v>0.999917517836768</v>
+        <v>-8.248216323203383E-05</v>
       </c>
       <c r="V206">
-        <v>0.9998898830006883</v>
+        <v>-0.0001101169993117379</v>
       </c>
       <c r="W206">
-        <v>0.999587118084228</v>
+        <v>-0.0004128819157720454</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16043,7 +16043,7 @@
         <v>1.201918014253027</v>
       </c>
       <c r="K207">
-        <v>54.58504842019573</v>
+        <v>0.04585048420195736</v>
       </c>
       <c r="L207">
         <v>-0.0105359882087355</v>
@@ -16073,13 +16073,13 @@
         <v>-0.005624999999998437</v>
       </c>
       <c r="U207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V207">
-        <v>0.9999724677183998</v>
+        <v>-2.753228160023991E-05</v>
       </c>
       <c r="W207">
-        <v>1.002065262288311</v>
+        <v>0.00206526228831061</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16114,7 +16114,7 @@
         <v>1.201918014253027</v>
       </c>
       <c r="K208">
-        <v>54.58504842019573</v>
+        <v>0.04585048420195736</v>
       </c>
       <c r="L208">
         <v>-0.008919928773801059</v>
@@ -16144,13 +16144,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U208">
-        <v>0.9999587555164495</v>
+        <v>-4.124448355047328E-05</v>
       </c>
       <c r="V208">
-        <v>1.000027533039648</v>
+        <v>2.753303964775355E-05</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16185,7 +16185,7 @@
         <v>1.119107401793864</v>
       </c>
       <c r="K209">
-        <v>52.81032008318778</v>
+        <v>0.02810320083187778</v>
       </c>
       <c r="L209">
         <v>-0.007212359045435421</v>
@@ -16215,13 +16215,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U209">
-        <v>0.9999725025435147</v>
+        <v>-2.749745648533697E-05</v>
       </c>
       <c r="V209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W209">
-        <v>0.9995877988458367</v>
+        <v>-0.0004122011541632942</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16256,7 +16256,7 @@
         <v>0.9191281765114482</v>
       </c>
       <c r="K210">
-        <v>47.89300619733595</v>
+        <v>-0.02106993802664048</v>
       </c>
       <c r="L210">
         <v>-0.005982535460267556</v>
@@ -16286,13 +16286,13 @@
         <v>0.01437500000000114</v>
       </c>
       <c r="U210">
-        <v>0.9999312544684597</v>
+        <v>-6.874553154034846E-05</v>
       </c>
       <c r="V210">
-        <v>1.0000825968448</v>
+        <v>8.259684480038665E-05</v>
       </c>
       <c r="W210">
-        <v>0.9987628865979381</v>
+        <v>-0.001237113402061896</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16327,7 +16327,7 @@
         <v>0.9818282793875734</v>
       </c>
       <c r="K211">
-        <v>49.54154149475448</v>
+        <v>-0.004584585052455181</v>
       </c>
       <c r="L211">
         <v>-0.004948542739909329</v>
@@ -16357,13 +16357,13 @@
         <v>0.015625</v>
       </c>
       <c r="U211">
-        <v>0.999958749845312</v>
+        <v>-4.125015468803284E-05</v>
       </c>
       <c r="V211">
-        <v>1.000110120030834</v>
+        <v>0.0001101200308335493</v>
       </c>
       <c r="W211">
-        <v>1.000412881915772</v>
+        <v>0.0004128819157720454</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16398,7 +16398,7 @@
         <v>0.7033150590350424</v>
       </c>
       <c r="K212">
-        <v>41.29095526422943</v>
+        <v>-0.08709044735770566</v>
       </c>
       <c r="L212">
         <v>-0.004982576407659979</v>
@@ -16428,13 +16428,13 @@
         <v>0.01187499999999631</v>
       </c>
       <c r="U212">
-        <v>0.9998487431934436</v>
+        <v>-0.0001512568065563658</v>
       </c>
       <c r="V212">
-        <v>0.9998898920942524</v>
+        <v>-0.000110107905747614</v>
       </c>
       <c r="W212">
-        <v>0.9975237309120925</v>
+        <v>-0.002476269087907546</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16469,7 +16469,7 @@
         <v>0.7530813669614853</v>
       </c>
       <c r="K213">
-        <v>42.95758206972206</v>
+        <v>-0.07042417930277944</v>
       </c>
       <c r="L213">
         <v>-0.005493229157551804</v>
@@ -16499,13 +16499,13 @@
         <v>0.0087500000000027</v>
       </c>
       <c r="U213">
-        <v>0.9998762257092956</v>
+        <v>-0.0001237742907044259</v>
       </c>
       <c r="V213">
-        <v>0.9999174099768747</v>
+        <v>-8.259002312527297E-05</v>
       </c>
       <c r="W213">
-        <v>1.000413736036409</v>
+        <v>0.0004137360364087073</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16540,7 +16540,7 @@
         <v>0.7530813669614854</v>
       </c>
       <c r="K214">
-        <v>42.95758206972206</v>
+        <v>-0.07042417930277933</v>
       </c>
       <c r="L214">
         <v>-0.006240194355405151</v>
@@ -16570,13 +16570,13 @@
         <v>0.006875000000000853</v>
       </c>
       <c r="U214">
-        <v>0.999876210387324</v>
+        <v>-0.0001237896126760063</v>
       </c>
       <c r="V214">
-        <v>0.9999174031551995</v>
+        <v>-8.259684480049767E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16611,7 +16611,7 @@
         <v>0.7530813669614853</v>
       </c>
       <c r="K215">
-        <v>42.95758206972206</v>
+        <v>-0.07042417930277944</v>
       </c>
       <c r="L215">
         <v>-0.007060110774434562</v>
@@ -16641,13 +16641,13 @@
         <v>-0.001250000000002416</v>
       </c>
       <c r="U215">
-        <v>0.9998761950615584</v>
+        <v>-0.0001238049384415518</v>
       </c>
       <c r="V215">
-        <v>0.9999449308882649</v>
+        <v>-5.506911173513984E-05</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16682,7 +16682,7 @@
         <v>0.8111263390290876</v>
       </c>
       <c r="K216">
-        <v>44.78574031803424</v>
+        <v>-0.05214259681965755</v>
       </c>
       <c r="L216">
         <v>-0.007696088130592543</v>
@@ -16712,13 +16712,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U216">
-        <v>0.9998624219244421</v>
+        <v>-0.0001375780755579203</v>
       </c>
       <c r="V216">
-        <v>0.9999724639277452</v>
+        <v>-2.753607225480792E-05</v>
       </c>
       <c r="W216">
-        <v>1.000413564929694</v>
+        <v>0.0004135649296941324</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16753,7 +16753,7 @@
         <v>0.7644202822589513</v>
       </c>
       <c r="K217">
-        <v>43.3241609125168</v>
+        <v>-0.06675839087483199</v>
       </c>
       <c r="L217">
         <v>-0.008302437878714987</v>
@@ -16783,13 +16783,13 @@
         <v>-0.01687499999999886</v>
       </c>
       <c r="U217">
-        <v>0.9998486432935222</v>
+        <v>-0.0001513567064778121</v>
       </c>
       <c r="V217">
-        <v>0.9999724631694893</v>
+        <v>-2.753683051071043E-05</v>
       </c>
       <c r="W217">
-        <v>0.9995866060355518</v>
+        <v>-0.0004133939644481721</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16824,7 +16824,7 @@
         <v>0.7207348520555444</v>
       </c>
       <c r="K218">
-        <v>41.8852940181094</v>
+        <v>-0.08114705981890602</v>
       </c>
       <c r="L218">
         <v>-0.008972370268451246</v>
@@ -16854,13 +16854,13 @@
         <v>-0.02187499999999787</v>
       </c>
       <c r="U218">
-        <v>0.9998348585976741</v>
+        <v>-0.0001651414023259301</v>
       </c>
       <c r="V218">
-        <v>0.9999173872335739</v>
+        <v>-8.261276642607118E-05</v>
       </c>
       <c r="W218">
-        <v>0.9995864350703061</v>
+        <v>-0.0004135649296939103</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16895,7 +16895,7 @@
         <v>0.8410473671450847</v>
       </c>
       <c r="K219">
-        <v>45.68309225249855</v>
+        <v>-0.04316907747501453</v>
       </c>
       <c r="L219">
         <v>-0.009304939338922055</v>
@@ -16925,13 +16925,13 @@
         <v>-0.02625000000000099</v>
       </c>
       <c r="U219">
-        <v>0.9998761234911153</v>
+        <v>-0.0001238765088846794</v>
       </c>
       <c r="V219">
-        <v>0.9999449202720939</v>
+        <v>-5.507972790608218E-05</v>
       </c>
       <c r="W219">
-        <v>1.000827472072817</v>
+        <v>0.0008274720728174145</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16966,7 +16966,7 @@
         <v>0.7909617871692594</v>
       </c>
       <c r="K220">
-        <v>44.16407948152986</v>
+        <v>-0.05835920518470139</v>
       </c>
       <c r="L220">
         <v>-0.009528400914517879</v>
@@ -16996,13 +16996,13 @@
         <v>-0.02312500000000384</v>
       </c>
       <c r="U220">
-        <v>0.9998072793348385</v>
+        <v>-0.0001927206651615165</v>
       </c>
       <c r="V220">
-        <v>0.9998898344763005</v>
+        <v>-0.0001101655236994681</v>
       </c>
       <c r="W220">
-        <v>0.9995866060355518</v>
+        <v>-0.0004133939644481721</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17037,7 +17037,7 @@
         <v>0.8536475111748053</v>
       </c>
       <c r="K221">
-        <v>46.05231070246901</v>
+        <v>-0.03947689297530993</v>
       </c>
       <c r="L221">
         <v>-0.009486525803466069</v>
@@ -17067,13 +17067,13 @@
         <v>-0.01999999999999957</v>
       </c>
       <c r="U221">
-        <v>0.9999173895084676</v>
+        <v>-8.261049153235334E-05</v>
       </c>
       <c r="V221">
-        <v>0.9999449111692605</v>
+        <v>-5.508883073945814E-05</v>
       </c>
       <c r="W221">
-        <v>1.000413564929694</v>
+        <v>0.0004135649296941324</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17108,7 +17108,7 @@
         <v>0.754125597360771</v>
       </c>
       <c r="K222">
-        <v>42.99153940261839</v>
+        <v>-0.07008460597381616</v>
       </c>
       <c r="L222">
         <v>-0.009552750909257555</v>
@@ -17138,13 +17138,13 @@
         <v>-0.01875000000000071</v>
       </c>
       <c r="U222">
-        <v>0.9998623044723506</v>
+        <v>-0.0001376955276494174</v>
       </c>
       <c r="V222">
-        <v>0.9997520866044129</v>
+        <v>-0.0002479133955870516</v>
       </c>
       <c r="W222">
-        <v>0.9991732120711038</v>
+        <v>-0.0008267879288962332</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17179,7 +17179,7 @@
         <v>0.754125597360771</v>
       </c>
       <c r="K223">
-        <v>42.99153940261839</v>
+        <v>-0.07008460597381616</v>
       </c>
       <c r="L223">
         <v>-0.009645547185672815</v>
@@ -17209,13 +17209,13 @@
         <v>-0.01437499999999758</v>
       </c>
       <c r="U223">
-        <v>0.9998898284077451</v>
+        <v>-0.000110171592254904</v>
       </c>
       <c r="V223">
-        <v>0.99975202512812</v>
+        <v>-0.0002479748718799968</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17250,7 +17250,7 @@
         <v>0.8187152478137026</v>
       </c>
       <c r="K224">
-        <v>45.01613151359945</v>
+        <v>-0.04983868486400544</v>
       </c>
       <c r="L224">
         <v>-0.009563080200489352</v>
@@ -17280,13 +17280,13 @@
         <v>-0.01062499999999744</v>
       </c>
       <c r="U224">
-        <v>0.9999035892350495</v>
+        <v>-9.641076495048306E-05</v>
       </c>
       <c r="V224">
-        <v>0.9998070828165909</v>
+        <v>-0.0001929171834090804</v>
       </c>
       <c r="W224">
-        <v>1.000413736036409</v>
+        <v>0.0004137360364087073</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17321,7 +17321,7 @@
         <v>1.090671670773464</v>
       </c>
       <c r="K225">
-        <v>52.16848183387685</v>
+        <v>0.02168481833876845</v>
       </c>
       <c r="L225">
         <v>-0.008743232113258113</v>
@@ -17351,13 +17351,13 @@
         <v>-0.003750000000000142</v>
       </c>
       <c r="U225">
-        <v>1.000041322883235</v>
+        <v>4.132288323543953E-05</v>
       </c>
       <c r="V225">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W225">
-        <v>1.001654259718776</v>
+        <v>0.001654259718775863</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17392,7 +17392,7 @@
         <v>1.305374109952236</v>
       </c>
       <c r="K226">
-        <v>56.62309229191793</v>
+        <v>0.06623092291917931</v>
       </c>
       <c r="L226">
         <v>-0.007045608975870974</v>
@@ -17422,13 +17422,13 @@
         <v>0.004374999999996021</v>
       </c>
       <c r="U226">
-        <v>1.00008264235145</v>
+        <v>8.264235145039045E-05</v>
       </c>
       <c r="V226">
-        <v>1.000055129830751</v>
+        <v>5.512983075139921E-05</v>
       </c>
       <c r="W226">
-        <v>1.001238645747316</v>
+        <v>0.001238645747316358</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17463,7 +17463,7 @@
         <v>1.213924120594478</v>
       </c>
       <c r="K227">
-        <v>54.83133361718458</v>
+        <v>0.04831333617184574</v>
       </c>
       <c r="L227">
         <v>-0.00504892726019652</v>
@@ -17493,13 +17493,13 @@
         <v>0.01000000000000156</v>
       </c>
       <c r="U227">
-        <v>1.000041317761128</v>
+        <v>4.131776112825669E-05</v>
       </c>
       <c r="V227">
-        <v>1.000192943770672</v>
+        <v>0.0001929437706724713</v>
       </c>
       <c r="W227">
-        <v>0.9995876288659793</v>
+        <v>-0.0004123711340207059</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17534,7 +17534,7 @@
         <v>1.361411566466833</v>
       </c>
       <c r="K228">
-        <v>57.65244762071654</v>
+        <v>0.0765244762071654</v>
       </c>
       <c r="L228">
         <v>-0.002678955600851888</v>
@@ -17564,13 +17564,13 @@
         <v>0.01437499999999758</v>
       </c>
       <c r="U228">
-        <v>1.000068860090069</v>
+        <v>6.88600900689007E-05</v>
       </c>
       <c r="V228">
-        <v>1.000220464629206</v>
+        <v>0.0002204646292061074</v>
       </c>
       <c r="W228">
-        <v>1.000825082508251</v>
+        <v>0.0008250825082509738</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17605,7 +17605,7 @@
         <v>1.361411566466833</v>
       </c>
       <c r="K229">
-        <v>57.65244762071655</v>
+        <v>0.07652447620716551</v>
       </c>
       <c r="L229">
         <v>-0.0002240772242738659</v>
@@ -17635,13 +17635,13 @@
         <v>0.01812499999999773</v>
       </c>
       <c r="U229">
-        <v>1.000068855348683</v>
+        <v>6.885534868339427E-05</v>
       </c>
       <c r="V229">
-        <v>1.000220416035267</v>
+        <v>0.0002204160352665685</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17676,7 +17676,7 @@
         <v>1.093387789571666</v>
       </c>
       <c r="K230">
-        <v>52.23054204378382</v>
+        <v>0.02230542043783823</v>
       </c>
       <c r="L230">
         <v>0.001675207501796096</v>
@@ -17706,13 +17706,13 @@
         <v>0.0224999999999973</v>
       </c>
       <c r="U230">
-        <v>1.000041310364771</v>
+        <v>4.131036477073025E-05</v>
       </c>
       <c r="V230">
-        <v>1.000137729664215</v>
+        <v>0.0001377296642151027</v>
       </c>
       <c r="W230">
-        <v>0.9987633965375102</v>
+        <v>-0.001236603462489771</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17747,7 +17747,7 @@
         <v>1.300621442067206</v>
       </c>
       <c r="K231">
-        <v>56.5334834443055</v>
+        <v>0.06533483444305499</v>
       </c>
       <c r="L231">
         <v>0.0035620027508439</v>
@@ -17777,13 +17777,13 @@
         <v>0.02874999999999517</v>
       </c>
       <c r="U231">
-        <v>1.000082617316589</v>
+        <v>8.261731658931737E-05</v>
       </c>
       <c r="V231">
-        <v>1.000192794976314</v>
+        <v>0.0001927949763136372</v>
       </c>
       <c r="W231">
-        <v>1.001238134543954</v>
+        <v>0.001238134543953828</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17818,7 +17818,7 @@
         <v>1.373335004346326</v>
       </c>
       <c r="K232">
-        <v>57.86519820553423</v>
+        <v>0.0786519820553423</v>
       </c>
       <c r="L232">
         <v>0.005458339674022591</v>
@@ -17848,13 +17848,13 @@
         <v>0.03500000000000014</v>
       </c>
       <c r="U232">
-        <v>1.000110147322044</v>
+        <v>0.0001101473220435079</v>
       </c>
       <c r="V232">
-        <v>1.000247831474597</v>
+        <v>0.0002478314745972821</v>
       </c>
       <c r="W232">
-        <v>1.000412201154163</v>
+        <v>0.0004122011541631831</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17889,7 +17889,7 @@
         <v>1.373335004346326</v>
       </c>
       <c r="K233">
-        <v>57.86519820553423</v>
+        <v>0.0786519820553423</v>
       </c>
       <c r="L233">
         <v>0.007219566111491623</v>
@@ -17919,13 +17919,13 @@
         <v>0.03562500000000313</v>
       </c>
       <c r="U233">
-        <v>1.000096368292078</v>
+        <v>9.636829207826381E-05</v>
       </c>
       <c r="V233">
-        <v>1.000275300077084</v>
+        <v>0.0002753000770838732</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17960,7 +17960,7 @@
         <v>1.615042136576145</v>
       </c>
       <c r="K234">
-        <v>61.75969839976297</v>
+        <v>0.1175969839976297</v>
       </c>
       <c r="L234">
         <v>0.009211489125274716</v>
@@ -17990,13 +17990,13 @@
         <v>0.03375000000000128</v>
       </c>
       <c r="U234">
-        <v>1.000123890150733</v>
+        <v>0.000123890150732997</v>
       </c>
       <c r="V234">
-        <v>1.000302746738592</v>
+        <v>0.0003027467385920968</v>
       </c>
       <c r="W234">
-        <v>1.00123609394314</v>
+        <v>0.001236093943139727</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18031,7 +18031,7 @@
         <v>1.488779464671436</v>
       </c>
       <c r="K235">
-        <v>59.81966203935961</v>
+        <v>0.09819662039359611</v>
       </c>
       <c r="L235">
         <v>0.01103196528429214</v>
@@ -18061,13 +18061,13 @@
         <v>0.03375000000000128</v>
       </c>
       <c r="U235">
-        <v>1.000096347069673</v>
+        <v>9.634706967265316E-05</v>
       </c>
       <c r="V235">
-        <v>1.000302655110744</v>
+        <v>0.0003026551107441211</v>
       </c>
       <c r="W235">
-        <v>0.9995884773662551</v>
+        <v>-0.0004115226337448874</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18102,7 +18102,7 @@
         <v>1.900248839615766</v>
       </c>
       <c r="K236">
-        <v>65.52019997937546</v>
+        <v>0.1552019997937546</v>
       </c>
       <c r="L236">
         <v>0.01334405440793603</v>
@@ -18132,13 +18132,13 @@
         <v>0.03375000000000483</v>
       </c>
       <c r="U236">
-        <v>1.000178913034503</v>
+        <v>0.0001789130345026813</v>
       </c>
       <c r="V236">
-        <v>1.000412586643195</v>
+        <v>0.0004125866431952119</v>
       </c>
       <c r="W236">
-        <v>1.002058460271717</v>
+        <v>0.002058460271716855</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18173,7 +18173,7 @@
         <v>2.333374497451903</v>
       </c>
       <c r="K237">
-        <v>70.00037047249208</v>
+        <v>0.2000037047249208</v>
       </c>
       <c r="L237">
         <v>0.0165092758476038</v>
@@ -18203,13 +18203,13 @@
         <v>0.03749999999999787</v>
       </c>
       <c r="U237">
-        <v>1.000178881030355</v>
+        <v>0.0001788810303546828</v>
       </c>
       <c r="V237">
-        <v>1.000604877512304</v>
+        <v>0.0006048775123035366</v>
       </c>
       <c r="W237">
-        <v>1.002054231717338</v>
+        <v>0.002054231717337762</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18244,7 +18244,7 @@
         <v>2.424558846470017</v>
       </c>
       <c r="K238">
-        <v>70.79915852429329</v>
+        <v>0.2079915852429329</v>
       </c>
       <c r="L238">
         <v>0.0200787821845346</v>
@@ -18274,13 +18274,13 @@
         <v>0.04437500000000227</v>
       </c>
       <c r="U238">
-        <v>1.000192606655936</v>
+        <v>0.0001926066559359008</v>
       </c>
       <c r="V238">
-        <v>1.000631989668343</v>
+        <v>0.0006319896683431026</v>
       </c>
       <c r="W238">
-        <v>1.000410004100041</v>
+        <v>0.0004100041000409949</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18315,7 +18315,7 @@
         <v>2.212221981936883</v>
       </c>
       <c r="K239">
-        <v>68.86890116488689</v>
+        <v>0.188689011648869</v>
       </c>
       <c r="L239">
         <v>0.02344103095303204</v>
@@ -18345,13 +18345,13 @@
         <v>0.04687499999999645</v>
       </c>
       <c r="U239">
-        <v>1.000192569565756</v>
+        <v>0.0001925695657556403</v>
       </c>
       <c r="V239">
-        <v>1.000576669595782</v>
+        <v>0.0005766695957820644</v>
       </c>
       <c r="W239">
-        <v>0.9995901639344263</v>
+        <v>-0.0004098360655736544</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18386,7 +18386,7 @@
         <v>2.488782589209069</v>
       </c>
       <c r="K240">
-        <v>71.33670630285084</v>
+        <v>0.2133670630285084</v>
       </c>
       <c r="L240">
         <v>0.02682775896096317</v>
@@ -18416,13 +18416,13 @@
         <v>0.05062500000000014</v>
       </c>
       <c r="U240">
-        <v>1.000275046414082</v>
+        <v>0.0002750464140823805</v>
       </c>
       <c r="V240">
-        <v>1.000548892609161</v>
+        <v>0.0005488926091610224</v>
       </c>
       <c r="W240">
-        <v>1.001230012300123</v>
+        <v>0.001230012300122985</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18457,7 +18457,7 @@
         <v>2.7798990179166</v>
       </c>
       <c r="K241">
-        <v>73.54426678437619</v>
+        <v>0.2354426678437619</v>
       </c>
       <c r="L241">
         <v>0.03036501133200507</v>
@@ -18487,13 +18487,13 @@
         <v>0.05874999999999986</v>
       </c>
       <c r="U241">
-        <v>1.00030246786279</v>
+        <v>0.000302467862789646</v>
       </c>
       <c r="V241">
-        <v>1.000548591491346</v>
+        <v>0.0005485914913458956</v>
       </c>
       <c r="W241">
-        <v>1.001228501228501</v>
+        <v>0.001228501228501155</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18528,7 +18528,7 @@
         <v>1.723565745402447</v>
       </c>
       <c r="K242">
-        <v>63.28342718775693</v>
+        <v>0.1328342718775694</v>
       </c>
       <c r="L242">
         <v>0.03275442621764489</v>
@@ -18558,13 +18558,13 @@
         <v>0.06125000000000469</v>
       </c>
       <c r="U242">
-        <v>1.000302376403645</v>
+        <v>0.0003023764036449439</v>
       </c>
       <c r="V242">
-        <v>1.000411218027798</v>
+        <v>0.0004112180277981992</v>
       </c>
       <c r="W242">
-        <v>0.9975460122699387</v>
+        <v>-0.002453987730061336</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18599,7 +18599,7 @@
         <v>1.723565745402447</v>
       </c>
       <c r="K243">
-        <v>63.28342718775693</v>
+        <v>0.1328342718775694</v>
       </c>
       <c r="L243">
         <v>0.0341762330843059</v>
@@ -18629,13 +18629,13 @@
         <v>0.06437499999999829</v>
       </c>
       <c r="U243">
-        <v>1.00028854477253</v>
+        <v>0.0002885447725304857</v>
       </c>
       <c r="V243">
-        <v>1.000356242464102</v>
+        <v>0.0003562424641019302</v>
       </c>
       <c r="W243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18670,7 +18670,7 @@
         <v>1.610547875504905</v>
       </c>
       <c r="K244">
-        <v>61.69386474834941</v>
+        <v>0.1169386474834941</v>
       </c>
       <c r="L244">
         <v>0.03464623532327001</v>
@@ -18700,13 +18700,13 @@
         <v>0.06187499999999702</v>
       </c>
       <c r="U244">
-        <v>1.000274725274725</v>
+        <v>0.0002747252747252737</v>
       </c>
       <c r="V244">
-        <v>1.000328722092864</v>
+        <v>0.0003287220928640533</v>
       </c>
       <c r="W244">
-        <v>0.9995899958999589</v>
+        <v>-0.0004100041000411059</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18741,7 +18741,7 @@
         <v>1.748594456155321</v>
       </c>
       <c r="K245">
-        <v>63.61776842849417</v>
+        <v>0.1361776842849417</v>
       </c>
       <c r="L245">
         <v>0.03468347319790427</v>
@@ -18771,13 +18771,13 @@
         <v>0.05437500000000028</v>
       </c>
       <c r="U245">
-        <v>1.000302114803625</v>
+        <v>0.0003021148036252974</v>
       </c>
       <c r="V245">
-        <v>1.000465536599392</v>
+        <v>0.0004655365993919691</v>
       </c>
       <c r="W245">
-        <v>1.000820344544709</v>
+        <v>0.0008203445447088065</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18812,7 +18812,7 @@
         <v>1.526740456603006</v>
       </c>
       <c r="K246">
-        <v>60.42331940398748</v>
+        <v>0.1042331940398749</v>
       </c>
       <c r="L246">
         <v>0.03402951351485928</v>
@@ -18842,13 +18842,13 @@
         <v>0.04250000000000043</v>
       </c>
       <c r="U246">
-        <v>1.000260838527223</v>
+        <v>0.0002608385272233615</v>
       </c>
       <c r="V246">
-        <v>1.000328461159468</v>
+        <v>0.0003284611594678299</v>
       </c>
       <c r="W246">
-        <v>0.9991803278688525</v>
+        <v>-0.0008196721311475308</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18883,7 +18883,7 @@
         <v>1.660293737080637</v>
       </c>
       <c r="K247">
-        <v>62.41016598800913</v>
+        <v>0.1241016598800914</v>
       </c>
       <c r="L247">
         <v>0.03317453971811431</v>
@@ -18913,13 +18913,13 @@
         <v>0.03500000000000369</v>
       </c>
       <c r="U247">
-        <v>1.000301944799001</v>
+        <v>0.0003019447990006974</v>
       </c>
       <c r="V247">
-        <v>1.000355716083839</v>
+        <v>0.0003557160838394413</v>
       </c>
       <c r="W247">
-        <v>1.000820344544709</v>
+        <v>0.0008203445447088065</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18954,7 +18954,7 @@
         <v>1.730584937332034</v>
       </c>
       <c r="K248">
-        <v>63.37781014140261</v>
+        <v>0.1337781014140261</v>
       </c>
       <c r="L248">
         <v>0.03228113047635971</v>
@@ -18984,13 +18984,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U248">
-        <v>1.000329294897301</v>
+        <v>0.0003292948973010468</v>
       </c>
       <c r="V248">
-        <v>1.000382942640663</v>
+        <v>0.0003829426406631864</v>
       </c>
       <c r="W248">
-        <v>1.000409836065574</v>
+        <v>0.0004098360655737654</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19025,7 +19025,7 @@
         <v>1.416222825118398</v>
       </c>
       <c r="K249">
-        <v>58.61308859413665</v>
+        <v>0.08613088594136653</v>
       </c>
       <c r="L249">
         <v>0.03085398266297751</v>
@@ -19055,13 +19055,13 @@
         <v>0.009374999999998579</v>
       </c>
       <c r="U249">
-        <v>1.000260605977479</v>
+        <v>0.0002606059774785674</v>
       </c>
       <c r="V249">
-        <v>1.00021874060099</v>
+        <v>0.0002187406009896975</v>
       </c>
       <c r="W249">
-        <v>0.9987709954936501</v>
+        <v>-0.001229004506349884</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19096,7 +19096,7 @@
         <v>1.256102162805245</v>
       </c>
       <c r="K250">
-        <v>55.67576608514054</v>
+        <v>0.05675766085140543</v>
       </c>
       <c r="L250">
         <v>0.02878274377104595</v>
@@ -19126,13 +19126,13 @@
         <v>0.001874999999998295</v>
       </c>
       <c r="U250">
-        <v>1.000246825549187</v>
+        <v>0.0002468255491865357</v>
       </c>
       <c r="V250">
-        <v>1.000191356168503</v>
+        <v>0.0001913561685027432</v>
       </c>
       <c r="W250">
-        <v>0.9991796554552912</v>
+        <v>-0.0008203445447088065</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19167,7 +19167,7 @@
         <v>1.122509609478664</v>
       </c>
       <c r="K251">
-        <v>52.88596124445239</v>
+        <v>0.02885961244452384</v>
       </c>
       <c r="L251">
         <v>0.02604949337057645</v>
@@ -19197,13 +19197,13 @@
         <v>-0.007499999999996732</v>
       </c>
       <c r="U251">
-        <v>1.000205637201141</v>
+        <v>0.0002056372011407515</v>
       </c>
       <c r="V251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W251">
-        <v>0.9991789819376027</v>
+        <v>-0.0008210180623973162</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19238,7 +19238,7 @@
         <v>1.178485844735572</v>
       </c>
       <c r="K252">
-        <v>54.09655736728546</v>
+        <v>0.04096557367285458</v>
       </c>
       <c r="L252">
         <v>0.02314486322457458</v>
@@ -19268,13 +19268,13 @@
         <v>-0.01187499999999986</v>
       </c>
       <c r="U252">
-        <v>1.000246713907811</v>
+        <v>0.0002467139078112801</v>
       </c>
       <c r="V252">
-        <v>0.9998906745381001</v>
+        <v>-0.0001093254618999007</v>
       </c>
       <c r="W252">
-        <v>1.000410846343468</v>
+        <v>0.0004108463434675524</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19309,7 +19309,7 @@
         <v>1.112910537307949</v>
       </c>
       <c r="K253">
-        <v>52.67191949953093</v>
+        <v>0.02671919499530928</v>
       </c>
       <c r="L253">
         <v>0.02008787558479427</v>
@@ -19339,13 +19339,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U253">
-        <v>1.000232950107568</v>
+        <v>0.0002329501075681861</v>
       </c>
       <c r="V253">
-        <v>0.9998359938771045</v>
+        <v>-0.0001640061228954659</v>
       </c>
       <c r="W253">
-        <v>0.9995893223819301</v>
+        <v>-0.000410677618069899</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19380,7 +19380,7 @@
         <v>1.171482848299929</v>
       </c>
       <c r="K254">
-        <v>53.94851952052451</v>
+        <v>0.03948519520524518</v>
       </c>
       <c r="L254">
         <v>0.01721020185845739</v>
@@ -19410,13 +19410,13 @@
         <v>-0.01687499999999886</v>
       </c>
       <c r="U254">
-        <v>1.000232895854454</v>
+        <v>0.0002328958544535187</v>
       </c>
       <c r="V254">
-        <v>0.9998906446497896</v>
+        <v>-0.0001093553502103939</v>
       </c>
       <c r="W254">
-        <v>1.000410846343468</v>
+        <v>0.0004108463434675524</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19451,7 +19451,7 @@
         <v>1.23313791250199</v>
       </c>
       <c r="K255">
-        <v>55.21996226020776</v>
+        <v>0.05219962260207756</v>
       </c>
       <c r="L255">
         <v>0.0147115874246896</v>
@@ -19481,13 +19481,13 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="U255">
-        <v>1.000191751927792</v>
+        <v>0.0001917519277918611</v>
       </c>
       <c r="V255">
-        <v>0.9998359490348334</v>
+        <v>-0.0001640509651665845</v>
       </c>
       <c r="W255">
-        <v>1.00041067761807</v>
+        <v>0.000410677618069677</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19522,7 +19522,7 @@
         <v>1.23313791250199</v>
       </c>
       <c r="K256">
-        <v>55.21996226020776</v>
+        <v>0.05219962260207756</v>
       </c>
       <c r="L256">
         <v>0.01254824415564796</v>
@@ -19552,13 +19552,13 @@
         <v>-0.0224999999999973</v>
       </c>
       <c r="U256">
-        <v>1.000150633344745</v>
+        <v>0.0001506333447449659</v>
       </c>
       <c r="V256">
-        <v>0.9997538831765477</v>
+        <v>-0.0002461168234523248</v>
       </c>
       <c r="W256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19593,7 +19593,7 @@
         <v>1.154282135056867</v>
       </c>
       <c r="K257">
-        <v>53.5808247338224</v>
+        <v>0.03580824733822408</v>
       </c>
       <c r="L257">
         <v>0.01053058109821858</v>
@@ -19623,13 +19623,13 @@
         <v>-0.01999999999999957</v>
       </c>
       <c r="U257">
-        <v>1.000150610657758</v>
+        <v>0.0001506106577577881</v>
       </c>
       <c r="V257">
-        <v>0.9998905878169536</v>
+        <v>-0.0001094121830463868</v>
       </c>
       <c r="W257">
-        <v>0.9995894909688013</v>
+        <v>-0.0004105090311986581</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19664,7 +19664,7 @@
         <v>1.288907922942637</v>
       </c>
       <c r="K258">
-        <v>56.3110429224085</v>
+        <v>0.06311042922408494</v>
       </c>
       <c r="L258">
         <v>0.00899056600224052</v>
@@ -19694,13 +19694,13 @@
         <v>-0.01750000000000185</v>
       </c>
       <c r="U258">
-        <v>1.000150587977604</v>
+        <v>0.000150587977603589</v>
       </c>
       <c r="V258">
-        <v>0.9999452879223087</v>
+        <v>-5.471207769125463E-05</v>
       </c>
       <c r="W258">
-        <v>1.00082135523614</v>
+        <v>0.000821355236139576</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19735,7 +19735,7 @@
         <v>1.359763600777241</v>
       </c>
       <c r="K259">
-        <v>57.62287376283676</v>
+        <v>0.07622873762836757</v>
       </c>
       <c r="L259">
         <v>0.007954795503680324</v>
@@ -19765,13 +19765,13 @@
         <v>-0.01187499999999631</v>
       </c>
       <c r="U259">
-        <v>1.000164253059213</v>
+        <v>0.000164253059213193</v>
       </c>
       <c r="V259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W259">
-        <v>1.000410340582684</v>
+        <v>0.0004103405826836326</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19806,7 +19806,7 @@
         <v>1.434348524813692</v>
       </c>
       <c r="K260">
-        <v>58.92124772575311</v>
+        <v>0.08921247725753112</v>
       </c>
       <c r="L260">
         <v>0.007410997535691717</v>
@@ -19836,13 +19836,13 @@
         <v>-0.007499999999996732</v>
       </c>
       <c r="U260">
-        <v>1.000218968112768</v>
+        <v>0.0002189681127684473</v>
       </c>
       <c r="V260">
-        <v>0.9999726424643668</v>
+        <v>-2.735753563321008E-05</v>
       </c>
       <c r="W260">
-        <v>1.000410172272354</v>
+        <v>0.0004101722723544032</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19877,7 +19877,7 @@
         <v>0.925641069888795</v>
       </c>
       <c r="K261">
-        <v>48.06924220525948</v>
+        <v>-0.01930757794740517</v>
       </c>
       <c r="L261">
         <v>0.006126131195339535</v>
@@ -19907,13 +19907,13 @@
         <v>-0.004999999999999005</v>
       </c>
       <c r="U261">
-        <v>1.000082095066086</v>
+        <v>8.209506608647388E-05</v>
       </c>
       <c r="V261">
-        <v>0.9998358502954694</v>
+        <v>-0.0001641497045306028</v>
       </c>
       <c r="W261">
-        <v>0.997129971299713</v>
+        <v>-0.002870028700286964</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19948,7 +19948,7 @@
         <v>0.762893141982827</v>
       </c>
       <c r="K262">
-        <v>43.27506437087601</v>
+        <v>-0.0672493562912399</v>
       </c>
       <c r="L262">
         <v>0.003853969672217266</v>
@@ -19978,13 +19978,13 @@
         <v>-0.007500000000000284</v>
       </c>
       <c r="U262">
-        <v>1.00001368138784</v>
+        <v>1.368138783974793E-05</v>
       </c>
       <c r="V262">
-        <v>0.9996716466918406</v>
+        <v>-0.0003283533081593903</v>
       </c>
       <c r="W262">
-        <v>0.9983552631578948</v>
+        <v>-0.001644736842105199</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20019,7 +20019,7 @@
         <v>0.9479687764754202</v>
       </c>
       <c r="K263">
-        <v>48.66447490963579</v>
+        <v>-0.01335525090364209</v>
       </c>
       <c r="L263">
         <v>0.001712638890841271</v>
@@ -20049,13 +20049,13 @@
         <v>-0.007500000000000284</v>
       </c>
       <c r="U263">
-        <v>1.000068406003311</v>
+        <v>6.840600331092794E-05</v>
       </c>
       <c r="V263">
-        <v>0.9997536541303991</v>
+        <v>-0.000246345869600928</v>
       </c>
       <c r="W263">
-        <v>1.00164744645799</v>
+        <v>0.001647446457990087</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20090,7 +20090,7 @@
         <v>0.9479687764754203</v>
       </c>
       <c r="K264">
-        <v>48.66447490963579</v>
+        <v>-0.01335525090364209</v>
       </c>
       <c r="L264">
         <v>-0.000219262508607444</v>
@@ -20120,13 +20120,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U264">
-        <v>1.0000273605297</v>
+        <v>2.736052969987135E-05</v>
       </c>
       <c r="V264">
-        <v>0.9998357289527721</v>
+        <v>-0.0001642710472279374</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20161,7 +20161,7 @@
         <v>1.153038731591867</v>
       </c>
       <c r="K265">
-        <v>53.55401715134768</v>
+        <v>0.03554017151347677</v>
       </c>
       <c r="L265">
         <v>-0.001302412103231709</v>
@@ -20191,13 +20191,13 @@
         <v>-0.004374999999999574</v>
       </c>
       <c r="U265">
-        <v>1.000095759233926</v>
+        <v>9.575923392635133E-05</v>
       </c>
       <c r="V265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W265">
-        <v>1.001644736842105</v>
+        <v>0.00164473684210531</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20232,7 +20232,7 @@
         <v>1.040712962863678</v>
       </c>
       <c r="K266">
-        <v>50.99751811265379</v>
+        <v>0.009975181126537946</v>
       </c>
       <c r="L266">
         <v>-0.002096662957959303</v>
@@ -20262,13 +20262,13 @@
         <v>-0.0068749999999973</v>
       </c>
       <c r="U266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W266">
-        <v>0.9991789819376027</v>
+        <v>-0.0008210180623973162</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20303,7 +20303,7 @@
         <v>1.091985156959714</v>
       </c>
       <c r="K267">
-        <v>52.19851361405921</v>
+        <v>0.02198513614059205</v>
       </c>
       <c r="L267">
         <v>-0.002508150820367741</v>
@@ -20333,13 +20333,13 @@
         <v>-0.01125000000000043</v>
       </c>
       <c r="U267">
-        <v>0.9999452856771579</v>
+        <v>-5.471432284209765E-05</v>
       </c>
       <c r="V267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W267">
-        <v>1.000410846343468</v>
+        <v>0.0004108463434675524</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20374,7 +20374,7 @@
         <v>1.036067819748351</v>
       </c>
       <c r="K268">
-        <v>50.88572245478565</v>
+        <v>0.008857224547856535</v>
       </c>
       <c r="L268">
         <v>-0.00280191418698479</v>
@@ -20404,13 +20404,13 @@
         <v>-0.01687499999999886</v>
       </c>
       <c r="U268">
-        <v>0.9999179240250059</v>
+        <v>-8.207597499410024E-05</v>
       </c>
       <c r="V268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W268">
-        <v>0.9995893223819301</v>
+        <v>-0.000410677618069899</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20445,7 +20445,7 @@
         <v>1.036067819748351</v>
       </c>
       <c r="K269">
-        <v>50.88572245478565</v>
+        <v>0.008857224547856535</v>
       </c>
       <c r="L269">
         <v>-0.002995442024515765</v>
@@ -20475,13 +20475,13 @@
         <v>-0.01437500000000114</v>
       </c>
       <c r="U269">
-        <v>0.9999315977399893</v>
+        <v>-6.84022600107026E-05</v>
       </c>
       <c r="V269">
-        <v>0.9999726169938935</v>
+        <v>-2.738300610649613E-05</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20516,7 +20516,7 @@
         <v>1.092806931982024</v>
       </c>
       <c r="K270">
-        <v>52.21728365296767</v>
+        <v>0.02217283652967672</v>
       </c>
       <c r="L270">
         <v>-0.002955482588913371</v>
@@ -20546,13 +20546,13 @@
         <v>-0.005624999999998437</v>
       </c>
       <c r="U270">
-        <v>0.9999042302851203</v>
+        <v>-9.576971487967878E-05</v>
       </c>
       <c r="V270">
-        <v>0.999972616244044</v>
+        <v>-2.738375595601195E-05</v>
       </c>
       <c r="W270">
-        <v>1.000410846343468</v>
+        <v>0.0004108463434675524</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20587,7 +20587,7 @@
         <v>1.152532313280604</v>
       </c>
       <c r="K271">
-        <v>53.54308997684998</v>
+        <v>0.03543089976849989</v>
       </c>
       <c r="L271">
         <v>-0.002616310506665323</v>
@@ -20617,13 +20617,13 @@
         <v>-0.0006249999999994316</v>
       </c>
       <c r="U271">
-        <v>0.9998768557159472</v>
+        <v>-0.0001231442840528008</v>
       </c>
       <c r="V271">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W271">
-        <v>1.00041067761807</v>
+        <v>0.000410677618069677</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20658,7 +20658,7 @@
         <v>1.152532313280605</v>
       </c>
       <c r="K272">
-        <v>53.54308997685</v>
+        <v>0.0354308997685</v>
       </c>
       <c r="L272">
         <v>-0.002107929411356732</v>
@@ -20688,13 +20688,13 @@
         <v>0.004374999999999574</v>
       </c>
       <c r="U272">
-        <v>0.9999589468498549</v>
+        <v>-4.105315014513167E-05</v>
       </c>
       <c r="V272">
-        <v>1.000027384505846</v>
+        <v>2.738450584649499E-05</v>
       </c>
       <c r="W272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20729,7 +20729,7 @@
         <v>0.9113010538150623</v>
       </c>
       <c r="K273">
-        <v>47.67961865536856</v>
+        <v>-0.02320381344631445</v>
       </c>
       <c r="L273">
         <v>-0.002119897548051844</v>
@@ -20759,13 +20759,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U273">
-        <v>0.9999042053836573</v>
+        <v>-9.579461634268149E-05</v>
       </c>
       <c r="V273">
-        <v>0.9998630812202202</v>
+        <v>-0.0001369187797798377</v>
       </c>
       <c r="W273">
-        <v>0.9983579638752053</v>
+        <v>-0.001642036124794743</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20800,7 +20800,7 @@
         <v>1.021461800987473</v>
       </c>
       <c r="K274">
-        <v>50.53084854180744</v>
+        <v>0.005308485418074382</v>
       </c>
       <c r="L274">
         <v>-0.002139571936785644</v>
@@ -20830,13 +20830,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U274">
-        <v>0.9999452549749542</v>
+        <v>-5.474502504576595E-05</v>
       </c>
       <c r="V274">
-        <v>0.9998904499767208</v>
+        <v>-0.0001095500232791702</v>
       </c>
       <c r="W274">
-        <v>1.000822368421053</v>
+        <v>0.000822368421052655</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20871,7 +20871,7 @@
         <v>1.311358504072774</v>
       </c>
       <c r="K275">
-        <v>56.73540049118599</v>
+        <v>0.06735400491185994</v>
       </c>
       <c r="L275">
         <v>-0.001407147562466473</v>
@@ -20901,13 +20901,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U275">
-        <v>0.9999863129944431</v>
+        <v>-1.368700555692826E-05</v>
       </c>
       <c r="V275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W275">
-        <v>1.002054231717338</v>
+        <v>0.002054231717337762</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20942,7 +20942,7 @@
         <v>1.372389388932824</v>
       </c>
       <c r="K276">
-        <v>57.84840361093371</v>
+        <v>0.07848403610933707</v>
       </c>
       <c r="L276">
         <v>-0.0001110433516631846</v>
@@ -20972,13 +20972,13 @@
         <v>0.01437499999999758</v>
       </c>
       <c r="U276">
-        <v>1.000027374385787</v>
+        <v>2.737438578725992E-05</v>
       </c>
       <c r="V276">
-        <v>1.000219124051604</v>
+        <v>0.0002191240516036252</v>
       </c>
       <c r="W276">
-        <v>1.000410004100041</v>
+        <v>0.0004100041000409949</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21013,7 +21013,7 @@
         <v>1.436632425627637</v>
       </c>
       <c r="K277">
-        <v>58.95975160297654</v>
+        <v>0.0895975160297654</v>
       </c>
       <c r="L277">
         <v>0.001593910899041419</v>
@@ -21043,13 +21043,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U277">
-        <v>1.000013686818225</v>
+        <v>1.36868182254446E-05</v>
       </c>
       <c r="V277">
-        <v>1.000355998576006</v>
+        <v>0.0003559985760057671</v>
       </c>
       <c r="W277">
-        <v>1.000409836065574</v>
+        <v>0.0004098360655737654</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21084,7 +21084,7 @@
         <v>1.194334503516267</v>
       </c>
       <c r="K278">
-        <v>54.42809660981175</v>
+        <v>0.04428096609811749</v>
       </c>
       <c r="L278">
         <v>0.002983405121354435</v>
@@ -21114,13 +21114,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U278">
-        <v>0.9999589401073031</v>
+        <v>-4.105989269687083E-05</v>
       </c>
       <c r="V278">
-        <v>1.000164248562825</v>
+        <v>0.0001642485628250423</v>
       </c>
       <c r="W278">
-        <v>0.9987709954936501</v>
+        <v>-0.001229004506349884</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21155,7 +21155,7 @@
         <v>1.014267925313109</v>
       </c>
       <c r="K279">
-        <v>50.35417148666781</v>
+        <v>0.003541714866678092</v>
       </c>
       <c r="L279">
         <v>0.003633690427155641</v>
@@ -21185,13 +21185,13 @@
         <v>0.01187500000000341</v>
       </c>
       <c r="U279">
-        <v>0.9999589384213191</v>
+        <v>-4.106157868088989E-05</v>
       </c>
       <c r="V279">
-        <v>1.000082110794833</v>
+        <v>8.211079483255723E-05</v>
       </c>
       <c r="W279">
-        <v>0.9987694831829369</v>
+        <v>-0.001230516817063099</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21226,7 +21226,7 @@
         <v>0.9633081496723443</v>
       </c>
       <c r="K280">
-        <v>49.06556058625389</v>
+        <v>-0.009344394137461076</v>
       </c>
       <c r="L280">
         <v>0.003631948198538442</v>
@@ -21256,13 +21256,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U280">
-        <v>0.9999726244901312</v>
+        <v>-2.737550986875448E-05</v>
       </c>
       <c r="V280">
-        <v>0.9999452639645311</v>
+        <v>-5.473603546890526E-05</v>
       </c>
       <c r="W280">
-        <v>0.9995893223819301</v>
+        <v>-0.000410677618069899</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21297,7 +21297,7 @@
         <v>0.8711614366053175</v>
       </c>
       <c r="K281">
-        <v>46.55725687601753</v>
+        <v>-0.03442743123982472</v>
       </c>
       <c r="L281">
         <v>0.002923063859915089</v>
@@ -21327,13 +21327,13 @@
         <v>0.01062500000000099</v>
       </c>
       <c r="U281">
-        <v>0.9999726237406921</v>
+        <v>-2.737625930793186E-05</v>
       </c>
       <c r="V281">
-        <v>0.9999452609683336</v>
+        <v>-5.473903166641758E-05</v>
       </c>
       <c r="W281">
-        <v>0.9991783073130649</v>
+        <v>-0.0008216926869351049</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21368,7 +21368,7 @@
         <v>0.8711614366053175</v>
       </c>
       <c r="K282">
-        <v>46.55725687601753</v>
+        <v>-0.03442743123982472</v>
       </c>
       <c r="L282">
         <v>0.001820373116174759</v>
@@ -21398,13 +21398,13 @@
         <v>0.009374999999998579</v>
       </c>
       <c r="U282">
-        <v>0.9999589344868179</v>
+        <v>-4.10655131820592E-05</v>
       </c>
       <c r="V282">
-        <v>0.9999178869577117</v>
+        <v>-8.211304228833427E-05</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21439,7 +21439,7 @@
         <v>0.8711614366053174</v>
       </c>
       <c r="K283">
-        <v>46.55725687601753</v>
+        <v>-0.03442743123982472</v>
       </c>
       <c r="L283">
         <v>0.0005427720486929058</v>
@@ -21469,13 +21469,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U283">
-        <v>0.999972621866915</v>
+        <v>-2.737813308495429E-05</v>
       </c>
       <c r="V283">
-        <v>0.9999452534764043</v>
+        <v>-5.474652359571675E-05</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21510,7 +21510,7 @@
         <v>0.8711614366053174</v>
       </c>
       <c r="K284">
-        <v>46.55725687601753</v>
+        <v>-0.03442743123982472</v>
       </c>
       <c r="L284">
         <v>-0.0007613664592666681</v>
@@ -21540,13 +21540,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U284">
-        <v>0.9999589316759983</v>
+        <v>-4.106832400174731E-05</v>
       </c>
       <c r="V284">
-        <v>0.9999452504790581</v>
+        <v>-5.47495209418658E-05</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21581,7 +21581,7 @@
         <v>0.8711614366053173</v>
       </c>
       <c r="K285">
-        <v>46.55725687601752</v>
+        <v>-0.03442743123982483</v>
       </c>
       <c r="L285">
         <v>-0.001995740628344937</v>
@@ -21611,13 +21611,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U285">
-        <v>0.9999452399857625</v>
+        <v>-5.476001423754262E-05</v>
       </c>
       <c r="V285">
-        <v>0.9999178712220764</v>
+        <v>-8.212877792357354E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21652,7 +21652,7 @@
         <v>0.698468872007504</v>
       </c>
       <c r="K286">
-        <v>41.12344262052618</v>
+        <v>-0.08876557379473821</v>
       </c>
       <c r="L286">
         <v>-0.003700077202497105</v>
@@ -21682,13 +21682,13 @@
         <v>-0.02437499999999915</v>
       </c>
       <c r="U286">
-        <v>0.9998904739738781</v>
+        <v>-0.0001095260261219089</v>
       </c>
       <c r="V286">
-        <v>0.9997809719370294</v>
+        <v>-0.0002190280629705832</v>
       </c>
       <c r="W286">
-        <v>0.9983552631578948</v>
+        <v>-0.001644736842105199</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21723,7 +21723,7 @@
         <v>1.011467656113618</v>
       </c>
       <c r="K287">
-        <v>50.28505693538655</v>
+        <v>0.002850569353865517</v>
       </c>
       <c r="L287">
         <v>-0.004669993827845264</v>
@@ -21753,13 +21753,13 @@
         <v>-0.02437499999999915</v>
       </c>
       <c r="U287">
-        <v>0.9999863077470766</v>
+        <v>-1.369225292335852E-05</v>
       </c>
       <c r="V287">
-        <v>0.9999452309883066</v>
+        <v>-5.476901169343407E-05</v>
       </c>
       <c r="W287">
-        <v>1.002471169686985</v>
+        <v>0.00247116968698502</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21794,7 +21794,7 @@
         <v>0.9113765185143686</v>
       </c>
       <c r="K288">
-        <v>47.68168436131792</v>
+        <v>-0.02318315638682078</v>
       </c>
       <c r="L288">
         <v>-0.005415259290571866</v>
@@ -21824,13 +21824,13 @@
         <v>-0.0243750000000027</v>
       </c>
       <c r="U288">
-        <v>0.9999315377979816</v>
+        <v>-6.846220201839337E-05</v>
       </c>
       <c r="V288">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W288">
-        <v>0.9991783073130649</v>
+        <v>-0.0008216926869351049</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21865,7 +21865,7 @@
         <v>0.8662597327671628</v>
       </c>
       <c r="K289">
-        <v>46.41689029440355</v>
+        <v>-0.03583109705596449</v>
       </c>
       <c r="L289">
         <v>-0.006106804170216217</v>
@@ -21895,13 +21895,13 @@
         <v>-0.02500000000000213</v>
       </c>
       <c r="U289">
-        <v>0.9999041463548228</v>
+        <v>-9.585364517716854E-05</v>
       </c>
       <c r="V289">
-        <v>0.9999178419827467</v>
+        <v>-8.215801725330873E-05</v>
       </c>
       <c r="W289">
-        <v>0.9995888157894737</v>
+        <v>-0.0004111842105263275</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21936,7 +21936,7 @@
         <v>1.074697639398871</v>
       </c>
       <c r="K290">
-        <v>51.80020543669472</v>
+        <v>0.01800205436694713</v>
       </c>
       <c r="L290">
         <v>-0.006101340697482665</v>
@@ -21966,13 +21966,13 @@
         <v>-0.02187499999999787</v>
       </c>
       <c r="U290">
-        <v>0.9999452212377262</v>
+        <v>-5.47787622737772E-05</v>
       </c>
       <c r="V290">
-        <v>0.9998904469763364</v>
+        <v>-0.0001095530236635556</v>
       </c>
       <c r="W290">
-        <v>1.001645413410119</v>
+        <v>0.001645413410119367</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22007,7 +22007,7 @@
         <v>0.9684541851744038</v>
       </c>
       <c r="K291">
-        <v>49.19871605183432</v>
+        <v>-0.008012839481656819</v>
       </c>
       <c r="L291">
         <v>-0.005950794159424439</v>
@@ -22037,13 +22037,13 @@
         <v>-0.01687499999999531</v>
       </c>
       <c r="U291">
-        <v>1.000013695440788</v>
+        <v>1.369544078766438E-05</v>
       </c>
       <c r="V291">
-        <v>0.999808261203024</v>
+        <v>-0.0001917387969759821</v>
       </c>
       <c r="W291">
-        <v>0.9991786447638602</v>
+        <v>-0.000821355236139798</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22078,7 +22078,7 @@
         <v>1.072516212365305</v>
       </c>
       <c r="K292">
-        <v>51.74947274073539</v>
+        <v>0.01749472740735392</v>
       </c>
       <c r="L292">
         <v>-0.005401120636137523</v>
@@ -22108,13 +22108,13 @@
         <v>-0.01000000000000156</v>
       </c>
       <c r="U292">
-        <v>1.000095866772577</v>
+        <v>9.586677257655829E-05</v>
       </c>
       <c r="V292">
-        <v>0.9998356209418919</v>
+        <v>-0.0001643790581080662</v>
       </c>
       <c r="W292">
-        <v>1.000822030415125</v>
+        <v>0.0008220304151254076</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22149,7 +22149,7 @@
         <v>1.072516212365305</v>
       </c>
       <c r="K293">
-        <v>51.74947274073539</v>
+        <v>0.01749472740735392</v>
       </c>
       <c r="L293">
         <v>-0.004624939947340147</v>
@@ -22179,13 +22179,13 @@
         <v>-0.002500000000001279</v>
       </c>
       <c r="U293">
-        <v>1.000041081821294</v>
+        <v>4.108182129414217E-05</v>
       </c>
       <c r="V293">
-        <v>0.9999177969584875</v>
+        <v>-8.220304151251856E-05</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22220,7 +22220,7 @@
         <v>1.072516212365305</v>
       </c>
       <c r="K294">
-        <v>51.74947274073539</v>
+        <v>0.01749472740735392</v>
       </c>
       <c r="L294">
         <v>-0.00374411095550809</v>
@@ -22250,13 +22250,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U294">
-        <v>1.000041080133647</v>
+        <v>4.108013364745311E-05</v>
       </c>
       <c r="V294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22291,7 +22291,7 @@
         <v>0.9564314266774323</v>
       </c>
       <c r="K295">
-        <v>48.88652950651689</v>
+        <v>-0.01113470493483104</v>
       </c>
       <c r="L295">
         <v>-0.003141542944024084</v>
@@ -22321,13 +22321,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U295">
-        <v>0.9999589215538607</v>
+        <v>-4.107844613931988E-05</v>
       </c>
       <c r="V295">
-        <v>0.9999725967335306</v>
+        <v>-2.740326646943902E-05</v>
       </c>
       <c r="W295">
-        <v>0.9991786447638602</v>
+        <v>-0.000821355236139798</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22362,7 +22362,7 @@
         <v>0.7127985491592486</v>
       </c>
       <c r="K296">
-        <v>41.61601780367783</v>
+        <v>-0.08383982196322165</v>
       </c>
       <c r="L296">
         <v>-0.003632124971903976</v>
@@ -22392,13 +22392,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U296">
-        <v>0.9999041463548227</v>
+        <v>-9.585364517727957E-05</v>
       </c>
       <c r="V296">
-        <v>0.9998629799128553</v>
+        <v>-0.0001370200871446681</v>
       </c>
       <c r="W296">
-        <v>0.997533908754624</v>
+        <v>-0.002466091245376001</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22433,7 +22433,7 @@
         <v>0.7574882246537078</v>
       </c>
       <c r="K297">
-        <v>43.10061450357438</v>
+        <v>-0.06899385496425625</v>
       </c>
       <c r="L297">
         <v>-0.004590990431231336</v>
@@ -22463,13 +22463,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U297">
-        <v>0.9999041371660209</v>
+        <v>-9.586283397911011E-05</v>
       </c>
       <c r="V297">
-        <v>0.9998903689086224</v>
+        <v>-0.0001096310913776266</v>
       </c>
       <c r="W297">
-        <v>1.00041203131438</v>
+        <v>0.0004120313143800569</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22504,7 +22504,7 @@
         <v>0.7234555974086121</v>
       </c>
       <c r="K298">
-        <v>41.97703720922082</v>
+        <v>-0.08022962790779181</v>
       </c>
       <c r="L298">
         <v>-0.00590545612164787</v>
@@ -22534,13 +22534,13 @@
         <v>-0.001875000000001847</v>
       </c>
       <c r="U298">
-        <v>0.9999041279754568</v>
+        <v>-9.587202454319765E-05</v>
       </c>
       <c r="V298">
-        <v>0.9998629461104107</v>
+        <v>-0.0001370538895892892</v>
       </c>
       <c r="W298">
-        <v>0.9995881383855024</v>
+        <v>-0.0004118616144975773</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22575,7 +22575,7 @@
         <v>0.8180414061031384</v>
       </c>
       <c r="K299">
-        <v>44.9957522065771</v>
+        <v>-0.050042477934229</v>
       </c>
       <c r="L299">
         <v>-0.007031008541402192</v>
@@ -22605,13 +22605,13 @@
         <v>-0.004999999999999005</v>
       </c>
       <c r="U299">
-        <v>0.9999315134165216</v>
+        <v>-6.848658347835546E-05</v>
       </c>
       <c r="V299">
-        <v>0.9999177563944402</v>
+        <v>-8.224360555975085E-05</v>
       </c>
       <c r="W299">
-        <v>1.00082406262876</v>
+        <v>0.0008240626287596697</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22646,7 +22646,7 @@
         <v>0.9176054152552714</v>
       </c>
       <c r="K300">
-        <v>47.85162828365917</v>
+        <v>-0.02148371716340824</v>
       </c>
       <c r="L300">
         <v>-0.007645626159007465</v>
@@ -22676,13 +22676,13 @@
         <v>-0.009375000000002132</v>
       </c>
       <c r="U300">
-        <v>0.9999452069806307</v>
+        <v>-5.479301936928138E-05</v>
       </c>
       <c r="V300">
-        <v>0.9999725832099577</v>
+        <v>-2.741679004225617E-05</v>
       </c>
       <c r="W300">
-        <v>1.000823384108687</v>
+        <v>0.0008233841086866533</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22717,7 +22717,7 @@
         <v>0.9176054152552714</v>
       </c>
       <c r="K301">
-        <v>47.85162828365917</v>
+        <v>-0.02148371716340824</v>
       </c>
       <c r="L301">
         <v>-0.007883704169691476</v>
@@ -22747,13 +22747,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U301">
-        <v>0.9999315049727389</v>
+        <v>-6.849502726113954E-05</v>
       </c>
       <c r="V301">
-        <v>1.00008225262523</v>
+        <v>8.225262522976173E-05</v>
       </c>
       <c r="W301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22788,7 +22788,7 @@
         <v>0.6894308889324878</v>
       </c>
       <c r="K302">
-        <v>40.80846949401542</v>
+        <v>-0.0919153050598458</v>
       </c>
       <c r="L302">
         <v>-0.008747698935304259</v>
@@ -22818,13 +22818,13 @@
         <v>-0.02437499999999915</v>
       </c>
       <c r="U302">
-        <v>0.9998493006178675</v>
+        <v>-0.0001506993821325242</v>
       </c>
       <c r="V302">
-        <v>0.9997532624191249</v>
+        <v>-0.0002467375808751227</v>
       </c>
       <c r="W302">
-        <v>0.9975318798848211</v>
+        <v>-0.00246812011517894</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22859,7 +22859,7 @@
         <v>0.6894308889324877</v>
       </c>
       <c r="K303">
-        <v>40.80846949401542</v>
+        <v>-0.0919153050598458</v>
       </c>
       <c r="L303">
         <v>-0.009904231290513196</v>
@@ -22889,13 +22889,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U303">
-        <v>0.9999040859389987</v>
+        <v>-9.591406100128985E-05</v>
       </c>
       <c r="V303">
-        <v>0.9998080456302958</v>
+        <v>-0.0001919543697042059</v>
       </c>
       <c r="W303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22930,7 +22930,7 @@
         <v>0.6894308889324876</v>
       </c>
       <c r="K304">
-        <v>40.80846949401541</v>
+        <v>-0.09191530505984585</v>
       </c>
       <c r="L304">
         <v>-0.0111284808282181</v>
@@ -22960,13 +22960,13 @@
         <v>-0.02687500000000043</v>
       </c>
       <c r="U304">
-        <v>0.9998766700924975</v>
+        <v>-0.0001233299075025229</v>
       </c>
       <c r="V304">
-        <v>0.9998354360943499</v>
+        <v>-0.0001645639056501169</v>
       </c>
       <c r="W304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23001,7 +23001,7 @@
         <v>0.7377689385864439</v>
       </c>
       <c r="K305">
-        <v>42.45495026436417</v>
+        <v>-0.07545049735635828</v>
       </c>
       <c r="L305">
         <v>-0.01212576846368272</v>
@@ -23031,13 +23031,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U305">
-        <v>0.9998218348271797</v>
+        <v>-0.0001781651728203215</v>
       </c>
       <c r="V305">
-        <v>0.9997531135129205</v>
+        <v>-0.0002468864870794896</v>
       </c>
       <c r="W305">
-        <v>1.000412371134021</v>
+        <v>0.0004123711340207059</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23072,7 +23072,7 @@
         <v>0.7377689385864439</v>
       </c>
       <c r="K306">
-        <v>42.45495026436417</v>
+        <v>-0.07545049735635828</v>
       </c>
       <c r="L306">
         <v>-0.01287801573112543</v>
@@ -23102,13 +23102,13 @@
         <v>-0.02187500000000142</v>
       </c>
       <c r="U306">
-        <v>0.9998080956232095</v>
+        <v>-0.0001919043767905082</v>
       </c>
       <c r="V306">
-        <v>0.9998079297571683</v>
+        <v>-0.0001920702428317433</v>
       </c>
       <c r="W306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23143,7 +23143,7 @@
         <v>0.6663855025510144</v>
       </c>
       <c r="K307">
-        <v>39.98987638399799</v>
+        <v>-0.10010123616002</v>
       </c>
       <c r="L307">
         <v>-0.01368658795707097</v>
@@ -23173,13 +23173,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U307">
-        <v>0.9997669285293191</v>
+        <v>-0.0002330714706808568</v>
       </c>
       <c r="V307">
-        <v>0.9996981173500192</v>
+        <v>-0.000301882649980767</v>
       </c>
       <c r="W307">
-        <v>0.9991755976916734</v>
+        <v>-0.0008244023083265883</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23214,7 +23214,7 @@
         <v>0.7173096164942164</v>
       </c>
       <c r="K308">
-        <v>41.76938215477769</v>
+        <v>-0.0823061784522231</v>
       </c>
       <c r="L308">
         <v>-0.01427841376934934</v>
@@ -23244,13 +23244,13 @@
         <v>-0.02374999999999616</v>
       </c>
       <c r="U308">
-        <v>0.999821727325087</v>
+        <v>-0.0001782726749129937</v>
       </c>
       <c r="V308">
-        <v>0.9997254783539682</v>
+        <v>-0.0002745216460318112</v>
       </c>
       <c r="W308">
-        <v>1.000412541254125</v>
+        <v>0.0004125412541253759</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23285,7 +23285,7 @@
         <v>0.9317269383602924</v>
       </c>
       <c r="K309">
-        <v>48.23284905635628</v>
+        <v>-0.01767150943643719</v>
       </c>
       <c r="L309">
         <v>-0.01405025231037064</v>
@@ -23315,13 +23315,13 @@
         <v>-0.0224999999999973</v>
       </c>
       <c r="U309">
-        <v>0.9999177056330493</v>
+        <v>-8.229436695073034E-05</v>
       </c>
       <c r="V309">
-        <v>0.999835241782684</v>
+        <v>-0.0001647582173159856</v>
       </c>
       <c r="W309">
-        <v>1.001649484536082</v>
+        <v>0.00164948453608238</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23356,7 +23356,7 @@
         <v>0.8819617099806994</v>
       </c>
       <c r="K310">
-        <v>46.86395612107031</v>
+        <v>-0.0313604387892969</v>
       </c>
       <c r="L310">
         <v>-0.01343830435934114</v>
@@ -23386,13 +23386,13 @@
         <v>-0.01437499999999758</v>
       </c>
       <c r="U310">
-        <v>0.9999176988601293</v>
+        <v>-8.230113987073295E-05</v>
       </c>
       <c r="V310">
-        <v>0.9998626788607836</v>
+        <v>-0.0001373211392163842</v>
       </c>
       <c r="W310">
-        <v>0.9995883079456568</v>
+        <v>-0.0004116920543432157</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23427,7 +23427,7 @@
         <v>0.8350147074177856</v>
       </c>
       <c r="K311">
-        <v>45.50452397151683</v>
+        <v>-0.04495476028483175</v>
       </c>
       <c r="L311">
         <v>-0.01273363091010571</v>
@@ -23457,13 +23457,13 @@
         <v>-0.008124999999996163</v>
       </c>
       <c r="U311">
-        <v>0.9999314100717451</v>
+        <v>-6.858992825486965E-05</v>
       </c>
       <c r="V311">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W311">
-        <v>0.9995881383855024</v>
+        <v>-0.0004118616144975773</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23498,7 +23498,7 @@
         <v>0.8910465020812158</v>
       </c>
       <c r="K312">
-        <v>47.11922742780587</v>
+        <v>-0.02880772572194124</v>
       </c>
       <c r="L312">
         <v>-0.011821465766861</v>
@@ -23528,13 +23528,13 @@
         <v>-0.004999999999999005</v>
       </c>
       <c r="U312">
-        <v>0.9999451242934753</v>
+        <v>-5.487570652473739E-05</v>
       </c>
       <c r="V312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W312">
-        <v>1.00041203131438</v>
+        <v>0.0004120313143800569</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23569,7 +23569,7 @@
         <v>1.009008175056837</v>
       </c>
       <c r="K313">
-        <v>50.22419458438944</v>
+        <v>0.002241945843894477</v>
       </c>
       <c r="L313">
         <v>-0.01049888971931575</v>
@@ -23599,13 +23599,13 @@
         <v>-0.001250000000002416</v>
       </c>
       <c r="U313">
-        <v>0.9999725606409835</v>
+        <v>-2.743935901650119E-05</v>
       </c>
       <c r="V313">
-        <v>1.000082403999341</v>
+        <v>8.240399934078546E-05</v>
       </c>
       <c r="W313">
-        <v>1.000823723228995</v>
+        <v>0.0008237232289949326</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23640,7 +23640,7 @@
         <v>1.009008175056837</v>
       </c>
       <c r="K314">
-        <v>50.22419458438944</v>
+        <v>0.002241945843894477</v>
       </c>
       <c r="L314">
         <v>-0.008973559687786445</v>
@@ -23670,13 +23670,13 @@
         <v>0.001875000000001847</v>
       </c>
       <c r="U314">
-        <v>0.9999725598880443</v>
+        <v>-2.744011195565665E-05</v>
       </c>
       <c r="V314">
-        <v>1.000027465736494</v>
+        <v>2.746573649381467E-05</v>
       </c>
       <c r="W314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/NEL 15.12.2020.xlsx
+++ b/data_clean/NEL 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1379,13 +1382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W314"/>
+  <dimension ref="A1:X314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,10 +1458,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>24.04</v>
@@ -1515,7 +1521,7 @@
         <v>24.04</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>24.04</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1526,10 +1532,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>23.97</v>
@@ -1586,7 +1595,7 @@
         <v>24.005</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>24.005</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1597,10 +1606,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>24.14</v>
@@ -1657,21 +1669,24 @@
         <v>24.05</v>
       </c>
       <c r="T4">
+        <v>24.05</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.001874609456363308</v>
       </c>
       <c r="V4">
         <v>0.001874609456363308</v>
       </c>
       <c r="W4">
+        <v>0.001874609456363308</v>
+      </c>
+      <c r="X4">
         <v>0.007092198581560405</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>24.1</v>
@@ -1728,21 +1743,24 @@
         <v>24.0625</v>
       </c>
       <c r="T5">
+        <v>24.07</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0005197505197505059</v>
       </c>
       <c r="V5">
         <v>0.0005197505197505059</v>
       </c>
       <c r="W5">
+        <v>0.0005197505197505059</v>
+      </c>
+      <c r="X5">
         <v>-0.001657000828500399</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>24.1</v>
@@ -1799,21 +1817,24 @@
         <v>24.07</v>
       </c>
       <c r="T6">
+        <v>24.11333333333333</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0003116883116882629</v>
       </c>
       <c r="V6">
         <v>0.0003116883116882629</v>
       </c>
       <c r="W6">
+        <v>0.0003116883116882629</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>24.1</v>
@@ -1870,21 +1891,24 @@
         <v>24.075</v>
       </c>
       <c r="T7">
+        <v>24.1</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.0002077274615703839</v>
       </c>
       <c r="V7">
         <v>0.0002077274615703839</v>
       </c>
       <c r="W7">
+        <v>0.0002077274615703839</v>
+      </c>
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>24.06</v>
@@ -1941,21 +1965,24 @@
         <v>24.07285714285714</v>
       </c>
       <c r="T8">
+        <v>24.08666666666667</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-8.900756564311774E-05</v>
       </c>
       <c r="V8">
         <v>-8.900756564311774E-05</v>
       </c>
       <c r="W8">
+        <v>-8.900756564311774E-05</v>
+      </c>
+      <c r="X8">
         <v>-0.001659751037344503</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>24.1</v>
@@ -2012,21 +2039,24 @@
         <v>24.07625</v>
       </c>
       <c r="T9">
+        <v>24.08666666666667</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0001409411904338409</v>
       </c>
       <c r="V9">
         <v>0.0001409411904338409</v>
       </c>
       <c r="W9">
+        <v>0.0001409411904338409</v>
+      </c>
+      <c r="X9">
         <v>0.001662510390689986</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>24.1</v>
@@ -2083,21 +2113,24 @@
         <v>24.07888888888889</v>
       </c>
       <c r="T10">
+        <v>24.08666666666667</v>
+      </c>
+      <c r="U10">
         <v>0.004861111111111427</v>
-      </c>
-      <c r="U10">
-        <v>0.0001096054779663458</v>
       </c>
       <c r="V10">
         <v>0.0001096054779663458</v>
       </c>
       <c r="W10">
+        <v>0.0001096054779663458</v>
+      </c>
+      <c r="X10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>24.05</v>
@@ -2154,21 +2187,24 @@
         <v>24.076</v>
       </c>
       <c r="T11">
+        <v>24.08333333333333</v>
+      </c>
+      <c r="U11">
         <v>0.01774999999999949</v>
-      </c>
-      <c r="U11">
-        <v>-0.0001199760047990717</v>
       </c>
       <c r="V11">
         <v>-0.0001199760047990717</v>
       </c>
       <c r="W11">
+        <v>-0.0001199760047990717</v>
+      </c>
+      <c r="X11">
         <v>-0.002074688796680491</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>24.1</v>
@@ -2225,21 +2261,24 @@
         <v>24.07818181818182</v>
       </c>
       <c r="T12">
+        <v>24.08333333333333</v>
+      </c>
+      <c r="U12">
         <v>0.01056818181818286</v>
-      </c>
-      <c r="U12">
-        <v>9.062212085964028E-05</v>
       </c>
       <c r="V12">
         <v>9.062212085964028E-05</v>
       </c>
       <c r="W12">
+        <v>9.062212085964028E-05</v>
+      </c>
+      <c r="X12">
         <v>0.002079002079002024</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>24.03</v>
@@ -2296,21 +2335,24 @@
         <v>24.07416666666667</v>
       </c>
       <c r="T13">
+        <v>24.06</v>
+      </c>
+      <c r="U13">
         <v>0.005833333333335133</v>
-      </c>
-      <c r="U13">
-        <v>-0.0001667547635229027</v>
       </c>
       <c r="V13">
         <v>-0.0001667547635229027</v>
       </c>
       <c r="W13">
+        <v>-0.0001667547635229027</v>
+      </c>
+      <c r="X13">
         <v>-0.002904564315352687</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>24.08</v>
@@ -2367,21 +2409,24 @@
         <v>24.07461538461539</v>
       </c>
       <c r="T14">
+        <v>24.07</v>
+      </c>
+      <c r="U14">
         <v>0.002884615384612488</v>
-      </c>
-      <c r="U14">
-        <v>1.863898156617694E-05</v>
       </c>
       <c r="V14">
         <v>1.863898156617694E-05</v>
       </c>
       <c r="W14">
+        <v>1.863898156617694E-05</v>
+      </c>
+      <c r="X14">
         <v>0.002080732417810927</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>24.07</v>
@@ -2438,21 +2483,24 @@
         <v>24.07428571428571</v>
       </c>
       <c r="T15">
+        <v>24.06</v>
+      </c>
+      <c r="U15">
         <v>-0.0005357142857178587</v>
-      </c>
-      <c r="U15">
-        <v>-1.369369040404855E-05</v>
       </c>
       <c r="V15">
         <v>-1.369369040404855E-05</v>
       </c>
       <c r="W15">
+        <v>-1.369369040404855E-05</v>
+      </c>
+      <c r="X15">
         <v>-0.0004152823920264836</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>24.01</v>
@@ -2509,21 +2557,24 @@
         <v>24.07</v>
       </c>
       <c r="T16">
+        <v>24.05333333333333</v>
+      </c>
+      <c r="U16">
         <v>-0.002499999999997726</v>
-      </c>
-      <c r="U16">
-        <v>-0.000178020413007407</v>
       </c>
       <c r="V16">
         <v>-0.000178020413007407</v>
       </c>
       <c r="W16">
+        <v>-0.000178020413007407</v>
+      </c>
+      <c r="X16">
         <v>-0.00249272953884494</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>24.01</v>
@@ -2580,21 +2631,24 @@
         <v>24.068</v>
       </c>
       <c r="T17">
+        <v>24.03</v>
+      </c>
+      <c r="U17">
         <v>-0.01000000000000156</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.0001557955961778434</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-8.309098462822018E-05</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>23.98</v>
@@ -2651,21 +2705,24 @@
         <v>24.06866666666667</v>
       </c>
       <c r="T18">
+        <v>24</v>
+      </c>
+      <c r="U18">
         <v>-0.02124999999999844</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.0002108151212492082</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>2.769929643808844E-05</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.001249479383590213</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -2722,21 +2779,24 @@
         <v>24.05933333333333</v>
       </c>
       <c r="T19">
+        <v>23.99666666666667</v>
+      </c>
+      <c r="U19">
         <v>-0.02937499999999815</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-0.0001412521459460692</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-0.0003877794089134357</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0008340283569641116</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>23.97</v>
@@ -2793,21 +2853,24 @@
         <v>24.05066666666666</v>
       </c>
       <c r="T20">
+        <v>23.98333333333333</v>
+      </c>
+      <c r="U20">
         <v>-0.03500000000000014</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-0.0001920328254593207</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-0.0003602205658235214</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-0.001250000000000084</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>23.92</v>
@@ -2864,21 +2927,24 @@
         <v>24.03866666666666</v>
       </c>
       <c r="T21">
+        <v>23.96333333333333</v>
+      </c>
+      <c r="U21">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-0.0002767991947658643</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-0.0004989466681450949</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-0.002085940759282368</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>23.95</v>
@@ -2935,21 +3001,24 @@
         <v>24.02866666666667</v>
       </c>
       <c r="T22">
+        <v>23.94666666666667</v>
+      </c>
+      <c r="U22">
         <v>-0.04437499999999517</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-0.0001910980015903396</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-0.0004159964501635471</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.001254180602006549</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>23.97</v>
@@ -3006,21 +3075,24 @@
         <v>24.02266666666667</v>
       </c>
       <c r="T23">
+        <v>23.94666666666667</v>
+      </c>
+      <c r="U23">
         <v>-0.04875000000000185</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.0001359458953341663</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-0.0002497017451376093</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0008350730688935215</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>23.99</v>
@@ -3077,21 +3149,24 @@
         <v>24.01533333333333</v>
       </c>
       <c r="T24">
+        <v>23.97</v>
+      </c>
+      <c r="U24">
         <v>-0.04687500000000355</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-8.796773968122729E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-0.0003052672475996054</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0008343763037128582</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>23.96</v>
@@ -3148,21 +3223,24 @@
         <v>24.006</v>
       </c>
       <c r="T25">
+        <v>23.97333333333333</v>
+      </c>
+      <c r="U25">
         <v>-0.04437499999999872</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-0.0001326483853074656</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-0.0003886405907336243</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.001250521050437547</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>23.94</v>
@@ -3219,21 +3297,24 @@
         <v>23.99866666666667</v>
       </c>
       <c r="T26">
+        <v>23.96333333333333</v>
+      </c>
+      <c r="U26">
         <v>-0.03937500000000327</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-0.0001553398058250499</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-0.0003054791857591832</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0008347245409014992</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>23.96</v>
@@ -3290,21 +3371,24 @@
         <v>23.98933333333333</v>
       </c>
       <c r="T27">
+        <v>23.95333333333334</v>
+      </c>
+      <c r="U27">
         <v>-0.03875000000000028</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-0.0001114010668892274</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-0.0003889104950276501</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0008354218880535225</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>23.93</v>
@@ -3361,21 +3445,24 @@
         <v>23.98266666666667</v>
       </c>
       <c r="T28">
+        <v>23.94333333333333</v>
+      </c>
+      <c r="U28">
         <v>-0.03312499999999829</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-0.0001494050477564013</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.0002779012894619237</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.001252086811352249</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>23.93</v>
@@ -3432,21 +3519,24 @@
         <v>23.97266666666667</v>
       </c>
       <c r="T29">
+        <v>23.94</v>
+      </c>
+      <c r="U29">
         <v>-0.02562500000000156</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-0.0001387539891770651</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-0.0004169678100851559</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>23.97</v>
@@ -3503,21 +3593,24 @@
         <v>23.966</v>
       </c>
       <c r="T30">
+        <v>23.94333333333333</v>
+      </c>
+      <c r="U30">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-7.177926440626869E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-0.0002780944965098398</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.001671541997492643</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>23.99</v>
@@ -3574,21 +3667,24 @@
         <v>23.96466666666667</v>
       </c>
       <c r="T31">
+        <v>23.96333333333333</v>
+      </c>
+      <c r="U31">
         <v>-0.008749999999995595</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-3.924214798112224E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-5.563437091438139E-05</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.0008343763037128582</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>24.02</v>
@@ -3645,21 +3741,24 @@
         <v>23.96533333333333</v>
       </c>
       <c r="T32">
+        <v>23.99333333333333</v>
+      </c>
+      <c r="U32">
         <v>-0.00562500000000199</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-2.775773052798858E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2.78187331348434E-05</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.001250521050437658</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>24.02</v>
@@ -3716,21 +3815,24 @@
         <v>23.968</v>
       </c>
       <c r="T33">
+        <v>24.01</v>
+      </c>
+      <c r="U33">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>6.93962526023828E-05</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0001112718370979149</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>24.04</v>
@@ -3787,21 +3889,24 @@
         <v>23.97066666666667</v>
       </c>
       <c r="T34">
+        <v>24.02666666666667</v>
+      </c>
+      <c r="U34">
         <v>0.00999999999999801</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-0.0001387828741933328</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0001112594570538139</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.0008326394671107629</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>24.04</v>
@@ -3858,21 +3963,24 @@
         <v>23.97533333333333</v>
       </c>
       <c r="T35">
+        <v>24.03333333333333</v>
+      </c>
+      <c r="U35">
         <v>0.01750000000000185</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-8.328128253187739E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0001946823895873084</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>24.08</v>
@@ -3929,21 +4037,24 @@
         <v>23.986</v>
       </c>
       <c r="T36">
+        <v>24.05333333333333</v>
+      </c>
+      <c r="U36">
         <v>0.0293749999999946</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-2.776273962701303E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0004449017045298209</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.001663893510815306</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>24.09</v>
@@ -4000,21 +4111,24 @@
         <v>23.99533333333333</v>
       </c>
       <c r="T37">
+        <v>24.07</v>
+      </c>
+      <c r="U37">
         <v>0.03875000000000028</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-1.388175520933288E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.0003891158731481603</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0004152823920267057</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>24.08</v>
@@ -4071,21 +4185,24 @@
         <v>24.00266666666666</v>
       </c>
       <c r="T38">
+        <v>24.08333333333333</v>
+      </c>
+      <c r="U38">
         <v>0.04437500000000227</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>2.776389583014627E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.0003056149806903719</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.0004151100041511757</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>24.05</v>
@@ -4142,21 +4259,24 @@
         <v>24.00666666666666</v>
       </c>
       <c r="T39">
+        <v>24.07333333333333</v>
+      </c>
+      <c r="U39">
         <v>0.046875</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-6.940781254327621E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0001666481502056172</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.001245847176079673</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>24.04</v>
@@ -4213,21 +4333,24 @@
         <v>24.012</v>
       </c>
       <c r="T40">
+        <v>24.05666666666667</v>
+      </c>
+      <c r="U40">
         <v>0.04624999999999702</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-8.329515638672014E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.0002221605109693492</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.0004158004158004713</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>24.06</v>
@@ -4284,21 +4407,24 @@
         <v>24.02</v>
       </c>
       <c r="T41">
+        <v>24.05</v>
+      </c>
+      <c r="U41">
         <v>0.04499999999999815</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>1.388368250787586E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0003331667499584245</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.0008319467554076532</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>24.05</v>
@@ -4355,21 +4481,24 @@
         <v>24.026</v>
       </c>
       <c r="T42">
+        <v>24.05</v>
+      </c>
+      <c r="U42">
         <v>0.03937500000000327</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-6.941744876987066E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.0002497918401331845</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>-0.0004156275976724411</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>24.04</v>
@@ -4426,21 +4555,24 @@
         <v>24.03333333333333</v>
       </c>
       <c r="T43">
+        <v>24.05</v>
+      </c>
+      <c r="U43">
         <v>0.03437499999999716</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>1.388445357730639E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.0003052248952524206</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.0004158004158004713</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>24.04</v>
@@ -4497,21 +4629,24 @@
         <v>24.04066666666667</v>
       </c>
       <c r="T44">
+        <v>24.04333333333333</v>
+      </c>
+      <c r="U44">
         <v>0.0224999999999973</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>-5.553704320793162E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.0003051317614424232</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>24.04</v>
@@ -4568,21 +4703,24 @@
         <v>24.04533333333333</v>
       </c>
       <c r="T45">
+        <v>24.04</v>
+      </c>
+      <c r="U45">
         <v>0.009375000000002132</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>-4.165509580644766E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.0001941155264688632</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>24.06</v>
@@ -4639,21 +4777,24 @@
         <v>24.05</v>
       </c>
       <c r="T46">
+        <v>24.04666666666666</v>
+      </c>
+      <c r="U46">
         <v>0.001250000000002416</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>6.942805170995214E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.0001940778529447851</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.0008319467554076532</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>24</v>
@@ -4710,21 +4851,24 @@
         <v>24.04866666666667</v>
       </c>
       <c r="T47">
+        <v>24.03333333333333</v>
+      </c>
+      <c r="U47">
         <v>-0.00562500000000199</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-1.388464635820874E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-5.544005544011466E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>-0.002493765586034868</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>24.02</v>
@@ -4781,21 +4925,24 @@
         <v>24.04866666666667</v>
       </c>
       <c r="T48">
+        <v>24.02666666666667</v>
+      </c>
+      <c r="U48">
         <v>-0.008124999999999716</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>5.553935657665043E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.0008333333333332416</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>24</v>
@@ -4852,21 +4999,24 @@
         <v>24.046</v>
       </c>
       <c r="T49">
+        <v>24.00666666666666</v>
+      </c>
+      <c r="U49">
         <v>-0.01437500000000114</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-0.000110886258420595</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.0008326394671107629</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>24.02</v>
@@ -4923,21 +5073,24 @@
         <v>24.04466666666667</v>
       </c>
       <c r="T50">
+        <v>24.01333333333333</v>
+      </c>
+      <c r="U50">
         <v>-0.01687499999999886</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>6.942034015966492E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-5.544927777312303E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0008333333333332416</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>24</v>
@@ -4994,21 +5147,24 @@
         <v>24.03933333333333</v>
       </c>
       <c r="T51">
+        <v>24.00666666666667</v>
+      </c>
+      <c r="U51">
         <v>-0.01937500000000014</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>0.0001110648340969522</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.0002218094102643953</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>-0.0008326394671107629</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>24.01</v>
@@ -5065,21 +5221,24 @@
         <v>24.034</v>
       </c>
       <c r="T52">
+        <v>24.01</v>
+      </c>
+      <c r="U52">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>8.328937505219791E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.0002218586205939843</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0004166666666667318</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>23.97</v>
@@ -5136,21 +5295,24 @@
         <v>24.02666666666667</v>
       </c>
       <c r="T53">
+        <v>23.99333333333334</v>
+      </c>
+      <c r="U53">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0003051232975506135</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.001665972511453728</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>23.99</v>
@@ -5207,21 +5369,24 @@
         <v>24.02266666666667</v>
       </c>
       <c r="T54">
+        <v>23.99</v>
+      </c>
+      <c r="U54">
         <v>-0.02312500000000028</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0001664816870144969</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.0008343763037128582</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>24.01</v>
@@ -5278,21 +5443,24 @@
         <v>24.02066666666667</v>
       </c>
       <c r="T55">
+        <v>23.99</v>
+      </c>
+      <c r="U55">
         <v>-0.01937500000000369</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>6.940203209149232E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-8.325470389070055E-05</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0008336807002919944</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>24</v>
@@ -5349,21 +5517,24 @@
         <v>24.01666666666667</v>
       </c>
       <c r="T56">
+        <v>24</v>
+      </c>
+      <c r="U56">
         <v>-0.01937500000000014</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>8.327665894047875E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-0.0001665232716272502</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.0004164931278634043</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>24</v>
@@ -5420,21 +5591,24 @@
         <v>24.01333333333334</v>
       </c>
       <c r="T57">
+        <v>24.00333333333333</v>
+      </c>
+      <c r="U57">
         <v>-0.015625</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>5.551314967733312E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.0001387925052045436</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>24.01</v>
@@ -5491,21 +5665,24 @@
         <v>24.01133333333333</v>
       </c>
       <c r="T58">
+        <v>24.00333333333333</v>
+      </c>
+      <c r="U58">
         <v>-0.01437500000000114</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.0001110201362772845</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-8.328706274307596E-05</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0.0004166666666667318</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>24.02</v>
@@ -5562,21 +5739,24 @@
         <v>24.01</v>
       </c>
       <c r="T59">
+        <v>24.01</v>
+      </c>
+      <c r="U59">
         <v>-0.01062500000000099</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>0.0001248837886966836</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-5.552933337038546E-05</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.0004164931278634043</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>24.01</v>
@@ -5633,21 +5813,24 @@
         <v>24.008</v>
       </c>
       <c r="T60">
+        <v>24.01333333333333</v>
+      </c>
+      <c r="U60">
         <v>-0.008749999999999147</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>5.549697541495924E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-8.329862557265866E-05</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.0004163197335552704</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>24.04</v>
@@ -5704,21 +5887,24 @@
         <v>24.00666666666667</v>
       </c>
       <c r="T61">
+        <v>24.02333333333333</v>
+      </c>
+      <c r="U61">
         <v>0</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>6.936736958929046E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-5.553704320770958E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.001249479383589991</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>23.99</v>
@@ -5775,21 +5961,24 @@
         <v>24.006</v>
       </c>
       <c r="T62">
+        <v>24.01333333333334</v>
+      </c>
+      <c r="U62">
         <v>0.004374999999996021</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-4.161753485454334E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-2.777006387100212E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.002079866888519133</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>23.95</v>
@@ -5846,21 +6035,24 @@
         <v>24.00133333333333</v>
       </c>
       <c r="T63">
+        <v>23.99333333333333</v>
+      </c>
+      <c r="U63">
         <v>0</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-9.711162287417974E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0001943958454833083</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.001667361400583545</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>23.89</v>
@@ -5917,21 +6109,24 @@
         <v>23.994</v>
       </c>
       <c r="T64">
+        <v>23.94333333333333</v>
+      </c>
+      <c r="U64">
         <v>-0.005624999999998437</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-0.0002081165452652023</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0003055385811899791</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.002505219206680565</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>23.92</v>
@@ -5988,21 +6183,24 @@
         <v>23.98733333333333</v>
       </c>
       <c r="T65">
+        <v>23.92</v>
+      </c>
+      <c r="U65">
         <v>-0.01062499999999744</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-0.000166527893422086</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-0.0002778472395875697</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.001255755546253789</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>23.92</v>
@@ -6059,21 +6257,24 @@
         <v>23.982</v>
       </c>
       <c r="T66">
+        <v>23.91</v>
+      </c>
+      <c r="U66">
         <v>-0.01562500000000355</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-0.0002220741727738673</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-0.0002223395681052454</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>23.93</v>
@@ -6130,21 +6331,24 @@
         <v>23.97666666666667</v>
       </c>
       <c r="T67">
+        <v>23.92333333333334</v>
+      </c>
+      <c r="U67">
         <v>-0.0224999999999973</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-0.0002221235006661937</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-0.0002223890139828599</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.0004180602006689238</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>23.92</v>
@@ -6201,21 +6405,24 @@
         <v>23.97333333333333</v>
       </c>
       <c r="T68">
+        <v>23.92333333333334</v>
+      </c>
+      <c r="U68">
         <v>-0.02812499999999929</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-0.0002221728504777642</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-0.0001390240511608409</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.0004178854993730496</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>23.92</v>
@@ -6272,21 +6479,24 @@
         <v>23.96866666666667</v>
       </c>
       <c r="T69">
+        <v>23.92333333333334</v>
+      </c>
+      <c r="U69">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-0.0001805555555557392</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-0.000194660734148977</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>23.93</v>
@@ -6343,21 +6553,24 @@
         <v>23.96333333333333</v>
       </c>
       <c r="T70">
+        <v>23.92333333333334</v>
+      </c>
+      <c r="U70">
         <v>-0.04374999999999929</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-0.0001528053676355112</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-0.0002225127249465553</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0004180602006689238</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>23.96</v>
@@ -6414,21 +6627,24 @@
         <v>23.96066666666666</v>
       </c>
       <c r="T71">
+        <v>23.93666666666667</v>
+      </c>
+      <c r="U71">
         <v>-0.03937499999999972</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-0.0001389352006223588</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-0.0001112811239393219</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.001253656498119593</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>23.94</v>
@@ -6485,21 +6701,24 @@
         <v>23.95666666666666</v>
       </c>
       <c r="T72">
+        <v>23.94333333333333</v>
+      </c>
+      <c r="U72">
         <v>-0.0293749999999946</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-0.000152849956924328</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-0.000166940263209181</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0008347245409014992</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>23.96</v>
@@ -6556,21 +6775,24 @@
         <v>23.95333333333333</v>
       </c>
       <c r="T73">
+        <v>23.95333333333333</v>
+      </c>
+      <c r="U73">
         <v>-0.02187500000000142</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-0.0001111805989855164</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-0.0001391401140947712</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.0008354218880535225</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>24.02</v>
@@ -6627,21 +6849,24 @@
         <v>23.95333333333333</v>
       </c>
       <c r="T74">
+        <v>23.97333333333333</v>
+      </c>
+      <c r="U74">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-2.779824037124623E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.002504173622704498</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>24.01</v>
@@ -6698,21 +6923,24 @@
         <v>23.95333333333333</v>
       </c>
       <c r="T75">
+        <v>23.99666666666667</v>
+      </c>
+      <c r="U75">
         <v>0.0006249999999994316</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-4.169851970270422E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.0004163197335552704</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>23.98</v>
@@ -6769,21 +6997,24 @@
         <v>23.94933333333334</v>
       </c>
       <c r="T76">
+        <v>24.00333333333333</v>
+      </c>
+      <c r="U76">
         <v>0.01000000000000156</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-0.0001112006894441464</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-0.0001669913721124017</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>-0.001249479383590213</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>23.94</v>
@@ -6840,21 +7071,24 @@
         <v>23.946</v>
       </c>
       <c r="T77">
+        <v>23.97666666666667</v>
+      </c>
+      <c r="U77">
         <v>0.01875000000000071</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-8.340979230969658E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-0.0001391827190736494</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.001668056713928223</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>23.96</v>
@@ -6911,21 +7145,24 @@
         <v>23.94666666666667</v>
       </c>
       <c r="T78">
+        <v>23.96</v>
+      </c>
+      <c r="U78">
         <v>0.0243750000000027</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-8.341675008338711E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>2.784041871972676E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0008354218880535225</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>23.96</v>
@@ -6982,21 +7219,24 @@
         <v>23.95133333333333</v>
       </c>
       <c r="T79">
+        <v>23.95333333333333</v>
+      </c>
+      <c r="U79">
         <v>0.02374999999999616</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-5.561580601198823E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.0001948775055680141</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>23.99</v>
@@ -7053,21 +7293,24 @@
         <v>23.956</v>
       </c>
       <c r="T80">
+        <v>23.97</v>
+      </c>
+      <c r="U80">
         <v>0.02374999999999972</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-4.17141744764038E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0.0001948395357254107</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.001252086811352138</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>23.98</v>
@@ -7124,21 +7367,24 @@
         <v>23.96</v>
       </c>
       <c r="T81">
+        <v>23.97666666666666</v>
+      </c>
+      <c r="U81">
         <v>0.02250000000000085</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-2.781060974765825E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.0001669727834361368</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>-0.0004168403501457751</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>23.94</v>
@@ -7195,21 +7441,24 @@
         <v>23.96066666666667</v>
       </c>
       <c r="T82">
+        <v>23.97</v>
+      </c>
+      <c r="U82">
         <v>0.01125000000000043</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-9.73398411973081E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>2.782415136359795E-05</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.001668056713928223</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>23.95</v>
@@ -7266,21 +7515,24 @@
         <v>23.96266666666667</v>
       </c>
       <c r="T83">
+        <v>23.95666666666667</v>
+      </c>
+      <c r="U83">
         <v>0.002500000000004832</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-2.781409061802798E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>8.347013160459049E-05</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0004177109440266502</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>23.94</v>
@@ -7337,21 +7589,24 @@
         <v>23.964</v>
       </c>
       <c r="T84">
+        <v>23.94333333333333</v>
+      </c>
+      <c r="U84">
         <v>-0.003750000000000142</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-6.953716065871696E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>5.564210994890573E-05</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.0004175365344466497</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>23.94</v>
@@ -7408,21 +7663,24 @@
         <v>23.96466666666667</v>
       </c>
       <c r="T85">
+        <v>23.94333333333333</v>
+      </c>
+      <c r="U85">
         <v>-0.005000000000002558</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-9.735879497629885E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>2.781950703845126E-05</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>23.94</v>
@@ -7479,21 +7737,24 @@
         <v>23.96333333333333</v>
       </c>
       <c r="T86">
+        <v>23.94</v>
+      </c>
+      <c r="U86">
         <v>-0.008125000000003268</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-8.345852111513175E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-5.563746626990884E-05</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>23.94</v>
@@ -7550,21 +7811,24 @@
         <v>23.96333333333333</v>
       </c>
       <c r="T87">
+        <v>23.94</v>
+      </c>
+      <c r="U87">
         <v>-0.009375000000002132</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-8.346548702109491E-05</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
       </c>
       <c r="W87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>23.94</v>
@@ -7621,21 +7885,24 @@
         <v>23.962</v>
       </c>
       <c r="T88">
+        <v>23.94</v>
+      </c>
+      <c r="U88">
         <v>-0.01562500000000355</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-9.738452977181566E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-5.564056196971645E-05</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>23.95</v>
@@ -7692,21 +7959,24 @@
         <v>23.95733333333333</v>
       </c>
       <c r="T89">
+        <v>23.94333333333333</v>
+      </c>
+      <c r="U89">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-9.739401444230911E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.0001947528030492585</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0004177109440266502</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>23.95</v>
@@ -7763,21 +8033,24 @@
         <v>23.95333333333333</v>
       </c>
       <c r="T90">
+        <v>23.94666666666667</v>
+      </c>
+      <c r="U90">
         <v>-0.01312499999999872</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-8.348871510865941E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-0.0001669634906501516</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>23.99</v>
@@ -7834,21 +8107,24 @@
         <v>23.954</v>
       </c>
       <c r="T91">
+        <v>23.96333333333333</v>
+      </c>
+      <c r="U91">
         <v>-0.006875000000000853</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-6.957973838028764E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>2.783189535215946E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.001670146137787043</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>24</v>
@@ -7905,21 +8181,24 @@
         <v>23.958</v>
       </c>
       <c r="T92">
+        <v>23.98</v>
+      </c>
+      <c r="U92">
         <v>-0.0006249999999994316</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>1.391691601138056E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.0001669867245555068</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0004168403501458862</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>24.03</v>
@@ -7976,21 +8255,24 @@
         <v>23.96266666666667</v>
       </c>
       <c r="T93">
+        <v>24.00666666666666</v>
+      </c>
+      <c r="U93">
         <v>0.005000000000002558</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.0001113337786686763</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.0001947853187522774</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.001249999999999973</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>24.02</v>
@@ -8047,21 +8329,24 @@
         <v>23.96666666666667</v>
       </c>
       <c r="T94">
+        <v>24.01666666666667</v>
+      </c>
+      <c r="U94">
         <v>0.01124999999999687</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>0.0001808972503616335</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.0001669263298462731</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.0004161464835622519</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>24.08</v>
@@ -8118,21 +8403,24 @@
         <v>23.97266666666667</v>
       </c>
       <c r="T95">
+        <v>24.04333333333333</v>
+      </c>
+      <c r="U95">
         <v>0.02125000000000199</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>0.00022260250149575</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0002503477051460923</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.002497918401332067</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>24.07</v>
@@ -8189,21 +8477,24 @@
         <v>23.97866666666667</v>
       </c>
       <c r="T96">
+        <v>24.05666666666667</v>
+      </c>
+      <c r="U96">
         <v>0.03249999999999531</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>0.0002086434006092208</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.0002502850468588669</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.0004152823920264836</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>24.09</v>
@@ -8260,21 +8551,24 @@
         <v>23.98866666666667</v>
       </c>
       <c r="T97">
+        <v>24.08</v>
+      </c>
+      <c r="U97">
         <v>0.04312499999999631</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>0.0002225065361294298</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0004170373665481897</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.0008309098462817577</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>24.08</v>
@@ -8331,21 +8625,24 @@
         <v>23.99733333333334</v>
       </c>
       <c r="T98">
+        <v>24.08</v>
+      </c>
+      <c r="U98">
         <v>0.05062500000000014</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>0.0002224570379845137</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.0003612817163660687</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0004151100041511757</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>24.13</v>
@@ -8402,21 +8699,24 @@
         <v>24.01</v>
       </c>
       <c r="T99">
+        <v>24.1</v>
+      </c>
+      <c r="U99">
         <v>0.05687499999999801</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>0.0002919099249374391</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0005278364262693014</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.002076411960132862</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>24.15</v>
@@ -8473,21 +8773,24 @@
         <v>24.024</v>
       </c>
       <c r="T100">
+        <v>24.11999999999999</v>
+      </c>
+      <c r="U100">
         <v>0.0625</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>0.0003057211545141048</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0005830903790087216</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0.0008288437629506706</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>24.1</v>
@@ -8544,21 +8847,24 @@
         <v>24.03466666666667</v>
       </c>
       <c r="T101">
+        <v>24.12666666666667</v>
+      </c>
+      <c r="U101">
         <v>0.06125000000000114</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>0.0001944903657806751</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>0.000444000444000503</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.002070393374741131</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>24.11</v>
@@ -8615,21 +8921,24 @@
         <v>24.046</v>
       </c>
       <c r="T102">
+        <v>24.12</v>
+      </c>
+      <c r="U102">
         <v>0.06187499999999702</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>0.0002361209494841088</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>0.0004715411072895304</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.0004149377593360981</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>24.13</v>
@@ -8686,21 +8995,24 @@
         <v>24.05866666666667</v>
       </c>
       <c r="T103">
+        <v>24.11333333333333</v>
+      </c>
+      <c r="U103">
         <v>0.05624999999999858</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>0.0002360652095425575</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>0.0005267681388450018</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0008295313148070083</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>24.16</v>
@@ -8757,21 +9069,24 @@
         <v>24.07266666666667</v>
       </c>
       <c r="T104">
+        <v>24.13333333333334</v>
+      </c>
+      <c r="U104">
         <v>0.05375000000000085</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>0.0001943607613390519</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0.000581910884504433</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.001243265644426117</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>24.18</v>
@@ -8828,21 +9143,24 @@
         <v>24.088</v>
       </c>
       <c r="T105">
+        <v>24.15666666666667</v>
+      </c>
+      <c r="U105">
         <v>0.05062500000000014</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>0.0002359636338400417</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>0.00063696031460303</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0008278145695364003</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>24.23</v>
@@ -8899,21 +9217,24 @@
         <v>24.104</v>
       </c>
       <c r="T106">
+        <v>24.19</v>
+      </c>
+      <c r="U106">
         <v>0.05187499999999901</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>0.0003469234825566048</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>0.0006642311524409639</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0.002067824648469774</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>24.28</v>
@@ -8970,21 +9291,24 @@
         <v>24.12266666666666</v>
       </c>
       <c r="T107">
+        <v>24.23</v>
+      </c>
+      <c r="U107">
         <v>0.05250000000000199</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>0.00047165230901558</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>0.0007744219493306392</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.00206355757325638</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>24.28</v>
@@ -9041,21 +9365,24 @@
         <v>24.13933333333334</v>
       </c>
       <c r="T108">
+        <v>24.26333333333334</v>
+      </c>
+      <c r="U108">
         <v>0.05124999999999957</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>0.000443698783987978</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>0.0006909131107675215</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>24.3</v>
@@ -9112,21 +9439,24 @@
         <v>24.158</v>
       </c>
       <c r="T109">
+        <v>24.28666666666667</v>
+      </c>
+      <c r="U109">
         <v>0.05937499999999574</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>0.0004712208778570037</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>0.0007732884089590719</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0.0008237232289949326</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>24.32</v>
@@ -9183,21 +9513,24 @@
         <v>24.174</v>
       </c>
       <c r="T110">
+        <v>24.3</v>
+      </c>
+      <c r="U110">
         <v>0.06687499999999957</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>0.0004571460235220925</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>0.0006623064823245706</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.0008230452674897748</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>24.32</v>
@@ -9254,21 +9587,24 @@
         <v>24.19066666666667</v>
       </c>
       <c r="T111">
+        <v>24.31333333333333</v>
+      </c>
+      <c r="U111">
         <v>0.07562500000000227</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>0.000470783716422174</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>0.0006894459612256654</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>24.33</v>
@@ -9325,21 +9661,24 @@
         <v>24.20666666666666</v>
       </c>
       <c r="T112">
+        <v>24.32333333333333</v>
+      </c>
+      <c r="U112">
         <v>0.08062500000000128</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>0.0005397625044980536</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>0.0006614121148649232</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.0004111842105263275</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>24.28</v>
@@ -9396,21 +9735,24 @@
         <v>24.22</v>
       </c>
       <c r="T113">
+        <v>24.31</v>
+      </c>
+      <c r="U113">
         <v>0.08125000000000071</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>0.0004564757307070622</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>0.0005508124483615262</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>-0.002055076037813297</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>24.26</v>
@@ -9467,21 +9809,24 @@
         <v>24.22866666666667</v>
       </c>
       <c r="T114">
+        <v>24.29</v>
+      </c>
+      <c r="U114">
         <v>0.07375000000000043</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>0.0004424411691508201</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>0.0003578309936689283</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0008237232289950436</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>24.23</v>
@@ -9538,21 +9883,24 @@
         <v>24.234</v>
       </c>
       <c r="T115">
+        <v>24.25666666666667</v>
+      </c>
+      <c r="U115">
         <v>0.06125000000000114</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>0.0004007849857652346</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>0.0002201249208926281</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.001236603462489771</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>24.23</v>
@@ -9609,21 +9957,24 @@
         <v>24.24266666666666</v>
       </c>
       <c r="T116">
+        <v>24.24</v>
+      </c>
+      <c r="U116">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>0.0004006244215122301</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0.0003576242744354197</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>24.23</v>
@@ -9680,21 +10031,24 @@
         <v>24.25066666666667</v>
       </c>
       <c r="T117">
+        <v>24.23</v>
+      </c>
+      <c r="U117">
         <v>0.03312500000000185</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>0.0004004639858592451</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>0.0003299967000331971</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>24.24</v>
@@ -9751,21 +10105,24 @@
         <v>24.258</v>
       </c>
       <c r="T118">
+        <v>24.23333333333333</v>
+      </c>
+      <c r="U118">
         <v>0.01499999999999702</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>0.0004141072537788837</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>0.0003023971849569485</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.0004127115146512761</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>24.25</v>
@@ -9822,21 +10179,24 @@
         <v>24.264</v>
       </c>
       <c r="T119">
+        <v>24.24</v>
+      </c>
+      <c r="U119">
         <v>-0.001250000000002416</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>0.0004139358399446458</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>0.0002473410833541134</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0004125412541253759</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>24.23</v>
@@ -9893,21 +10253,24 @@
         <v>24.26733333333333</v>
       </c>
       <c r="T120">
+        <v>24.24</v>
+      </c>
+      <c r="U120">
         <v>-0.01812499999999773</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>0.0003861802634299583</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>0.0001373777338167237</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.0008247422680411898</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>24.18</v>
@@ -9964,21 +10327,24 @@
         <v>24.264</v>
       </c>
       <c r="T121">
+        <v>24.22</v>
+      </c>
+      <c r="U121">
         <v>-0.03062499999999702</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>0.0002619497332252418</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-0.0001373588637675338</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.002063557573256269</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>24.2</v>
@@ -10035,21 +10401,24 @@
         <v>24.25866666666667</v>
       </c>
       <c r="T122">
+        <v>24.20333333333333</v>
+      </c>
+      <c r="U122">
         <v>-0.03624999999999901</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>0.0002756643510859469</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-0.0002198043741070688</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0.0008271298593878207</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>24.2</v>
@@ -10106,21 +10475,24 @@
         <v>24.25333333333333</v>
       </c>
       <c r="T123">
+        <v>24.19333333333333</v>
+      </c>
+      <c r="U123">
         <v>-0.03500000000000369</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>0.0002342501240146788</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-0.000219852698691847</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>24.19</v>
@@ -10177,21 +10549,24 @@
         <v>24.246</v>
       </c>
       <c r="T124">
+        <v>24.19666666666667</v>
+      </c>
+      <c r="U124">
         <v>-0.03437500000000071</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>0.0002341952637452405</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-0.0003023639362287334</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>-0.0004132231404957443</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>24.21</v>
@@ -10248,21 +10623,24 @@
         <v>24.23866666666667</v>
       </c>
       <c r="T125">
+        <v>24.2</v>
+      </c>
+      <c r="U125">
         <v>-0.03125</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>0.0001790485634798333</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-0.0003024553878302472</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0008267879288961222</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>24.22</v>
@@ -10319,21 +10697,24 @@
         <v>24.232</v>
       </c>
       <c r="T126">
+        <v>24.20666666666667</v>
+      </c>
+      <c r="U126">
         <v>-0.02749999999999986</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>0.0002065575124967634</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-0.0002750426316078247</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0004130524576619887</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>24.23</v>
@@ -10390,21 +10771,24 @@
         <v>24.22533333333333</v>
       </c>
       <c r="T127">
+        <v>24.22</v>
+      </c>
+      <c r="U127">
         <v>-0.02437499999999559</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>0.000192747198281662</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-0.0002751183008695701</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>0.0004128819157720454</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>24.2</v>
@@ -10461,21 +10845,24 @@
         <v>24.22</v>
       </c>
       <c r="T128">
+        <v>24.21666666666667</v>
+      </c>
+      <c r="U128">
         <v>-0.01999999999999957</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>0.0001651800462505459</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-0.0002201552094227566</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>-0.001238134543953828</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>24.22</v>
@@ -10532,21 +10919,24 @@
         <v>24.21733333333333</v>
       </c>
       <c r="T129">
+        <v>24.21666666666667</v>
+      </c>
+      <c r="U129">
         <v>-0.01125000000000043</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>0.0001238645747316802</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-0.0001101018442056789</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.0008264462809917106</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>24.22</v>
@@ -10603,21 +10993,24 @@
         <v>24.21666666666666</v>
       </c>
       <c r="T130">
+        <v>24.21333333333333</v>
+      </c>
+      <c r="U130">
         <v>-0.006249999999997868</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>9.632718215457636E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-2.752849198939256E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>24.2</v>
@@ -10674,21 +11067,24 @@
         <v>24.21466666666667</v>
       </c>
       <c r="T131">
+        <v>24.21333333333333</v>
+      </c>
+      <c r="U131">
         <v>-0.004375000000003126</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>0.0001375970058892229</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-8.258774948344261E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0008257638315442017</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>24.18</v>
@@ -10745,21 +11141,24 @@
         <v>24.21133333333333</v>
       </c>
       <c r="T132">
+        <v>24.2</v>
+      </c>
+      <c r="U132">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>9.630465289056644E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.0001376576179727973</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0008264462809917106</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>24.16</v>
@@ -10816,21 +11215,24 @@
         <v>24.206</v>
       </c>
       <c r="T133">
+        <v>24.18</v>
+      </c>
+      <c r="U133">
         <v>-0.004374999999999574</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>4.126944822746559E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0002202825123219787</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0008271298593879317</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>24.12</v>
@@ -10887,21 +11289,24 @@
         <v>24.19733333333333</v>
       </c>
       <c r="T134">
+        <v>24.15333333333334</v>
+      </c>
+      <c r="U134">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-5.502366017406946E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0003580379520229382</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>-0.001655629139072801</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>24.14</v>
@@ -10958,21 +11363,24 @@
         <v>24.19133333333333</v>
       </c>
       <c r="T135">
+        <v>24.14</v>
+      </c>
+      <c r="U135">
         <v>-0.01374999999999815</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-5.502668794354904E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.0002479612078466475</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0.0008291873963515162</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>24.17</v>
@@ -11029,21 +11437,24 @@
         <v>24.19066666666667</v>
       </c>
       <c r="T136">
+        <v>24.14333333333333</v>
+      </c>
+      <c r="U136">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-8.254457407008697E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-2.755807865062465E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.001242750621375466</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>24.14</v>
@@ -11100,21 +11511,24 @@
         <v>24.18666666666667</v>
       </c>
       <c r="T137">
+        <v>24.15</v>
+      </c>
+      <c r="U137">
         <v>-0.02125000000000199</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-0.0001926199058912559</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-0.0001653530287163418</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>-0.001241208109226344</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>24.14</v>
@@ -11171,21 +11585,24 @@
         <v>24.18266666666667</v>
       </c>
       <c r="T138">
+        <v>24.15</v>
+      </c>
+      <c r="U138">
         <v>-0.02750000000000341</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-0.0001926570154675566</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-0.0001653803748622451</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>24.18</v>
@@ -11242,21 +11659,24 @@
         <v>24.182</v>
       </c>
       <c r="T139">
+        <v>24.15333333333334</v>
+      </c>
+      <c r="U139">
         <v>-0.02874999999999517</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-0.0001651664051534052</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-2.756795500913345E-05</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0.001657000828500399</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>24.16</v>
@@ -11313,21 +11733,24 @@
         <v>24.17866666666667</v>
       </c>
       <c r="T140">
+        <v>24.16</v>
+      </c>
+      <c r="U140">
         <v>-0.02937499999999815</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-0.0002202582528013641</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0001378435751108187</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>-0.0008271298593879317</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>24.16</v>
@@ -11384,21 +11807,24 @@
         <v>24.17466666666667</v>
       </c>
       <c r="T141">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="U141">
         <v>-0.02625000000000099</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-0.0002203067771872069</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-0.0001654350942980054</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>24.16</v>
@@ -11455,21 +11881,24 @@
         <v>24.17</v>
       </c>
       <c r="T142">
+        <v>24.16</v>
+      </c>
+      <c r="U142">
         <v>-0.01749999999999829</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-0.0002341275306431134</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-0.0001930395455297385</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>24.16</v>
@@ -11526,21 +11955,24 @@
         <v>24.16733333333334</v>
       </c>
       <c r="T143">
+        <v>24.16</v>
+      </c>
+      <c r="U143">
         <v>-0.01062500000000099</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-0.0001653051947158035</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0001103296097090256</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>24.14</v>
@@ -11597,21 +12029,24 @@
         <v>24.162</v>
       </c>
       <c r="T144">
+        <v>24.15333333333334</v>
+      </c>
+      <c r="U144">
         <v>-0.01062500000000099</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-0.0001653325250410287</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.0002206835673499441</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.0008278145695364003</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>24.13</v>
@@ -11668,21 +12103,24 @@
         <v>24.156</v>
       </c>
       <c r="T145">
+        <v>24.14333333333333</v>
+      </c>
+      <c r="U145">
         <v>-0.006249999999997868</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-0.0001377998870041308</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.0002483238142536592</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0004142502071251553</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>24.14</v>
@@ -11739,21 +12177,24 @@
         <v>24.152</v>
       </c>
       <c r="T146">
+        <v>24.13666666666667</v>
+      </c>
+      <c r="U146">
         <v>-0.001250000000002416</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-0.0001240369905868288</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0001655903295250116</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0004144218814754463</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>24.08</v>
@@ -11810,21 +12251,24 @@
         <v>24.14533333333333</v>
       </c>
       <c r="T147">
+        <v>24.11666666666666</v>
+      </c>
+      <c r="U147">
         <v>-0.006249999999997868</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-0.0002067539627842452</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-0.0002760295903719845</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>-0.002485501242750709</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>24.12</v>
@@ -11881,21 +12325,24 @@
         <v>24.14266666666667</v>
       </c>
       <c r="T148">
+        <v>24.11333333333333</v>
+      </c>
+      <c r="U148">
         <v>-0.007499999999996732</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-0.0001654373750603622</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-0.0001104423214975947</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.001661129568106379</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>24.12</v>
@@ -11952,21 +12399,24 @@
         <v>24.14266666666667</v>
       </c>
       <c r="T149">
+        <v>24.10666666666667</v>
+      </c>
+      <c r="U149">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-0.0001792534782067978</v>
-      </c>
-      <c r="V149">
-        <v>0</v>
       </c>
       <c r="W149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>24.11</v>
@@ -12023,21 +12473,24 @@
         <v>24.14066666666667</v>
       </c>
       <c r="T150">
+        <v>24.11666666666667</v>
+      </c>
+      <c r="U150">
         <v>-0.015625</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-0.0001654944145635939</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-8.284089026333596E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>-0.0004145936981758691</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>24.14</v>
@@ -12094,21 +12547,24 @@
         <v>24.13866666666667</v>
       </c>
       <c r="T151">
+        <v>24.12333333333333</v>
+      </c>
+      <c r="U151">
         <v>-0.01812499999999773</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-5.517393583276409E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-8.284775344513662E-05</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.001244296972210845</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>24.15</v>
@@ -12165,21 +12621,24 @@
         <v>24.13933333333334</v>
       </c>
       <c r="T152">
+        <v>24.13333333333333</v>
+      </c>
+      <c r="U152">
         <v>-0.01562500000000355</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-6.89712252047725E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>2.761820592156461E-05</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0.0004142502071249332</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>24.2</v>
@@ -12236,21 +12695,24 @@
         <v>24.14333333333333</v>
       </c>
       <c r="T153">
+        <v>24.16333333333333</v>
+      </c>
+      <c r="U153">
         <v>-0.01062500000000099</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>0</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>0.0001657046590626265</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.002070393374741242</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>24.2</v>
@@ -12307,21 +12769,24 @@
         <v>24.14466666666667</v>
       </c>
       <c r="T154">
+        <v>24.18333333333333</v>
+      </c>
+      <c r="U154">
         <v>-0.0068749999999973</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>1.379519651267813E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>5.522573519267659E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>24.2</v>
@@ -12378,21 +12843,24 @@
         <v>24.14733333333333</v>
       </c>
       <c r="T155">
+        <v>24.2</v>
+      </c>
+      <c r="U155">
         <v>0.006875000000000853</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-1.379500620790619E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>0.0001104453709581676</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>24.14</v>
@@ -12449,21 +12917,24 @@
         <v>24.146</v>
       </c>
       <c r="T156">
+        <v>24.18</v>
+      </c>
+      <c r="U156">
         <v>0.01062499999999744</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-0.0001103615721007589</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-5.521658706286736E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>-0.002479338842975132</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>24.23</v>
@@ -12520,21 +12991,24 @@
         <v>24.15066666666667</v>
       </c>
       <c r="T157">
+        <v>24.19</v>
+      </c>
+      <c r="U157">
         <v>0.01999999999999602</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>0</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>0.0001932687263592747</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0.003728251864125953</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>24.23</v>
@@ -12591,21 +13065,24 @@
         <v>24.15533333333333</v>
       </c>
       <c r="T158">
+        <v>24.2</v>
+      </c>
+      <c r="U158">
         <v>0.03062500000000057</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>4.139015742077312E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>0.0001932313807762043</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>24.22</v>
@@ -12662,21 +13139,24 @@
         <v>24.16066666666666</v>
       </c>
       <c r="T159">
+        <v>24.22666666666667</v>
+      </c>
+      <c r="U159">
         <v>0.03687500000000199</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>0</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0.000220793199569469</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0004127115146512761</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>24.26</v>
@@ -12733,21 +13213,24 @@
         <v>24.16933333333333</v>
       </c>
       <c r="T160">
+        <v>24.23666666666666</v>
+      </c>
+      <c r="U160">
         <v>0.04312499999999986</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>5.518459246167673E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>0.0003587097486272839</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.001651527663088403</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>24.25</v>
@@ -12804,21 +13287,24 @@
         <v>24.17666666666667</v>
       </c>
       <c r="T161">
+        <v>24.24333333333334</v>
+      </c>
+      <c r="U161">
         <v>0.04187499999999744</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>6.89769341133406E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>0.0003034147956089139</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0004122011541632942</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>24.25</v>
@@ -12875,21 +13361,24 @@
         <v>24.188</v>
       </c>
       <c r="T162">
+        <v>24.25333333333333</v>
+      </c>
+      <c r="U162">
         <v>0.04124999999999801</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>9.656104727340242E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>0.0004687715428097761</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>24.25</v>
@@ -12946,21 +13435,24 @@
         <v>24.19666666666667</v>
       </c>
       <c r="T163">
+        <v>24.25</v>
+      </c>
+      <c r="U163">
         <v>0.03687499999999488</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>0.0001241379310343849</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>0.0003583043933630403</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>24.25</v>
@@ -13017,21 +13509,24 @@
         <v>24.20533333333334</v>
       </c>
       <c r="T164">
+        <v>24.25</v>
+      </c>
+      <c r="U164">
         <v>0.04249999999999687</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>0.0001792880883750847</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>0.0003581760573081461</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>24.23</v>
@@ -13088,21 +13583,24 @@
         <v>24.21333333333333</v>
       </c>
       <c r="T165">
+        <v>24.24333333333333</v>
+      </c>
+      <c r="U165">
         <v>0.03562499999999957</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>0.0001241002730207885</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>0.0003305056736806478</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.0008247422680411898</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>24.25</v>
@@ -13159,21 +13657,24 @@
         <v>24.22066666666667</v>
       </c>
       <c r="T166">
+        <v>24.24333333333333</v>
+      </c>
+      <c r="U166">
         <v>0.02937499999999815</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>0.0001102976658255983</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>0.0003028634361235127</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0.0008254230293025522</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>24.25</v>
@@ -13230,21 +13731,24 @@
         <v>24.22733333333333</v>
       </c>
       <c r="T167">
+        <v>24.24333333333333</v>
+      </c>
+      <c r="U167">
         <v>0.02625000000000099</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>0.0001516425646892472</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>0.0002752470342131108</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>24.23</v>
@@ -13301,21 +13805,24 @@
         <v>24.22933333333333</v>
       </c>
       <c r="T168">
+        <v>24.24333333333334</v>
+      </c>
+      <c r="U168">
         <v>0.01750000000000185</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>0.0001240523776704361</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>8.255138823920483E-05</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>-0.0008247422680411898</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>24.26</v>
@@ -13372,21 +13879,24 @@
         <v>24.23333333333333</v>
       </c>
       <c r="T169">
+        <v>24.24666666666667</v>
+      </c>
+      <c r="U169">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>0.0001102551027443166</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>0.0001650891481399519</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0.001238134543953828</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>24.23</v>
@@ -13443,21 +13953,24 @@
         <v>24.23533333333334</v>
       </c>
       <c r="T170">
+        <v>24.24</v>
+      </c>
+      <c r="U170">
         <v>0.01062500000000099</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>9.646257940909564E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>8.253094910593006E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.001236603462489771</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>24.25</v>
@@ -13514,21 +14027,24 @@
         <v>24.24266666666666</v>
       </c>
       <c r="T171">
+        <v>24.24666666666667</v>
+      </c>
+      <c r="U171">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>0.000124011353928255</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>0.0003025885071381573</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0.0008254230293025522</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>24.27</v>
@@ -13585,21 +14101,24 @@
         <v>24.24533333333333</v>
       </c>
       <c r="T172">
+        <v>24.25</v>
+      </c>
+      <c r="U172">
         <v>0.001875000000001847</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>0.0001515506385794119</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>0.0001099989000110657</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0.0008247422680411898</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>24.24</v>
@@ -13656,21 +14175,24 @@
         <v>24.246</v>
       </c>
       <c r="T173">
+        <v>24.25333333333333</v>
+      </c>
+      <c r="U173">
         <v>0.002500000000001279</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>0.000110201945064281</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>2.749670039592367E-05</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.001236093943139727</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>24.29</v>
@@ -13727,21 +14249,24 @@
         <v>24.25066666666667</v>
       </c>
       <c r="T174">
+        <v>24.26666666666667</v>
+      </c>
+      <c r="U174">
         <v>0.003750000000000142</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>0.0002066058786260871</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>0.0001924716104377833</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.002062706270627102</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>24.27</v>
@@ -13798,21 +14323,24 @@
         <v>24.25133333333333</v>
       </c>
       <c r="T175">
+        <v>24.26666666666667</v>
+      </c>
+      <c r="U175">
         <v>0.003124999999997158</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>0.0001927923213571603</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>2.749065317764199E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.0008233841086866533</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>24.27</v>
@@ -13869,21 +14397,24 @@
         <v>24.25266666666666</v>
       </c>
       <c r="T176">
+        <v>24.27666666666667</v>
+      </c>
+      <c r="U176">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>0.0001789869339536843</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>5.497979492519178E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>24.26</v>
@@ -13940,21 +14471,24 @@
         <v>24.25333333333333</v>
       </c>
       <c r="T177">
+        <v>24.26666666666667</v>
+      </c>
+      <c r="U177">
         <v>0.006875000000004405</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>0.0002477837123506799</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>2.748838615684868E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>-0.0004120313143798349</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>24.29</v>
@@ -14011,21 +14545,24 @@
         <v>24.256</v>
       </c>
       <c r="T178">
+        <v>24.27333333333333</v>
+      </c>
+      <c r="U178">
         <v>0.01187499999999986</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>0.0002339599790812663</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>0.0001099505222650343</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.001236603462489549</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>24.27</v>
@@ -14082,21 +14619,24 @@
         <v>24.25733333333333</v>
       </c>
       <c r="T179">
+        <v>24.27333333333334</v>
+      </c>
+      <c r="U179">
         <v>0.01312500000000227</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>0.00020638698936426</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>5.496921723846526E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>-0.0008233841086866533</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>24.27</v>
@@ -14153,21 +14693,24 @@
         <v>24.26</v>
       </c>
       <c r="T180">
+        <v>24.27666666666667</v>
+      </c>
+      <c r="U180">
         <v>0.01187499999999986</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>0.0002201006960684815</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>0.0001099323915794148</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>24.26</v>
@@ -14224,21 +14767,24 @@
         <v>24.26066666666667</v>
       </c>
       <c r="T181">
+        <v>24.26666666666667</v>
+      </c>
+      <c r="U181">
         <v>0.01249999999999929</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>0.0001650391968091025</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>2.748007694419741E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.0004120313143798349</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>24.28</v>
@@ -14295,21 +14841,24 @@
         <v>24.26266666666667</v>
       </c>
       <c r="T182">
+        <v>24.27</v>
+      </c>
+      <c r="U182">
         <v>0.009375000000002132</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>0.0001787629603147156</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>8.243796543094817E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0008244023083263663</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>24.27</v>
@@ -14366,21 +14915,24 @@
         <v>24.26533333333333</v>
       </c>
       <c r="T183">
+        <v>24.27</v>
+      </c>
+      <c r="U183">
         <v>0.008124999999996163</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>9.623977452388743E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>0.0001099082266307061</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>-0.0004118616144975773</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>24.27</v>
@@ -14437,21 +14989,24 @@
         <v>24.266</v>
       </c>
       <c r="T184">
+        <v>24.27333333333333</v>
+      </c>
+      <c r="U184">
         <v>0.00562500000000199</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>9.623051332097177E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>2.747403703495799E-05</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>24.27</v>
@@ -14508,21 +15063,24 @@
         <v>24.26866666666666</v>
       </c>
       <c r="T185">
+        <v>24.27</v>
+      </c>
+      <c r="U185">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>9.622125390063019E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>0.0001098931289320593</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>24.29</v>
@@ -14579,21 +15137,24 @@
         <v>24.27133333333333</v>
       </c>
       <c r="T186">
+        <v>24.27666666666667</v>
+      </c>
+      <c r="U186">
         <v>0.002500000000001279</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>0.0002061685634173749</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>0.0001098810537594197</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0.0008240626287596697</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>24.29</v>
@@ -14650,21 +15211,24 @@
         <v>24.27266666666667</v>
       </c>
       <c r="T187">
+        <v>24.28333333333333</v>
+      </c>
+      <c r="U187">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>8.245042668098002E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>5.493449061999556E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>24.29</v>
@@ -14721,21 +15285,24 @@
         <v>24.276</v>
       </c>
       <c r="T188">
+        <v>24.29</v>
+      </c>
+      <c r="U188">
         <v>0.003750000000000142</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>8.244362916864922E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>0.0001373286824684072</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>24.28</v>
@@ -14792,21 +15359,24 @@
         <v>24.27533333333333</v>
       </c>
       <c r="T189">
+        <v>24.28666666666667</v>
+      </c>
+      <c r="U189">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>8.243683277675551E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-2.746196517822153E-05</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>-0.0004116920543432157</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>24.32</v>
@@ -14863,21 +15433,24 @@
         <v>24.27866666666667</v>
       </c>
       <c r="T190">
+        <v>24.29666666666667</v>
+      </c>
+      <c r="U190">
         <v>0.0068749999999973</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>8.243003750552091E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>0.0001373135967923655</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0.001647446457990087</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>24.25</v>
@@ -14934,21 +15507,24 @@
         <v>24.27733333333333</v>
       </c>
       <c r="T191">
+        <v>24.28333333333333</v>
+      </c>
+      <c r="U191">
         <v>0.005624999999998437</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>0</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-5.491789774281219E-05</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.002878289473684181</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>24.27</v>
@@ -15005,21 +15581,24 @@
         <v>24.278</v>
       </c>
       <c r="T192">
+        <v>24.28</v>
+      </c>
+      <c r="U192">
         <v>0.005624999999998437</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>2.74744144517225E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>2.746045694212995E-05</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0.0008247422680411898</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>24.25</v>
@@ -15076,21 +15655,24 @@
         <v>24.27533333333333</v>
       </c>
       <c r="T193">
+        <v>24.25666666666666</v>
+      </c>
+      <c r="U193">
         <v>0.003750000000000142</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>0</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-0.0001098388115441384</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.0008240626287597808</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>24.25</v>
@@ -15147,21 +15729,24 @@
         <v>24.274</v>
       </c>
       <c r="T194">
+        <v>24.25666666666666</v>
+      </c>
+      <c r="U194">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>0</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-5.49254387168796E-05</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>24.19</v>
@@ -15218,21 +15803,24 @@
         <v>24.26866666666666</v>
       </c>
       <c r="T195">
+        <v>24.23</v>
+      </c>
+      <c r="U195">
         <v>-0.006250000000001421</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-5.494731925770324E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-0.0002197138227459927</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.00247422680412368</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>24.19</v>
@@ -15289,21 +15877,24 @@
         <v>24.264</v>
       </c>
       <c r="T196">
+        <v>24.21</v>
+      </c>
+      <c r="U196">
         <v>-0.01374999999999815</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-8.242550794712589E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-0.0001922918440787624</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>24.21</v>
@@ -15360,21 +15951,24 @@
         <v>24.25933333333334</v>
       </c>
       <c r="T197">
+        <v>24.19666666666667</v>
+      </c>
+      <c r="U197">
         <v>-0.01937500000000014</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-5.495486831441632E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-0.0001923288273434354</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.0008267879288961222</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>24.21</v>
@@ -15431,21 +16025,24 @@
         <v>24.25533333333333</v>
       </c>
       <c r="T198">
+        <v>24.20333333333333</v>
+      </c>
+      <c r="U198">
         <v>-0.02874999999999872</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-2.747894425880748E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0001648849927178286</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>24.21</v>
@@ -15502,21 +16099,24 @@
         <v>24.25133333333333</v>
       </c>
       <c r="T199">
+        <v>24.21</v>
+      </c>
+      <c r="U199">
         <v>-0.02999999999999758</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-6.869924843033726E-05</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-0.0001649121842619561</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>24.2</v>
@@ -15573,21 +16173,24 @@
         <v>24.24666666666667</v>
       </c>
       <c r="T200">
+        <v>24.20666666666667</v>
+      </c>
+      <c r="U200">
         <v>-0.03437500000000071</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-4.122238100467968E-05</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-0.0001924292822386153</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>-0.0004130524576622108</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>24.2</v>
@@ -15644,21 +16247,24 @@
         <v>24.24066666666667</v>
       </c>
       <c r="T201">
+        <v>24.20333333333333</v>
+      </c>
+      <c r="U201">
         <v>-0.03625000000000256</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-6.870680059900547E-05</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-0.0002474566950785295</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>24.19</v>
@@ -15715,21 +16321,24 @@
         <v>24.234</v>
       </c>
       <c r="T202">
+        <v>24.19666666666667</v>
+      </c>
+      <c r="U202">
         <v>-0.03749999999999787</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-0.0001099384344769305</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-0.0002750199389455199</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.0004132231404957443</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>24.2</v>
@@ -15786,21 +16395,24 @@
         <v>24.228</v>
       </c>
       <c r="T203">
+        <v>24.19666666666667</v>
+      </c>
+      <c r="U203">
         <v>-0.03062499999999702</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-5.497526113229512E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-0.0002475860361476068</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0.0004133939644479501</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>24.21</v>
@@ -15857,21 +16469,24 @@
         <v>24.22333333333333</v>
       </c>
       <c r="T204">
+        <v>24.2</v>
+      </c>
+      <c r="U204">
         <v>-0.02312499999999673</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-0.0001099565671560665</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-0.0001926146056904221</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0004132231404958553</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>24.22</v>
@@ -15928,21 +16543,24 @@
         <v>24.21666666666667</v>
       </c>
       <c r="T205">
+        <v>24.21</v>
+      </c>
+      <c r="U205">
         <v>-0.01812499999999773</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-6.873041183275141E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-0.0002752167331774302</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.0004130524576619887</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>24.21</v>
@@ -15999,21 +16617,24 @@
         <v>24.214</v>
       </c>
       <c r="T206">
+        <v>24.21333333333333</v>
+      </c>
+      <c r="U206">
         <v>-0.01125000000000043</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-8.248216323203383E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0001101169993117379</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0004128819157720454</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>24.26</v>
@@ -16070,21 +16691,24 @@
         <v>24.21333333333333</v>
       </c>
       <c r="T207">
+        <v>24.23</v>
+      </c>
+      <c r="U207">
         <v>-0.005624999999998437</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>0</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-2.753228160023991E-05</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.00206526228831061</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>24.26</v>
@@ -16141,21 +16765,24 @@
         <v>24.214</v>
       </c>
       <c r="T208">
+        <v>24.24333333333334</v>
+      </c>
+      <c r="U208">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-4.124448355047328E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>2.753303964775355E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>24.25</v>
@@ -16212,21 +16839,24 @@
         <v>24.214</v>
       </c>
       <c r="T209">
+        <v>24.25666666666666</v>
+      </c>
+      <c r="U209">
         <v>0.008749999999999147</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-2.749745648533697E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>0</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0004122011541632942</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>24.22</v>
@@ -16283,21 +16913,24 @@
         <v>24.216</v>
       </c>
       <c r="T210">
+        <v>24.24333333333334</v>
+      </c>
+      <c r="U210">
         <v>0.01437500000000114</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-6.874553154034846E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>8.259684480038665E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>-0.001237113402061896</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>24.23</v>
@@ -16354,21 +16987,24 @@
         <v>24.21866666666667</v>
       </c>
       <c r="T211">
+        <v>24.23333333333333</v>
+      </c>
+      <c r="U211">
         <v>0.015625</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-4.125015468803284E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>0.0001101200308335493</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.0004128819157720454</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>24.17</v>
@@ -16425,21 +17061,24 @@
         <v>24.216</v>
       </c>
       <c r="T212">
+        <v>24.20666666666667</v>
+      </c>
+      <c r="U212">
         <v>0.01187499999999631</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-0.0001512568065563658</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-0.000110107905747614</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>-0.002476269087907546</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>24.18</v>
@@ -16496,21 +17135,24 @@
         <v>24.214</v>
       </c>
       <c r="T213">
+        <v>24.19333333333333</v>
+      </c>
+      <c r="U213">
         <v>0.0087500000000027</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-0.0001237742907044259</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-8.259002312527297E-05</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0004137360364087073</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>24.18</v>
@@ -16567,21 +17209,24 @@
         <v>24.212</v>
       </c>
       <c r="T214">
+        <v>24.17666666666667</v>
+      </c>
+      <c r="U214">
         <v>0.006875000000000853</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-0.0001237896126760063</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-8.259684480049767E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>24.18</v>
@@ -16638,21 +17283,24 @@
         <v>24.21066666666667</v>
       </c>
       <c r="T215">
+        <v>24.18</v>
+      </c>
+      <c r="U215">
         <v>-0.001250000000002416</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-0.0001238049384415518</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-5.506911173513984E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>24.19</v>
@@ -16709,21 +17357,24 @@
         <v>24.21</v>
       </c>
       <c r="T216">
+        <v>24.18333333333333</v>
+      </c>
+      <c r="U216">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-0.0001375780755579203</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-2.753607225480792E-05</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0.0004135649296941324</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>24.18</v>
@@ -16780,21 +17431,24 @@
         <v>24.20933333333333</v>
       </c>
       <c r="T217">
+        <v>24.18333333333333</v>
+      </c>
+      <c r="U217">
         <v>-0.01687499999999886</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-0.0001513567064778121</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-2.753683051071043E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>-0.0004133939644481721</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>24.17</v>
@@ -16851,21 +17505,24 @@
         <v>24.20733333333333</v>
       </c>
       <c r="T218">
+        <v>24.18</v>
+      </c>
+      <c r="U218">
         <v>-0.02187499999999787</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-0.0001651414023259301</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-8.261276642607118E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>-0.0004135649296939103</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>24.19</v>
@@ -16922,21 +17579,24 @@
         <v>24.206</v>
       </c>
       <c r="T219">
+        <v>24.18</v>
+      </c>
+      <c r="U219">
         <v>-0.02625000000000099</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-0.0001238765088846794</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-5.507972790608218E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.0008274720728174145</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>24.18</v>
@@ -16993,21 +17653,24 @@
         <v>24.20333333333333</v>
       </c>
       <c r="T220">
+        <v>24.18</v>
+      </c>
+      <c r="U220">
         <v>-0.02312500000000384</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-0.0001927206651615165</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-0.0001101655236994681</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0004133939644481721</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>24.19</v>
@@ -17064,21 +17727,24 @@
         <v>24.202</v>
       </c>
       <c r="T221">
+        <v>24.18666666666667</v>
+      </c>
+      <c r="U221">
         <v>-0.01999999999999957</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-8.261049153235334E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-5.508883073945814E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0.0004135649296941324</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>24.17</v>
@@ -17135,21 +17801,24 @@
         <v>24.19600000000001</v>
       </c>
       <c r="T222">
+        <v>24.18</v>
+      </c>
+      <c r="U222">
         <v>-0.01875000000000071</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-0.0001376955276494174</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>-0.0002479133955870516</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>-0.0008267879288962332</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>24.17</v>
@@ -17206,21 +17875,24 @@
         <v>24.19</v>
       </c>
       <c r="T223">
+        <v>24.17666666666667</v>
+      </c>
+      <c r="U223">
         <v>-0.01437499999999758</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-0.000110171592254904</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-0.0002479748718799968</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>24.18</v>
@@ -17277,21 +17949,24 @@
         <v>24.18533333333333</v>
       </c>
       <c r="T224">
+        <v>24.17333333333334</v>
+      </c>
+      <c r="U224">
         <v>-0.01062499999999744</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-9.641076495048306E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>-0.0001929171834090804</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0.0004137360364087073</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>24.22</v>
@@ -17348,21 +18023,24 @@
         <v>24.18533333333334</v>
       </c>
       <c r="T225">
+        <v>24.19</v>
+      </c>
+      <c r="U225">
         <v>-0.003750000000000142</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>4.132288323543953E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.001654259718775863</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>24.25</v>
@@ -17419,21 +18097,24 @@
         <v>24.18666666666667</v>
       </c>
       <c r="T226">
+        <v>24.21666666666667</v>
+      </c>
+      <c r="U226">
         <v>0.004374999999996021</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>8.264235145039045E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>5.512983075139921E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0.001238645747316358</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>24.24</v>
@@ -17490,21 +18171,24 @@
         <v>24.19133333333333</v>
       </c>
       <c r="T227">
+        <v>24.23666666666666</v>
+      </c>
+      <c r="U227">
         <v>0.01000000000000156</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>4.131776112825669E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>0.0001929437706724713</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>-0.0004123711340207059</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>24.26</v>
@@ -17561,21 +18245,24 @@
         <v>24.19666666666667</v>
       </c>
       <c r="T228">
+        <v>24.25</v>
+      </c>
+      <c r="U228">
         <v>0.01437499999999758</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>6.88600900689007E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>0.0002204646292061074</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0.0008250825082509738</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>24.26</v>
@@ -17632,21 +18319,24 @@
         <v>24.202</v>
       </c>
       <c r="T229">
+        <v>24.25333333333333</v>
+      </c>
+      <c r="U229">
         <v>0.01812499999999773</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>6.885534868339427E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>0.0002204160352665685</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>24.23</v>
@@ -17703,21 +18393,24 @@
         <v>24.20533333333334</v>
       </c>
       <c r="T230">
+        <v>24.25</v>
+      </c>
+      <c r="U230">
         <v>0.0224999999999973</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>4.131036477073025E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>0.0001377296642151027</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.001236603462489771</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>24.26</v>
@@ -17774,21 +18467,24 @@
         <v>24.21</v>
       </c>
       <c r="T231">
+        <v>24.25</v>
+      </c>
+      <c r="U231">
         <v>0.02874999999999517</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>8.261731658931737E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>0.0001927949763136372</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.001238134543953828</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>24.27</v>
@@ -17845,21 +18541,24 @@
         <v>24.216</v>
       </c>
       <c r="T232">
+        <v>24.25333333333333</v>
+      </c>
+      <c r="U232">
         <v>0.03500000000000014</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>0.0001101473220435079</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>0.0002478314745972821</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0.0004122011541631831</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>24.27</v>
@@ -17916,21 +18615,24 @@
         <v>24.22266666666667</v>
       </c>
       <c r="T233">
+        <v>24.26666666666667</v>
+      </c>
+      <c r="U233">
         <v>0.03562500000000313</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>9.636829207826381E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>0.0002753000770838732</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>24.3</v>
@@ -17987,21 +18689,24 @@
         <v>24.23</v>
       </c>
       <c r="T234">
+        <v>24.28</v>
+      </c>
+      <c r="U234">
         <v>0.03375000000000128</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>0.000123890150732997</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>0.0003027467385920968</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>0.001236093943139727</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>24.29</v>
@@ -18058,21 +18763,24 @@
         <v>24.23733333333333</v>
       </c>
       <c r="T235">
+        <v>24.28666666666667</v>
+      </c>
+      <c r="U235">
         <v>0.03375000000000128</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>9.634706967265316E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>0.0003026551107441211</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>-0.0004115226337448874</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>24.34</v>
@@ -18129,21 +18837,24 @@
         <v>24.24733333333333</v>
       </c>
       <c r="T236">
+        <v>24.31</v>
+      </c>
+      <c r="U236">
         <v>0.03375000000000483</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>0.0001789130345026813</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>0.0004125866431952119</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0.002058460271716855</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>24.39</v>
@@ -18200,21 +18911,24 @@
         <v>24.262</v>
       </c>
       <c r="T237">
+        <v>24.34</v>
+      </c>
+      <c r="U237">
         <v>0.03749999999999787</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>0.0001788810303546828</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>0.0006048775123035366</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0.002054231717337762</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>24.4</v>
@@ -18271,21 +18985,24 @@
         <v>24.27733333333333</v>
       </c>
       <c r="T238">
+        <v>24.37666666666667</v>
+      </c>
+      <c r="U238">
         <v>0.04437500000000227</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>0.0001926066559359008</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>0.0006319896683431026</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0.0004100041000409949</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>24.39</v>
@@ -18342,21 +19059,24 @@
         <v>24.29133333333333</v>
       </c>
       <c r="T239">
+        <v>24.39333333333333</v>
+      </c>
+      <c r="U239">
         <v>0.04687499999999645</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>0.0001925695657556403</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>0.0005766695957820644</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>-0.0004098360655736544</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>24.42</v>
@@ -18413,21 +19133,24 @@
         <v>24.30466666666667</v>
       </c>
       <c r="T240">
+        <v>24.40333333333334</v>
+      </c>
+      <c r="U240">
         <v>0.05062500000000014</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>0.0002750464140823805</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>0.0005488926091610224</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0.001230012300122985</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>24.45</v>
@@ -18484,21 +19207,24 @@
         <v>24.318</v>
       </c>
       <c r="T241">
+        <v>24.42</v>
+      </c>
+      <c r="U241">
         <v>0.05874999999999986</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>0.000302467862789646</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>0.0005485914913458956</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.001228501228501155</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>24.39</v>
@@ -18555,21 +19281,24 @@
         <v>24.328</v>
       </c>
       <c r="T242">
+        <v>24.42</v>
+      </c>
+      <c r="U242">
         <v>0.06125000000000469</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>0.0003023764036449439</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>0.0004112180277981992</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>-0.002453987730061336</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>24.39</v>
@@ -18626,21 +19355,24 @@
         <v>24.33666666666667</v>
       </c>
       <c r="T243">
+        <v>24.41</v>
+      </c>
+      <c r="U243">
         <v>0.06437499999999829</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>0.0002885447725304857</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>0.0003562424641019302</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>24.38</v>
@@ -18697,21 +19429,24 @@
         <v>24.34466666666667</v>
       </c>
       <c r="T244">
+        <v>24.38666666666667</v>
+      </c>
+      <c r="U244">
         <v>0.06187499999999702</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>0.0002747252747252737</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>0.0003287220928640533</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>-0.0004100041000411059</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>24.4</v>
@@ -18768,21 +19503,24 @@
         <v>24.356</v>
       </c>
       <c r="T245">
+        <v>24.39</v>
+      </c>
+      <c r="U245">
         <v>0.05437500000000028</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>0.0003021148036252974</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>0.0004655365993919691</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0.0008203445447088065</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>24.38</v>
@@ -18839,21 +19577,24 @@
         <v>24.364</v>
       </c>
       <c r="T246">
+        <v>24.38666666666667</v>
+      </c>
+      <c r="U246">
         <v>0.04250000000000043</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>0.0002608385272233615</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>0.0003284611594678299</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>-0.0008196721311475308</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>24.4</v>
@@ -18910,21 +19651,24 @@
         <v>24.37266666666666</v>
       </c>
       <c r="T247">
+        <v>24.39333333333333</v>
+      </c>
+      <c r="U247">
         <v>0.03500000000000369</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>0.0003019447990006974</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>0.0003557160838394413</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0.0008203445447088065</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>24.41</v>
@@ -18981,21 +19725,24 @@
         <v>24.382</v>
       </c>
       <c r="T248">
+        <v>24.39666666666666</v>
+      </c>
+      <c r="U248">
         <v>0.02499999999999858</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>0.0003292948973010468</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>0.0003829426406631864</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0.0004098360655737654</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>24.38</v>
@@ -19052,21 +19799,24 @@
         <v>24.38733333333333</v>
       </c>
       <c r="T249">
+        <v>24.39666666666666</v>
+      </c>
+      <c r="U249">
         <v>0.009374999999998579</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>0.0002606059774785674</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>0.0002187406009896975</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>-0.001229004506349884</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>24.36</v>
@@ -19123,21 +19873,24 @@
         <v>24.392</v>
       </c>
       <c r="T250">
+        <v>24.38333333333333</v>
+      </c>
+      <c r="U250">
         <v>0.001874999999998295</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>0.0002468255491865357</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>0.0001913561685027432</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0008203445447088065</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>24.34</v>
@@ -19194,21 +19947,24 @@
         <v>24.392</v>
       </c>
       <c r="T251">
+        <v>24.36</v>
+      </c>
+      <c r="U251">
         <v>-0.007499999999996732</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>0.0002056372011407515</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>0</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>-0.0008210180623973162</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>24.35</v>
@@ -19265,21 +20021,24 @@
         <v>24.38933333333334</v>
       </c>
       <c r="T252">
+        <v>24.35</v>
+      </c>
+      <c r="U252">
         <v>-0.01187499999999986</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>0.0002467139078112801</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-0.0001093254618999007</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0.0004108463434675524</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>24.34</v>
@@ -19336,21 +20095,24 @@
         <v>24.38533333333333</v>
       </c>
       <c r="T253">
+        <v>24.34333333333333</v>
+      </c>
+      <c r="U253">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>0.0002329501075681861</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>-0.0001640061228954659</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>-0.000410677618069899</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>24.35</v>
@@ -19407,21 +20169,24 @@
         <v>24.38266666666667</v>
       </c>
       <c r="T254">
+        <v>24.34666666666667</v>
+      </c>
+      <c r="U254">
         <v>-0.01687499999999886</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>0.0002328958544535187</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>-0.0001093553502103939</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0.0004108463434675524</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>24.36</v>
@@ -19478,21 +20243,24 @@
         <v>24.37866666666667</v>
       </c>
       <c r="T255">
+        <v>24.35</v>
+      </c>
+      <c r="U255">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>0.0001917519277918611</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-0.0001640509651665845</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>0.000410677618069677</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>24.36</v>
@@ -19549,21 +20317,24 @@
         <v>24.37266666666666</v>
       </c>
       <c r="T256">
+        <v>24.35666666666667</v>
+      </c>
+      <c r="U256">
         <v>-0.0224999999999973</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>0.0001506333447449659</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>-0.0002461168234523248</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>24.35</v>
@@ -19620,21 +20391,24 @@
         <v>24.37</v>
       </c>
       <c r="T257">
+        <v>24.35666666666667</v>
+      </c>
+      <c r="U257">
         <v>-0.01999999999999957</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>0.0001506106577577881</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>-0.0001094121830463868</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>-0.0004105090311986581</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>24.37</v>
@@ -19691,21 +20465,24 @@
         <v>24.36866666666667</v>
       </c>
       <c r="T258">
+        <v>24.36</v>
+      </c>
+      <c r="U258">
         <v>-0.01750000000000185</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>0.000150587977603589</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-5.471207769125463E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>0.000821355236139576</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>24.38</v>
@@ -19762,21 +20539,24 @@
         <v>24.36866666666667</v>
       </c>
       <c r="T259">
+        <v>24.36666666666667</v>
+      </c>
+      <c r="U259">
         <v>-0.01187499999999631</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>0.000164253059213193</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>0</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.0004103405826836326</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>24.39</v>
@@ -19833,21 +20613,24 @@
         <v>24.368</v>
       </c>
       <c r="T260">
+        <v>24.38</v>
+      </c>
+      <c r="U260">
         <v>-0.007499999999996732</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>0.0002189681127684473</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>-2.735753563321008E-05</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>0.0004101722723544032</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>24.32</v>
@@ -19904,21 +20687,24 @@
         <v>24.364</v>
       </c>
       <c r="T261">
+        <v>24.36333333333333</v>
+      </c>
+      <c r="U261">
         <v>-0.004999999999999005</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>8.209506608647388E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>-0.0001641497045306028</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>-0.002870028700286964</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>24.28</v>
@@ -19975,21 +20761,24 @@
         <v>24.356</v>
       </c>
       <c r="T262">
+        <v>24.33</v>
+      </c>
+      <c r="U262">
         <v>-0.007500000000000284</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>1.368138783974793E-05</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>-0.0003283533081593903</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>-0.001644736842105199</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>24.32</v>
@@ -20046,21 +20835,24 @@
         <v>24.35</v>
       </c>
       <c r="T263">
+        <v>24.30666666666667</v>
+      </c>
+      <c r="U263">
         <v>-0.007500000000000284</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>6.840600331092794E-05</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>-0.000246345869600928</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0.001647446457990087</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>24.32</v>
@@ -20117,21 +20909,24 @@
         <v>24.346</v>
       </c>
       <c r="T264">
+        <v>24.30666666666667</v>
+      </c>
+      <c r="U264">
         <v>-0.006875000000000853</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>2.736052969987135E-05</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>-0.0001642710472279374</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>24.36</v>
@@ -20188,21 +20983,24 @@
         <v>24.346</v>
       </c>
       <c r="T265">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="U265">
         <v>-0.004374999999999574</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>9.575923392635133E-05</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>0</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>0.00164473684210531</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>24.34</v>
@@ -20259,21 +21057,24 @@
         <v>24.346</v>
       </c>
       <c r="T266">
+        <v>24.34</v>
+      </c>
+      <c r="U266">
         <v>-0.0068749999999973</v>
-      </c>
-      <c r="U266">
-        <v>0</v>
       </c>
       <c r="V266">
         <v>0</v>
       </c>
       <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
         <v>-0.0008210180623973162</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>24.35</v>
@@ -20330,21 +21131,24 @@
         <v>24.346</v>
       </c>
       <c r="T267">
+        <v>24.35</v>
+      </c>
+      <c r="U267">
         <v>-0.01125000000000043</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>-5.471432284209765E-05</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>0</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>0.0004108463434675524</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>24.34</v>
@@ -20401,21 +21205,24 @@
         <v>24.346</v>
       </c>
       <c r="T268">
+        <v>24.34333333333333</v>
+      </c>
+      <c r="U268">
         <v>-0.01687499999999886</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>-8.207597499410024E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>0</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>-0.000410677618069899</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>24.34</v>
@@ -20472,21 +21279,24 @@
         <v>24.34533333333333</v>
       </c>
       <c r="T269">
+        <v>24.34333333333333</v>
+      </c>
+      <c r="U269">
         <v>-0.01437500000000114</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>-6.84022600107026E-05</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-2.738300610649613E-05</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>24.35</v>
@@ -20543,21 +21353,24 @@
         <v>24.34466666666667</v>
       </c>
       <c r="T270">
+        <v>24.34333333333333</v>
+      </c>
+      <c r="U270">
         <v>-0.005624999999998437</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>-9.576971487967878E-05</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-2.738375595601195E-05</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0.0004108463434675524</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>24.36</v>
@@ -20614,21 +21427,24 @@
         <v>24.34466666666667</v>
       </c>
       <c r="T271">
+        <v>24.35</v>
+      </c>
+      <c r="U271">
         <v>-0.0006249999999994316</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>-0.0001231442840528008</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0.000410677618069677</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>24.36</v>
@@ -20685,21 +21501,24 @@
         <v>24.34533333333333</v>
       </c>
       <c r="T272">
+        <v>24.35666666666667</v>
+      </c>
+      <c r="U272">
         <v>0.004374999999999574</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>-4.105315014513167E-05</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>2.738450584649499E-05</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>24.32</v>
@@ -20756,21 +21575,24 @@
         <v>24.342</v>
       </c>
       <c r="T273">
+        <v>24.34666666666666</v>
+      </c>
+      <c r="U273">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>-9.579461634268149E-05</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>-0.0001369187797798377</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>-0.001642036124794743</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>24.34</v>
@@ -20827,21 +21649,24 @@
         <v>24.33933333333334</v>
       </c>
       <c r="T274">
+        <v>24.34</v>
+      </c>
+      <c r="U274">
         <v>0.003124999999997158</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>-5.474502504576595E-05</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>-0.0001095500232791702</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>0.000822368421052655</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>24.39</v>
@@ -20898,21 +21723,24 @@
         <v>24.33933333333334</v>
       </c>
       <c r="T275">
+        <v>24.35</v>
+      </c>
+      <c r="U275">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>-1.368700555692826E-05</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>0</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0.002054231717337762</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>24.4</v>
@@ -20969,21 +21797,24 @@
         <v>24.34466666666667</v>
       </c>
       <c r="T276">
+        <v>24.37666666666667</v>
+      </c>
+      <c r="U276">
         <v>0.01437499999999758</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>2.737438578725992E-05</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>0.0002191240516036252</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>0.0004100041000409949</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>24.41</v>
@@ -21040,21 +21871,24 @@
         <v>24.35333333333334</v>
       </c>
       <c r="T277">
+        <v>24.4</v>
+      </c>
+      <c r="U277">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>1.36868182254446E-05</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>0.0003559985760057671</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>0.0004098360655737654</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>24.38</v>
@@ -21111,21 +21945,24 @@
         <v>24.35733333333333</v>
       </c>
       <c r="T278">
+        <v>24.39666666666666</v>
+      </c>
+      <c r="U278">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-4.105989269687083E-05</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>0.0001642485628250423</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>-0.001229004506349884</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>24.35</v>
@@ -21182,21 +22019,24 @@
         <v>24.35933333333333</v>
       </c>
       <c r="T279">
+        <v>24.38</v>
+      </c>
+      <c r="U279">
         <v>0.01187500000000341</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-4.106157868088989E-05</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>8.211079483255723E-05</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>-0.001230516817063099</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>24.34</v>
@@ -21253,21 +22093,24 @@
         <v>24.358</v>
       </c>
       <c r="T280">
+        <v>24.35666666666667</v>
+      </c>
+      <c r="U280">
         <v>0.008124999999999716</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-2.737550986875448E-05</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>-5.473603546890526E-05</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>-0.000410677618069899</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>24.32</v>
@@ -21324,21 +22167,24 @@
         <v>24.35666666666667</v>
       </c>
       <c r="T281">
+        <v>24.33666666666667</v>
+      </c>
+      <c r="U281">
         <v>0.01062500000000099</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-2.737625930793186E-05</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-5.473903166641758E-05</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>-0.0008216926869351049</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>24.32</v>
@@ -21395,21 +22241,24 @@
         <v>24.35466666666667</v>
       </c>
       <c r="T282">
+        <v>24.32666666666666</v>
+      </c>
+      <c r="U282">
         <v>0.009374999999998579</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>-4.10655131820592E-05</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-8.211304228833427E-05</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>24.32</v>
@@ -21466,21 +22315,24 @@
         <v>24.35333333333334</v>
       </c>
       <c r="T283">
+        <v>24.32</v>
+      </c>
+      <c r="U283">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>-2.737813308495429E-05</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>-5.474652359571675E-05</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>24.32</v>
@@ -21537,21 +22389,24 @@
         <v>24.352</v>
       </c>
       <c r="T284">
+        <v>24.32</v>
+      </c>
+      <c r="U284">
         <v>-0.006249999999997868</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>-4.106832400174731E-05</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>-5.47495209418658E-05</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>24.32</v>
@@ -21608,21 +22463,24 @@
         <v>24.35</v>
       </c>
       <c r="T285">
+        <v>24.32</v>
+      </c>
+      <c r="U285">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>-5.476001423754262E-05</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>-8.212877792357354E-05</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>24.28</v>
@@ -21679,21 +22537,24 @@
         <v>24.34466666666667</v>
       </c>
       <c r="T286">
+        <v>24.30666666666667</v>
+      </c>
+      <c r="U286">
         <v>-0.02437499999999915</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>-0.0001095260261219089</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>-0.0002190280629705832</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>-0.001644736842105199</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>24.34</v>
@@ -21750,21 +22611,24 @@
         <v>24.34333333333333</v>
       </c>
       <c r="T287">
+        <v>24.31333333333333</v>
+      </c>
+      <c r="U287">
         <v>-0.02437499999999915</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>-1.369225292335852E-05</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>-5.476901169343407E-05</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>0.00247116968698502</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>24.32</v>
@@ -21821,21 +22685,24 @@
         <v>24.34333333333334</v>
       </c>
       <c r="T288">
+        <v>24.31333333333333</v>
+      </c>
+      <c r="U288">
         <v>-0.0243750000000027</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>-6.846220201839337E-05</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>-0.0008216926869351049</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>24.31</v>
@@ -21892,21 +22759,24 @@
         <v>24.34133333333333</v>
       </c>
       <c r="T289">
+        <v>24.32333333333333</v>
+      </c>
+      <c r="U289">
         <v>-0.02500000000000213</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>-9.585364517716854E-05</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>-8.215801725330873E-05</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>-0.0004111842105263275</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>24.35</v>
@@ -21963,21 +22833,24 @@
         <v>24.33866666666666</v>
       </c>
       <c r="T290">
+        <v>24.32666666666666</v>
+      </c>
+      <c r="U290">
         <v>-0.02187499999999787</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>-5.47787622737772E-05</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>-0.0001095530236635556</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>0.001645413410119367</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>24.33</v>
@@ -22034,21 +22907,24 @@
         <v>24.334</v>
       </c>
       <c r="T291">
+        <v>24.33</v>
+      </c>
+      <c r="U291">
         <v>-0.01687499999999531</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>1.369544078766438E-05</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>-0.0001917387969759821</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>-0.000821355236139798</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>24.35</v>
@@ -22105,21 +22981,24 @@
         <v>24.33</v>
       </c>
       <c r="T292">
+        <v>24.34333333333333</v>
+      </c>
+      <c r="U292">
         <v>-0.01000000000000156</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>9.586677257655829E-05</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>-0.0001643790581080662</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>0.0008220304151254076</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>24.35</v>
@@ -22176,21 +23055,24 @@
         <v>24.328</v>
       </c>
       <c r="T293">
+        <v>24.34333333333333</v>
+      </c>
+      <c r="U293">
         <v>-0.002500000000001279</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>4.108182129414217E-05</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>-8.220304151251856E-05</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>24.35</v>
@@ -22247,21 +23129,24 @@
         <v>24.328</v>
       </c>
       <c r="T294">
+        <v>24.35</v>
+      </c>
+      <c r="U294">
         <v>0.008124999999999716</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>4.108013364745311E-05</v>
-      </c>
-      <c r="V294">
-        <v>0</v>
       </c>
       <c r="W294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:23">
+      <c r="X294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>24.33</v>
@@ -22318,21 +23203,24 @@
         <v>24.32733333333333</v>
       </c>
       <c r="T295">
+        <v>24.34333333333333</v>
+      </c>
+      <c r="U295">
         <v>0.008124999999999716</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>-4.107844613931988E-05</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>-2.740326646943902E-05</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>-0.000821355236139798</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>24.27</v>
@@ -22389,21 +23277,24 @@
         <v>24.324</v>
       </c>
       <c r="T296">
+        <v>24.31666666666667</v>
+      </c>
+      <c r="U296">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>-9.585364517727957E-05</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>-0.0001370200871446681</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>-0.002466091245376001</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>24.28</v>
@@ -22460,21 +23351,24 @@
         <v>24.32133333333333</v>
       </c>
       <c r="T297">
+        <v>24.29333333333333</v>
+      </c>
+      <c r="U297">
         <v>0.005000000000002558</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>-9.586283397911011E-05</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>-0.0001096310913776266</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>0.0004120313143800569</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>24.27</v>
@@ -22531,21 +23425,24 @@
         <v>24.318</v>
       </c>
       <c r="T298">
+        <v>24.27333333333333</v>
+      </c>
+      <c r="U298">
         <v>-0.001875000000001847</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>-9.587202454319765E-05</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>-0.0001370538895892892</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>-0.0004118616144975773</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>24.29</v>
@@ -22602,21 +23499,24 @@
         <v>24.316</v>
       </c>
       <c r="T299">
+        <v>24.28</v>
+      </c>
+      <c r="U299">
         <v>-0.004999999999999005</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>-6.848658347835546E-05</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>-8.224360555975085E-05</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>0.0008240626287596697</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>24.31</v>
@@ -22673,21 +23573,24 @@
         <v>24.31533333333333</v>
       </c>
       <c r="T300">
+        <v>24.29</v>
+      </c>
+      <c r="U300">
         <v>-0.009375000000002132</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>-5.479301936928138E-05</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>-2.741679004225617E-05</v>
       </c>
-      <c r="W300">
+      <c r="X300">
         <v>0.0008233841086866533</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>24.31</v>
@@ -22744,21 +23647,24 @@
         <v>24.31733333333333</v>
       </c>
       <c r="T301">
+        <v>24.30333333333333</v>
+      </c>
+      <c r="U301">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>-6.849502726113954E-05</v>
       </c>
-      <c r="V301">
+      <c r="W301">
         <v>8.225262522976173E-05</v>
       </c>
-      <c r="W301">
+      <c r="X301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>24.25</v>
@@ -22815,21 +23721,24 @@
         <v>24.31133333333333</v>
       </c>
       <c r="T302">
+        <v>24.29</v>
+      </c>
+      <c r="U302">
         <v>-0.02437499999999915</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>-0.0001506993821325242</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>-0.0002467375808751227</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>-0.00246812011517894</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>24.25</v>
@@ -22886,21 +23795,24 @@
         <v>24.30666666666666</v>
       </c>
       <c r="T303">
+        <v>24.27</v>
+      </c>
+      <c r="U303">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>-9.591406100128985E-05</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>-0.0001919543697042059</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>24.25</v>
@@ -22957,21 +23869,24 @@
         <v>24.30266666666666</v>
       </c>
       <c r="T304">
+        <v>24.25</v>
+      </c>
+      <c r="U304">
         <v>-0.02687500000000043</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <v>-0.0001233299075025229</v>
       </c>
-      <c r="V304">
+      <c r="W304">
         <v>-0.0001645639056501169</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>24.26</v>
@@ -23028,21 +23943,24 @@
         <v>24.29666666666667</v>
       </c>
       <c r="T305">
+        <v>24.25333333333333</v>
+      </c>
+      <c r="U305">
         <v>-0.02624999999999744</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <v>-0.0001781651728203215</v>
       </c>
-      <c r="V305">
+      <c r="W305">
         <v>-0.0002468864870794896</v>
       </c>
-      <c r="W305">
+      <c r="X305">
         <v>0.0004123711340207059</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>24.26</v>
@@ -23099,21 +24017,24 @@
         <v>24.292</v>
       </c>
       <c r="T306">
+        <v>24.25666666666667</v>
+      </c>
+      <c r="U306">
         <v>-0.02187500000000142</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>-0.0001919043767905082</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>-0.0001920702428317433</v>
       </c>
-      <c r="W306">
+      <c r="X306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>24.24</v>
@@ -23170,21 +24091,24 @@
         <v>24.28466666666667</v>
       </c>
       <c r="T307">
+        <v>24.25333333333333</v>
+      </c>
+      <c r="U307">
         <v>-0.02250000000000085</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>-0.0002330714706808568</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>-0.000301882649980767</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>-0.0008244023083265883</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>24.25</v>
@@ -23241,21 +24165,24 @@
         <v>24.278</v>
       </c>
       <c r="T308">
+        <v>24.25</v>
+      </c>
+      <c r="U308">
         <v>-0.02374999999999616</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>-0.0001782726749129937</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>-0.0002745216460318112</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>0.0004125412541253759</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>24.29</v>
@@ -23312,21 +24239,24 @@
         <v>24.274</v>
       </c>
       <c r="T309">
+        <v>24.26</v>
+      </c>
+      <c r="U309">
         <v>-0.0224999999999973</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <v>-8.229436695073034E-05</v>
       </c>
-      <c r="V309">
+      <c r="W309">
         <v>-0.0001647582173159856</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>0.00164948453608238</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>24.28</v>
@@ -23383,21 +24313,24 @@
         <v>24.27066666666666</v>
       </c>
       <c r="T310">
+        <v>24.27333333333334</v>
+      </c>
+      <c r="U310">
         <v>-0.01437499999999758</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>-8.230113987073295E-05</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>-0.0001373211392163842</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>-0.0004116920543432157</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311">
         <v>24.27</v>
@@ -23454,21 +24387,24 @@
         <v>24.27066666666667</v>
       </c>
       <c r="T311">
+        <v>24.28</v>
+      </c>
+      <c r="U311">
         <v>-0.008124999999996163</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <v>-6.858992825486965E-05</v>
       </c>
-      <c r="V311">
+      <c r="W311">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W311">
+      <c r="X311">
         <v>-0.0004118616144975773</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>24.28</v>
@@ -23525,21 +24461,24 @@
         <v>24.27066666666667</v>
       </c>
       <c r="T312">
+        <v>24.27666666666667</v>
+      </c>
+      <c r="U312">
         <v>-0.004999999999999005</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <v>-5.487570652473739E-05</v>
       </c>
-      <c r="V312">
+      <c r="W312">
         <v>0</v>
       </c>
-      <c r="W312">
+      <c r="X312">
         <v>0.0004120313143800569</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313">
         <v>24.3</v>
@@ -23596,21 +24535,24 @@
         <v>24.27266666666667</v>
       </c>
       <c r="T313">
+        <v>24.28333333333333</v>
+      </c>
+      <c r="U313">
         <v>-0.001250000000002416</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <v>-2.743935901650119E-05</v>
       </c>
-      <c r="V313">
+      <c r="W313">
         <v>8.240399934078546E-05</v>
       </c>
-      <c r="W313">
+      <c r="X313">
         <v>0.0008237232289949326</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314">
         <v>24.3</v>
@@ -23667,15 +24609,18 @@
         <v>24.27333333333333</v>
       </c>
       <c r="T314">
+        <v>24.29333333333333</v>
+      </c>
+      <c r="U314">
         <v>0.001875000000001847</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <v>-2.744011195565665E-05</v>
       </c>
-      <c r="V314">
+      <c r="W314">
         <v>2.746573649381467E-05</v>
       </c>
-      <c r="W314">
+      <c r="X314">
         <v>0</v>
       </c>
     </row>
